--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10200"/>
+    <workbookView windowWidth="25600" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -574,30 +574,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,10 +611,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,15 +642,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,46 +666,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,11 +688,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,13 +724,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,109 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +814,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,37 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +931,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,6 +966,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -961,32 +985,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1009,9 +1007,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,145 +1021,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1542,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O115" sqref="O115"/>
     </sheetView>
@@ -9582,8 +9582,8 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10200" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="32060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
     <sheet name="标准角色" sheetId="2" r:id="rId2"/>
     <sheet name="设定状态" sheetId="3" r:id="rId3"/>
+    <sheet name="备用" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>_id</t>
   </si>
@@ -508,16 +509,19 @@
   <si>
     <t>pvp</t>
   </si>
+  <si>
+    <t>机械核心等级</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -529,13 +533,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,6 +578,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -581,7 +616,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,39 +630,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,16 +655,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,39 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,13 +728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +758,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,91 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +935,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,45 +961,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1007,11 +983,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,145 +1025,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1169,16 +1173,16 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1196,27 +1200,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,11 +1554,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="12" customWidth="1"/>
     <col min="3" max="3" width="6" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="5.875" style="13" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="12" customWidth="1"/>
@@ -1566,7 +1570,7 @@
     <col min="14" max="14" width="10.25" style="12" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="12" customWidth="1"/>
     <col min="16" max="16" width="8.875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.375" style="12" customWidth="1"/>
     <col min="19" max="19" width="11.75" style="12" customWidth="1"/>
     <col min="20" max="20" width="11.875" style="12" customWidth="1"/>
@@ -1625,7 +1629,7 @@
       <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="12" t="s">
@@ -1696,25 +1700,25 @@
       <c r="P2" s="15">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1767,25 +1771,25 @@
       <c r="P3" s="15">
         <v>0</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1838,25 +1842,25 @@
       <c r="P4" s="15">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1909,25 +1913,25 @@
       <c r="P5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1980,25 +1984,25 @@
       <c r="P6" s="15">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2051,25 +2055,25 @@
       <c r="P7" s="15">
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2122,25 +2126,25 @@
       <c r="P8" s="15">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2193,25 +2197,25 @@
       <c r="P9" s="15">
         <v>1</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
         <v>1.5</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
         <v>1.5</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2264,25 +2268,25 @@
       <c r="P10" s="15">
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2335,25 +2339,25 @@
       <c r="P11" s="15">
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2406,25 +2410,25 @@
       <c r="P12" s="15">
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2477,25 +2481,25 @@
       <c r="P13" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2548,25 +2552,25 @@
       <c r="P14" s="15">
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2619,25 +2623,25 @@
       <c r="P15" s="15">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2690,25 +2694,25 @@
       <c r="P16" s="15">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2761,25 +2765,25 @@
       <c r="P17" s="15">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1">
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2832,25 +2836,25 @@
       <c r="P18" s="15">
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1">
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2903,25 +2907,25 @@
       <c r="P19" s="15">
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1">
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2974,25 +2978,25 @@
       <c r="P20" s="15">
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1">
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3045,25 +3049,25 @@
       <c r="P21" s="15">
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1">
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3116,25 +3120,25 @@
       <c r="P22" s="15">
         <v>1</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <v>3</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
         <v>3</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3187,25 +3191,25 @@
       <c r="P23" s="15">
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3258,25 +3262,25 @@
       <c r="P24" s="15">
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-      <c r="S24" s="1">
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="1">
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3329,25 +3333,25 @@
       <c r="P25" s="15">
         <v>0</v>
       </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1">
-        <v>1</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1">
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3400,25 +3404,25 @@
       <c r="P26" s="15">
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="W26" s="1">
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3471,25 +3475,25 @@
       <c r="P27" s="15">
         <v>0</v>
       </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="1">
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3542,25 +3546,25 @@
       <c r="P28" s="15">
         <v>1</v>
       </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
         <v>3</v>
       </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
         <v>1.5</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -3613,25 +3617,25 @@
       <c r="P29" s="15">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
-      <c r="S29" s="1">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
-        <v>1</v>
-      </c>
-      <c r="W29" s="1">
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3684,25 +3688,25 @@
       <c r="P30" s="15">
         <v>0</v>
       </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1">
-        <v>1</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1</v>
-      </c>
-      <c r="V30" s="1">
-        <v>1</v>
-      </c>
-      <c r="W30" s="1">
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="W30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3755,25 +3759,25 @@
       <c r="P31" s="15">
         <v>0</v>
       </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1">
-        <v>1</v>
-      </c>
-      <c r="W31" s="1">
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3826,25 +3830,25 @@
       <c r="P32" s="15">
         <v>0</v>
       </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1">
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3897,25 +3901,25 @@
       <c r="P33" s="15">
         <v>0</v>
       </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1">
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3968,25 +3972,25 @@
       <c r="P34" s="15">
         <v>0</v>
       </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1">
-        <v>1</v>
-      </c>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1">
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4039,25 +4043,25 @@
       <c r="P35" s="15">
         <v>0</v>
       </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1</v>
-      </c>
-      <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="1">
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4110,25 +4114,25 @@
       <c r="P36" s="15">
         <v>0</v>
       </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1">
-        <v>1</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1">
-        <v>1</v>
-      </c>
-      <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36" s="1">
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4181,25 +4185,25 @@
       <c r="P37" s="15">
         <v>1</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="2">
         <v>3</v>
       </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
         <v>1.5</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="2">
         <v>1.5</v>
       </c>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
         <v>3</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4252,25 +4256,25 @@
       <c r="P38" s="15">
         <v>0</v>
       </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1">
-        <v>1</v>
-      </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
-      <c r="W38" s="1">
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4323,25 +4327,25 @@
       <c r="P39" s="15">
         <v>0</v>
       </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1">
-        <v>1</v>
-      </c>
-      <c r="V39" s="1">
-        <v>1</v>
-      </c>
-      <c r="W39" s="1">
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4394,25 +4398,25 @@
       <c r="P40" s="15">
         <v>0</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1">
-        <v>1</v>
-      </c>
-      <c r="T40" s="1">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1">
-        <v>1</v>
-      </c>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
-      <c r="W40" s="1">
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4465,25 +4469,25 @@
       <c r="P41" s="15">
         <v>0</v>
       </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1">
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4536,25 +4540,25 @@
       <c r="P42" s="15">
         <v>0</v>
       </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1">
-        <v>1</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1">
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4607,25 +4611,25 @@
       <c r="P43" s="15">
         <v>0</v>
       </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
-      <c r="S43" s="1">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4678,25 +4682,25 @@
       <c r="P44" s="15">
         <v>0</v>
       </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
-      <c r="S44" s="1">
-        <v>1</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1">
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4749,25 +4753,25 @@
       <c r="P45" s="15">
         <v>0</v>
       </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>1</v>
-      </c>
-      <c r="S45" s="1">
-        <v>1</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1">
-        <v>1</v>
-      </c>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4820,25 +4824,25 @@
       <c r="P46" s="15">
         <v>0</v>
       </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1">
-        <v>1</v>
-      </c>
-      <c r="T46" s="1">
-        <v>1</v>
-      </c>
-      <c r="U46" s="1">
-        <v>1</v>
-      </c>
-      <c r="V46" s="1">
-        <v>1</v>
-      </c>
-      <c r="W46" s="1">
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4891,25 +4895,25 @@
       <c r="P47" s="15">
         <v>0</v>
       </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>1</v>
-      </c>
-      <c r="S47" s="1">
-        <v>1</v>
-      </c>
-      <c r="T47" s="1">
-        <v>1</v>
-      </c>
-      <c r="U47" s="1">
-        <v>1</v>
-      </c>
-      <c r="V47" s="1">
-        <v>1</v>
-      </c>
-      <c r="W47" s="1">
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4962,25 +4966,25 @@
       <c r="P48" s="15">
         <v>0</v>
       </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1">
-        <v>1</v>
-      </c>
-      <c r="S48" s="1">
-        <v>1</v>
-      </c>
-      <c r="T48" s="1">
-        <v>1</v>
-      </c>
-      <c r="U48" s="1">
-        <v>1</v>
-      </c>
-      <c r="V48" s="1">
-        <v>1</v>
-      </c>
-      <c r="W48" s="1">
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5033,25 +5037,25 @@
       <c r="P49" s="15">
         <v>0</v>
       </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>1</v>
-      </c>
-      <c r="S49" s="1">
-        <v>1</v>
-      </c>
-      <c r="T49" s="1">
-        <v>1</v>
-      </c>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1">
-        <v>1</v>
-      </c>
-      <c r="W49" s="1">
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5104,25 +5108,25 @@
       <c r="P50" s="15">
         <v>0</v>
       </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1</v>
-      </c>
-      <c r="S50" s="1">
-        <v>1</v>
-      </c>
-      <c r="T50" s="1">
-        <v>1</v>
-      </c>
-      <c r="U50" s="1">
-        <v>1</v>
-      </c>
-      <c r="V50" s="1">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1">
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5175,25 +5179,25 @@
       <c r="P51" s="15">
         <v>0</v>
       </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>1</v>
-      </c>
-      <c r="S51" s="1">
-        <v>1</v>
-      </c>
-      <c r="T51" s="1">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1">
-        <v>1</v>
-      </c>
-      <c r="W51" s="1">
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2">
+        <v>1</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5246,25 +5250,25 @@
       <c r="P52" s="15">
         <v>0</v>
       </c>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <v>1</v>
-      </c>
-      <c r="S52" s="1">
-        <v>1</v>
-      </c>
-      <c r="T52" s="1">
-        <v>1</v>
-      </c>
-      <c r="U52" s="1">
-        <v>1</v>
-      </c>
-      <c r="V52" s="1">
-        <v>1</v>
-      </c>
-      <c r="W52" s="1">
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1</v>
+      </c>
+      <c r="T52" s="2">
+        <v>1</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5317,25 +5321,25 @@
       <c r="P53" s="15">
         <v>0</v>
       </c>
-      <c r="Q53" s="1">
-        <v>0</v>
-      </c>
-      <c r="R53" s="1">
-        <v>1</v>
-      </c>
-      <c r="S53" s="1">
-        <v>1</v>
-      </c>
-      <c r="T53" s="1">
-        <v>1</v>
-      </c>
-      <c r="U53" s="1">
-        <v>1</v>
-      </c>
-      <c r="V53" s="1">
-        <v>1</v>
-      </c>
-      <c r="W53" s="1">
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1</v>
+      </c>
+      <c r="T53" s="2">
+        <v>1</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5388,25 +5392,25 @@
       <c r="P54" s="15">
         <v>0</v>
       </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="1">
-        <v>1</v>
-      </c>
-      <c r="T54" s="1">
-        <v>1</v>
-      </c>
-      <c r="U54" s="1">
-        <v>1</v>
-      </c>
-      <c r="V54" s="1">
-        <v>1</v>
-      </c>
-      <c r="W54" s="1">
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>1</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1</v>
+      </c>
+      <c r="T54" s="2">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5459,25 +5463,25 @@
       <c r="P55" s="15">
         <v>0</v>
       </c>
-      <c r="Q55" s="1">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1">
-        <v>1</v>
-      </c>
-      <c r="S55" s="1">
-        <v>1</v>
-      </c>
-      <c r="T55" s="1">
-        <v>1</v>
-      </c>
-      <c r="U55" s="1">
-        <v>1</v>
-      </c>
-      <c r="V55" s="1">
-        <v>1</v>
-      </c>
-      <c r="W55" s="1">
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5530,25 +5534,25 @@
       <c r="P56" s="15">
         <v>0</v>
       </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <v>1</v>
-      </c>
-      <c r="S56" s="1">
-        <v>1</v>
-      </c>
-      <c r="T56" s="1">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1">
-        <v>1</v>
-      </c>
-      <c r="V56" s="1">
-        <v>1</v>
-      </c>
-      <c r="W56" s="1">
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5601,25 +5605,25 @@
       <c r="P57" s="15">
         <v>0</v>
       </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57" s="1">
-        <v>1</v>
-      </c>
-      <c r="S57" s="1">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1">
-        <v>1</v>
-      </c>
-      <c r="V57" s="1">
-        <v>1</v>
-      </c>
-      <c r="W57" s="1">
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>1</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5672,25 +5676,25 @@
       <c r="P58" s="15">
         <v>0</v>
       </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>1</v>
-      </c>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
-      <c r="T58" s="1">
-        <v>1</v>
-      </c>
-      <c r="U58" s="1">
-        <v>1</v>
-      </c>
-      <c r="V58" s="1">
-        <v>1</v>
-      </c>
-      <c r="W58" s="1">
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5743,25 +5747,25 @@
       <c r="P59" s="15">
         <v>0</v>
       </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <v>1</v>
-      </c>
-      <c r="S59" s="1">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
-        <v>1</v>
-      </c>
-      <c r="V59" s="1">
-        <v>1</v>
-      </c>
-      <c r="W59" s="1">
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="2">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5814,25 +5818,25 @@
       <c r="P60" s="15">
         <v>0</v>
       </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
-        <v>1</v>
-      </c>
-      <c r="S60" s="1">
-        <v>1</v>
-      </c>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
-      <c r="U60" s="1">
-        <v>1</v>
-      </c>
-      <c r="V60" s="1">
-        <v>1</v>
-      </c>
-      <c r="W60" s="1">
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5885,25 +5889,25 @@
       <c r="P61" s="15">
         <v>0</v>
       </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1">
-        <v>1</v>
-      </c>
-      <c r="S61" s="1">
-        <v>1</v>
-      </c>
-      <c r="T61" s="1">
-        <v>1</v>
-      </c>
-      <c r="U61" s="1">
-        <v>1</v>
-      </c>
-      <c r="V61" s="1">
-        <v>1</v>
-      </c>
-      <c r="W61" s="1">
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5956,25 +5960,25 @@
       <c r="P62" s="15">
         <v>0</v>
       </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1">
-        <v>1</v>
-      </c>
-      <c r="S62" s="1">
-        <v>1</v>
-      </c>
-      <c r="T62" s="1">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1">
-        <v>1</v>
-      </c>
-      <c r="V62" s="1">
-        <v>1</v>
-      </c>
-      <c r="W62" s="1">
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1</v>
+      </c>
+      <c r="T62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6027,25 +6031,25 @@
       <c r="P63" s="15">
         <v>0</v>
       </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
-        <v>1</v>
-      </c>
-      <c r="S63" s="1">
-        <v>1</v>
-      </c>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
-      <c r="U63" s="1">
-        <v>1</v>
-      </c>
-      <c r="V63" s="1">
-        <v>1</v>
-      </c>
-      <c r="W63" s="1">
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>1</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6098,25 +6102,25 @@
       <c r="P64" s="15">
         <v>1</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64" s="2">
         <v>-1</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64" s="2">
         <v>3</v>
       </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1">
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
         <v>3</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6169,25 +6173,25 @@
       <c r="P65" s="15">
         <v>0</v>
       </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>1</v>
-      </c>
-      <c r="S65" s="1">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-      <c r="U65" s="1">
-        <v>1</v>
-      </c>
-      <c r="V65" s="1">
-        <v>1</v>
-      </c>
-      <c r="W65" s="1">
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>1</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6240,25 +6244,25 @@
       <c r="P66" s="15">
         <v>0</v>
       </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1">
-        <v>1</v>
-      </c>
-      <c r="S66" s="1">
-        <v>1</v>
-      </c>
-      <c r="T66" s="1">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1">
-        <v>1</v>
-      </c>
-      <c r="V66" s="1">
-        <v>1</v>
-      </c>
-      <c r="W66" s="1">
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1</v>
+      </c>
+      <c r="T66" s="2">
+        <v>1</v>
+      </c>
+      <c r="U66" s="2">
+        <v>1</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="W66" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6311,25 +6315,25 @@
       <c r="P67" s="15">
         <v>0</v>
       </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>1</v>
-      </c>
-      <c r="S67" s="1">
-        <v>1</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1">
-        <v>1</v>
-      </c>
-      <c r="V67" s="1">
-        <v>1</v>
-      </c>
-      <c r="W67" s="1">
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2">
+        <v>1</v>
+      </c>
+      <c r="S67" s="2">
+        <v>1</v>
+      </c>
+      <c r="T67" s="2">
+        <v>1</v>
+      </c>
+      <c r="U67" s="2">
+        <v>1</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
+      <c r="W67" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6382,25 +6386,25 @@
       <c r="P68" s="15">
         <v>0</v>
       </c>
-      <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>1</v>
-      </c>
-      <c r="S68" s="1">
-        <v>1</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1">
-        <v>1</v>
-      </c>
-      <c r="V68" s="1">
-        <v>1</v>
-      </c>
-      <c r="W68" s="1">
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1</v>
+      </c>
+      <c r="T68" s="2">
+        <v>1</v>
+      </c>
+      <c r="U68" s="2">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="W68" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6453,25 +6457,25 @@
       <c r="P69" s="15">
         <v>0</v>
       </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1">
-        <v>1</v>
-      </c>
-      <c r="S69" s="1">
-        <v>1</v>
-      </c>
-      <c r="T69" s="1">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1">
-        <v>1</v>
-      </c>
-      <c r="V69" s="1">
-        <v>1</v>
-      </c>
-      <c r="W69" s="1">
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2">
+        <v>1</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6524,25 +6528,25 @@
       <c r="P70" s="15">
         <v>0</v>
       </c>
-      <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="R70" s="1">
-        <v>1</v>
-      </c>
-      <c r="S70" s="1">
-        <v>1</v>
-      </c>
-      <c r="T70" s="1">
-        <v>1</v>
-      </c>
-      <c r="U70" s="1">
-        <v>1</v>
-      </c>
-      <c r="V70" s="1">
-        <v>1</v>
-      </c>
-      <c r="W70" s="1">
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2">
+        <v>1</v>
+      </c>
+      <c r="U70" s="2">
+        <v>1</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6595,25 +6599,25 @@
       <c r="P71" s="15">
         <v>0</v>
       </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-      <c r="R71" s="1">
-        <v>1</v>
-      </c>
-      <c r="S71" s="1">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1">
-        <v>1</v>
-      </c>
-      <c r="U71" s="1">
-        <v>1</v>
-      </c>
-      <c r="V71" s="1">
-        <v>1</v>
-      </c>
-      <c r="W71" s="1">
+      <c r="Q71" s="2">
+        <v>0</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1</v>
+      </c>
+      <c r="S71" s="2">
+        <v>1</v>
+      </c>
+      <c r="T71" s="2">
+        <v>1</v>
+      </c>
+      <c r="U71" s="2">
+        <v>1</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
+      <c r="W71" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6666,25 +6670,25 @@
       <c r="P72" s="15">
         <v>0</v>
       </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72" s="1">
-        <v>1</v>
-      </c>
-      <c r="S72" s="1">
-        <v>1</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1</v>
-      </c>
-      <c r="U72" s="1">
-        <v>1</v>
-      </c>
-      <c r="V72" s="1">
-        <v>1</v>
-      </c>
-      <c r="W72" s="1">
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1</v>
+      </c>
+      <c r="T72" s="2">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6737,25 +6741,25 @@
       <c r="P73" s="15">
         <v>0</v>
       </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>1</v>
-      </c>
-      <c r="S73" s="1">
-        <v>1</v>
-      </c>
-      <c r="T73" s="1">
-        <v>1</v>
-      </c>
-      <c r="U73" s="1">
-        <v>1</v>
-      </c>
-      <c r="V73" s="1">
-        <v>1</v>
-      </c>
-      <c r="W73" s="1">
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1</v>
+      </c>
+      <c r="T73" s="2">
+        <v>1</v>
+      </c>
+      <c r="U73" s="2">
+        <v>1</v>
+      </c>
+      <c r="V73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6808,25 +6812,25 @@
       <c r="P74" s="15">
         <v>0</v>
       </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>1</v>
-      </c>
-      <c r="S74" s="1">
-        <v>1</v>
-      </c>
-      <c r="T74" s="1">
-        <v>1</v>
-      </c>
-      <c r="U74" s="1">
-        <v>1</v>
-      </c>
-      <c r="V74" s="1">
-        <v>1</v>
-      </c>
-      <c r="W74" s="1">
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1</v>
+      </c>
+      <c r="T74" s="2">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6879,25 +6883,25 @@
       <c r="P75" s="15">
         <v>0</v>
       </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
-      <c r="R75" s="1">
-        <v>1</v>
-      </c>
-      <c r="S75" s="1">
-        <v>1</v>
-      </c>
-      <c r="T75" s="1">
-        <v>1</v>
-      </c>
-      <c r="U75" s="1">
-        <v>1</v>
-      </c>
-      <c r="V75" s="1">
-        <v>1</v>
-      </c>
-      <c r="W75" s="1">
+      <c r="Q75" s="2">
+        <v>0</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1</v>
+      </c>
+      <c r="T75" s="2">
+        <v>1</v>
+      </c>
+      <c r="U75" s="2">
+        <v>1</v>
+      </c>
+      <c r="V75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6950,25 +6954,25 @@
       <c r="P76" s="15">
         <v>0</v>
       </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>1</v>
-      </c>
-      <c r="S76" s="1">
-        <v>1</v>
-      </c>
-      <c r="T76" s="1">
-        <v>1</v>
-      </c>
-      <c r="U76" s="1">
-        <v>1</v>
-      </c>
-      <c r="V76" s="1">
-        <v>1</v>
-      </c>
-      <c r="W76" s="1">
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1</v>
+      </c>
+      <c r="T76" s="2">
+        <v>1</v>
+      </c>
+      <c r="U76" s="2">
+        <v>1</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="W76" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7021,25 +7025,25 @@
       <c r="P77" s="15">
         <v>0</v>
       </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>1</v>
-      </c>
-      <c r="S77" s="1">
-        <v>1</v>
-      </c>
-      <c r="T77" s="1">
-        <v>1</v>
-      </c>
-      <c r="U77" s="1">
-        <v>1</v>
-      </c>
-      <c r="V77" s="1">
-        <v>1</v>
-      </c>
-      <c r="W77" s="1">
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2">
+        <v>1</v>
+      </c>
+      <c r="U77" s="2">
+        <v>1</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7092,25 +7096,25 @@
       <c r="P78" s="15">
         <v>0</v>
       </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78" s="1">
-        <v>1</v>
-      </c>
-      <c r="S78" s="1">
-        <v>1</v>
-      </c>
-      <c r="T78" s="1">
-        <v>1</v>
-      </c>
-      <c r="U78" s="1">
-        <v>1</v>
-      </c>
-      <c r="V78" s="1">
-        <v>1</v>
-      </c>
-      <c r="W78" s="1">
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2">
+        <v>1</v>
+      </c>
+      <c r="T78" s="2">
+        <v>1</v>
+      </c>
+      <c r="U78" s="2">
+        <v>1</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7163,25 +7167,25 @@
       <c r="P79" s="15">
         <v>0</v>
       </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>1</v>
-      </c>
-      <c r="S79" s="1">
-        <v>1</v>
-      </c>
-      <c r="T79" s="1">
-        <v>1</v>
-      </c>
-      <c r="U79" s="1">
-        <v>1</v>
-      </c>
-      <c r="V79" s="1">
-        <v>1</v>
-      </c>
-      <c r="W79" s="1">
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>1</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1</v>
+      </c>
+      <c r="T79" s="2">
+        <v>1</v>
+      </c>
+      <c r="U79" s="2">
+        <v>1</v>
+      </c>
+      <c r="V79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7234,25 +7238,25 @@
       <c r="P80" s="15">
         <v>0</v>
       </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
-        <v>1</v>
-      </c>
-      <c r="S80" s="1">
-        <v>1</v>
-      </c>
-      <c r="T80" s="1">
-        <v>1</v>
-      </c>
-      <c r="U80" s="1">
-        <v>1</v>
-      </c>
-      <c r="V80" s="1">
-        <v>1</v>
-      </c>
-      <c r="W80" s="1">
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1</v>
+      </c>
+      <c r="T80" s="2">
+        <v>1</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1</v>
+      </c>
+      <c r="V80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7305,25 +7309,25 @@
       <c r="P81" s="15">
         <v>0</v>
       </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81" s="1">
-        <v>1</v>
-      </c>
-      <c r="S81" s="1">
-        <v>1</v>
-      </c>
-      <c r="T81" s="1">
-        <v>1</v>
-      </c>
-      <c r="U81" s="1">
-        <v>1</v>
-      </c>
-      <c r="V81" s="1">
-        <v>1</v>
-      </c>
-      <c r="W81" s="1">
+      <c r="Q81" s="2">
+        <v>0</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2">
+        <v>1</v>
+      </c>
+      <c r="U81" s="2">
+        <v>1</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1</v>
+      </c>
+      <c r="W81" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7376,25 +7380,25 @@
       <c r="P82" s="15">
         <v>0</v>
       </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>1</v>
-      </c>
-      <c r="S82" s="1">
-        <v>1</v>
-      </c>
-      <c r="T82" s="1">
-        <v>1</v>
-      </c>
-      <c r="U82" s="1">
-        <v>1</v>
-      </c>
-      <c r="V82" s="1">
-        <v>1</v>
-      </c>
-      <c r="W82" s="1">
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2">
+        <v>1</v>
+      </c>
+      <c r="U82" s="2">
+        <v>1</v>
+      </c>
+      <c r="V82" s="2">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7447,25 +7451,25 @@
       <c r="P83" s="15">
         <v>0</v>
       </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>1</v>
-      </c>
-      <c r="S83" s="1">
-        <v>1</v>
-      </c>
-      <c r="T83" s="1">
-        <v>1</v>
-      </c>
-      <c r="U83" s="1">
-        <v>1</v>
-      </c>
-      <c r="V83" s="1">
-        <v>1</v>
-      </c>
-      <c r="W83" s="1">
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>1</v>
+      </c>
+      <c r="T83" s="2">
+        <v>1</v>
+      </c>
+      <c r="U83" s="2">
+        <v>1</v>
+      </c>
+      <c r="V83" s="2">
+        <v>1</v>
+      </c>
+      <c r="W83" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7518,25 +7522,25 @@
       <c r="P84" s="15">
         <v>0</v>
       </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>1</v>
-      </c>
-      <c r="S84" s="1">
-        <v>1</v>
-      </c>
-      <c r="T84" s="1">
-        <v>1</v>
-      </c>
-      <c r="U84" s="1">
-        <v>1</v>
-      </c>
-      <c r="V84" s="1">
-        <v>1</v>
-      </c>
-      <c r="W84" s="1">
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1</v>
+      </c>
+      <c r="T84" s="2">
+        <v>1</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1</v>
+      </c>
+      <c r="W84" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7589,25 +7593,25 @@
       <c r="P85" s="15">
         <v>0</v>
       </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>1</v>
-      </c>
-      <c r="S85" s="1">
-        <v>1</v>
-      </c>
-      <c r="T85" s="1">
-        <v>1</v>
-      </c>
-      <c r="U85" s="1">
-        <v>1</v>
-      </c>
-      <c r="V85" s="1">
-        <v>1</v>
-      </c>
-      <c r="W85" s="1">
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>1</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1</v>
+      </c>
+      <c r="U85" s="2">
+        <v>1</v>
+      </c>
+      <c r="V85" s="2">
+        <v>1</v>
+      </c>
+      <c r="W85" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7660,25 +7664,25 @@
       <c r="P86" s="15">
         <v>0</v>
       </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>1</v>
-      </c>
-      <c r="S86" s="1">
-        <v>1</v>
-      </c>
-      <c r="T86" s="1">
-        <v>1</v>
-      </c>
-      <c r="U86" s="1">
-        <v>1</v>
-      </c>
-      <c r="V86" s="1">
-        <v>1</v>
-      </c>
-      <c r="W86" s="1">
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2">
+        <v>1</v>
+      </c>
+      <c r="U86" s="2">
+        <v>1</v>
+      </c>
+      <c r="V86" s="2">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7731,25 +7735,25 @@
       <c r="P87" s="15">
         <v>1</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87" s="2">
         <v>-2</v>
       </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87" s="1">
+      <c r="R87" s="2">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2">
+        <v>0</v>
+      </c>
+      <c r="U87" s="2">
         <v>2.25</v>
       </c>
-      <c r="V87" s="1">
-        <v>0</v>
-      </c>
-      <c r="W87" s="1">
+      <c r="V87" s="2">
+        <v>0</v>
+      </c>
+      <c r="W87" s="2">
         <v>2.25</v>
       </c>
     </row>
@@ -7802,25 +7806,25 @@
       <c r="P88" s="15">
         <v>0</v>
       </c>
-      <c r="Q88" s="1">
-        <v>0</v>
-      </c>
-      <c r="R88" s="1">
-        <v>1</v>
-      </c>
-      <c r="S88" s="1">
-        <v>1</v>
-      </c>
-      <c r="T88" s="1">
-        <v>1</v>
-      </c>
-      <c r="U88" s="1">
-        <v>1</v>
-      </c>
-      <c r="V88" s="1">
-        <v>1</v>
-      </c>
-      <c r="W88" s="1">
+      <c r="Q88" s="2">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2">
+        <v>1</v>
+      </c>
+      <c r="T88" s="2">
+        <v>1</v>
+      </c>
+      <c r="U88" s="2">
+        <v>1</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1</v>
+      </c>
+      <c r="W88" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7873,25 +7877,25 @@
       <c r="P89" s="15">
         <v>0</v>
       </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>1</v>
-      </c>
-      <c r="S89" s="1">
-        <v>1</v>
-      </c>
-      <c r="T89" s="1">
-        <v>1</v>
-      </c>
-      <c r="U89" s="1">
-        <v>1</v>
-      </c>
-      <c r="V89" s="1">
-        <v>1</v>
-      </c>
-      <c r="W89" s="1">
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2">
+        <v>1</v>
+      </c>
+      <c r="T89" s="2">
+        <v>1</v>
+      </c>
+      <c r="U89" s="2">
+        <v>1</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7944,25 +7948,25 @@
       <c r="P90" s="15">
         <v>0</v>
       </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>1</v>
-      </c>
-      <c r="S90" s="1">
-        <v>1</v>
-      </c>
-      <c r="T90" s="1">
-        <v>1</v>
-      </c>
-      <c r="U90" s="1">
-        <v>1</v>
-      </c>
-      <c r="V90" s="1">
-        <v>1</v>
-      </c>
-      <c r="W90" s="1">
+      <c r="Q90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2">
+        <v>1</v>
+      </c>
+      <c r="S90" s="2">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2">
+        <v>1</v>
+      </c>
+      <c r="U90" s="2">
+        <v>1</v>
+      </c>
+      <c r="V90" s="2">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8015,25 +8019,25 @@
       <c r="P91" s="15">
         <v>0</v>
       </c>
-      <c r="Q91" s="1">
-        <v>0</v>
-      </c>
-      <c r="R91" s="1">
-        <v>1</v>
-      </c>
-      <c r="S91" s="1">
-        <v>1</v>
-      </c>
-      <c r="T91" s="1">
-        <v>1</v>
-      </c>
-      <c r="U91" s="1">
-        <v>1</v>
-      </c>
-      <c r="V91" s="1">
-        <v>1</v>
-      </c>
-      <c r="W91" s="1">
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1</v>
+      </c>
+      <c r="U91" s="2">
+        <v>1</v>
+      </c>
+      <c r="V91" s="2">
+        <v>1</v>
+      </c>
+      <c r="W91" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8086,25 +8090,25 @@
       <c r="P92" s="15">
         <v>0</v>
       </c>
-      <c r="Q92" s="1">
-        <v>0</v>
-      </c>
-      <c r="R92" s="1">
-        <v>1</v>
-      </c>
-      <c r="S92" s="1">
-        <v>1</v>
-      </c>
-      <c r="T92" s="1">
-        <v>1</v>
-      </c>
-      <c r="U92" s="1">
-        <v>1</v>
-      </c>
-      <c r="V92" s="1">
-        <v>1</v>
-      </c>
-      <c r="W92" s="1">
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1</v>
+      </c>
+      <c r="T92" s="2">
+        <v>1</v>
+      </c>
+      <c r="U92" s="2">
+        <v>1</v>
+      </c>
+      <c r="V92" s="2">
+        <v>1</v>
+      </c>
+      <c r="W92" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8157,25 +8161,25 @@
       <c r="P93" s="15">
         <v>0</v>
       </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>1</v>
-      </c>
-      <c r="S93" s="1">
-        <v>1</v>
-      </c>
-      <c r="T93" s="1">
-        <v>1</v>
-      </c>
-      <c r="U93" s="1">
-        <v>1</v>
-      </c>
-      <c r="V93" s="1">
-        <v>1</v>
-      </c>
-      <c r="W93" s="1">
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1</v>
+      </c>
+      <c r="U93" s="2">
+        <v>1</v>
+      </c>
+      <c r="V93" s="2">
+        <v>1</v>
+      </c>
+      <c r="W93" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8228,25 +8232,25 @@
       <c r="P94" s="15">
         <v>0</v>
       </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
-      <c r="R94" s="1">
-        <v>1</v>
-      </c>
-      <c r="S94" s="1">
-        <v>1</v>
-      </c>
-      <c r="T94" s="1">
-        <v>1</v>
-      </c>
-      <c r="U94" s="1">
-        <v>1</v>
-      </c>
-      <c r="V94" s="1">
-        <v>1</v>
-      </c>
-      <c r="W94" s="1">
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1</v>
+      </c>
+      <c r="U94" s="2">
+        <v>1</v>
+      </c>
+      <c r="V94" s="2">
+        <v>1</v>
+      </c>
+      <c r="W94" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8299,25 +8303,25 @@
       <c r="P95" s="15">
         <v>0</v>
       </c>
-      <c r="Q95" s="1">
-        <v>0</v>
-      </c>
-      <c r="R95" s="1">
-        <v>1</v>
-      </c>
-      <c r="S95" s="1">
-        <v>1</v>
-      </c>
-      <c r="T95" s="1">
-        <v>1</v>
-      </c>
-      <c r="U95" s="1">
-        <v>1</v>
-      </c>
-      <c r="V95" s="1">
-        <v>1</v>
-      </c>
-      <c r="W95" s="1">
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+      <c r="S95" s="2">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2">
+        <v>1</v>
+      </c>
+      <c r="U95" s="2">
+        <v>1</v>
+      </c>
+      <c r="V95" s="2">
+        <v>1</v>
+      </c>
+      <c r="W95" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8370,25 +8374,25 @@
       <c r="P96" s="15">
         <v>0</v>
       </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>1</v>
-      </c>
-      <c r="S96" s="1">
-        <v>1</v>
-      </c>
-      <c r="T96" s="1">
-        <v>1</v>
-      </c>
-      <c r="U96" s="1">
-        <v>1</v>
-      </c>
-      <c r="V96" s="1">
-        <v>1</v>
-      </c>
-      <c r="W96" s="1">
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="S96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" s="2">
+        <v>1</v>
+      </c>
+      <c r="U96" s="2">
+        <v>1</v>
+      </c>
+      <c r="V96" s="2">
+        <v>1</v>
+      </c>
+      <c r="W96" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8441,25 +8445,25 @@
       <c r="P97" s="15">
         <v>0</v>
       </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>1</v>
-      </c>
-      <c r="S97" s="1">
-        <v>1</v>
-      </c>
-      <c r="T97" s="1">
-        <v>1</v>
-      </c>
-      <c r="U97" s="1">
-        <v>1</v>
-      </c>
-      <c r="V97" s="1">
-        <v>1</v>
-      </c>
-      <c r="W97" s="1">
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+      <c r="S97" s="2">
+        <v>1</v>
+      </c>
+      <c r="T97" s="2">
+        <v>1</v>
+      </c>
+      <c r="U97" s="2">
+        <v>1</v>
+      </c>
+      <c r="V97" s="2">
+        <v>1</v>
+      </c>
+      <c r="W97" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8512,25 +8516,25 @@
       <c r="P98" s="15">
         <v>0</v>
       </c>
-      <c r="Q98" s="1">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1">
-        <v>1</v>
-      </c>
-      <c r="S98" s="1">
-        <v>1</v>
-      </c>
-      <c r="T98" s="1">
-        <v>1</v>
-      </c>
-      <c r="U98" s="1">
-        <v>1</v>
-      </c>
-      <c r="V98" s="1">
-        <v>1</v>
-      </c>
-      <c r="W98" s="1">
+      <c r="Q98" s="2">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+      <c r="S98" s="2">
+        <v>1</v>
+      </c>
+      <c r="T98" s="2">
+        <v>1</v>
+      </c>
+      <c r="U98" s="2">
+        <v>1</v>
+      </c>
+      <c r="V98" s="2">
+        <v>1</v>
+      </c>
+      <c r="W98" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8583,25 +8587,25 @@
       <c r="P99" s="15">
         <v>0</v>
       </c>
-      <c r="Q99" s="1">
-        <v>0</v>
-      </c>
-      <c r="R99" s="1">
-        <v>1</v>
-      </c>
-      <c r="S99" s="1">
-        <v>1</v>
-      </c>
-      <c r="T99" s="1">
-        <v>1</v>
-      </c>
-      <c r="U99" s="1">
-        <v>1</v>
-      </c>
-      <c r="V99" s="1">
-        <v>1</v>
-      </c>
-      <c r="W99" s="1">
+      <c r="Q99" s="2">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="S99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1</v>
+      </c>
+      <c r="U99" s="2">
+        <v>1</v>
+      </c>
+      <c r="V99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8654,25 +8658,25 @@
       <c r="P100" s="15">
         <v>0</v>
       </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>1</v>
-      </c>
-      <c r="S100" s="1">
-        <v>1</v>
-      </c>
-      <c r="T100" s="1">
-        <v>1</v>
-      </c>
-      <c r="U100" s="1">
-        <v>1</v>
-      </c>
-      <c r="V100" s="1">
-        <v>1</v>
-      </c>
-      <c r="W100" s="1">
+      <c r="Q100" s="2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+      <c r="S100" s="2">
+        <v>1</v>
+      </c>
+      <c r="T100" s="2">
+        <v>1</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1</v>
+      </c>
+      <c r="V100" s="2">
+        <v>1</v>
+      </c>
+      <c r="W100" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8725,25 +8729,25 @@
       <c r="P101" s="15">
         <v>0</v>
       </c>
-      <c r="Q101" s="1">
-        <v>0</v>
-      </c>
-      <c r="R101" s="1">
-        <v>1</v>
-      </c>
-      <c r="S101" s="1">
-        <v>1</v>
-      </c>
-      <c r="T101" s="1">
-        <v>1</v>
-      </c>
-      <c r="U101" s="1">
-        <v>1</v>
-      </c>
-      <c r="V101" s="1">
-        <v>1</v>
-      </c>
-      <c r="W101" s="1">
+      <c r="Q101" s="2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="S101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1</v>
+      </c>
+      <c r="V101" s="2">
+        <v>1</v>
+      </c>
+      <c r="W101" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8796,25 +8800,25 @@
       <c r="P102" s="15">
         <v>0</v>
       </c>
-      <c r="Q102" s="1">
-        <v>0</v>
-      </c>
-      <c r="R102" s="1">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1">
-        <v>1</v>
-      </c>
-      <c r="T102" s="1">
-        <v>1</v>
-      </c>
-      <c r="U102" s="1">
-        <v>1</v>
-      </c>
-      <c r="V102" s="1">
-        <v>1</v>
-      </c>
-      <c r="W102" s="1">
+      <c r="Q102" s="2">
+        <v>0</v>
+      </c>
+      <c r="R102" s="2">
+        <v>1</v>
+      </c>
+      <c r="S102" s="2">
+        <v>1</v>
+      </c>
+      <c r="T102" s="2">
+        <v>1</v>
+      </c>
+      <c r="U102" s="2">
+        <v>1</v>
+      </c>
+      <c r="V102" s="2">
+        <v>1</v>
+      </c>
+      <c r="W102" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8867,25 +8871,25 @@
       <c r="P103" s="15">
         <v>0</v>
       </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
-      <c r="R103" s="1">
-        <v>1</v>
-      </c>
-      <c r="S103" s="1">
-        <v>1</v>
-      </c>
-      <c r="T103" s="1">
-        <v>1</v>
-      </c>
-      <c r="U103" s="1">
-        <v>1</v>
-      </c>
-      <c r="V103" s="1">
-        <v>1</v>
-      </c>
-      <c r="W103" s="1">
+      <c r="Q103" s="2">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2">
+        <v>1</v>
+      </c>
+      <c r="S103" s="2">
+        <v>1</v>
+      </c>
+      <c r="T103" s="2">
+        <v>1</v>
+      </c>
+      <c r="U103" s="2">
+        <v>1</v>
+      </c>
+      <c r="V103" s="2">
+        <v>1</v>
+      </c>
+      <c r="W103" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8938,25 +8942,25 @@
       <c r="P104" s="15">
         <v>1</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="Q104" s="2">
         <v>-1</v>
       </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <v>0</v>
-      </c>
-      <c r="T104" s="1">
-        <v>0</v>
-      </c>
-      <c r="U104" s="1">
-        <v>0</v>
-      </c>
-      <c r="V104" s="1">
+      <c r="R104" s="2">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0</v>
+      </c>
+      <c r="V104" s="2">
         <v>2.25</v>
       </c>
-      <c r="W104" s="1">
+      <c r="W104" s="2">
         <v>2.25</v>
       </c>
     </row>
@@ -9009,25 +9013,25 @@
       <c r="P105" s="15">
         <v>1</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="Q105" s="2">
         <v>2</v>
       </c>
-      <c r="R105" s="1">
-        <v>0</v>
-      </c>
-      <c r="S105" s="1">
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
         <v>3</v>
       </c>
-      <c r="T105" s="1">
-        <v>0</v>
-      </c>
-      <c r="U105" s="1">
-        <v>0</v>
-      </c>
-      <c r="V105" s="1">
+      <c r="T105" s="2">
+        <v>0</v>
+      </c>
+      <c r="U105" s="2">
+        <v>0</v>
+      </c>
+      <c r="V105" s="2">
         <v>3</v>
       </c>
-      <c r="W105" s="1">
+      <c r="W105" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9115,7 +9119,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:2">
+    <row r="1" ht="15.6" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
@@ -9580,24 +9584,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="9.35714285714286" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9.14285714285714" style="1"/>
+    <col min="1" max="3" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="9.35714285714286" style="2" customWidth="1"/>
+    <col min="5" max="12" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -9627,104 +9631,104 @@
       <c r="K1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="4">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>400</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4">
+        <v>95</v>
+      </c>
+      <c r="J2" s="4">
+        <v>85</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>400</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
+        <v>95</v>
+      </c>
+      <c r="J3" s="4">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
         <v>81</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>121</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>161</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -9733,36 +9737,36 @@
         <v>-1</v>
       </c>
       <c r="I4" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -9771,23 +9775,23 @@
         <v>-1</v>
       </c>
       <c r="I5" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="4">
@@ -9806,102 +9810,102 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="4">
         <v>15</v>
       </c>
       <c r="J6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>-1</v>
       </c>
       <c r="I7" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>161</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>15</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="4">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>240</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4">
-        <v>15</v>
-      </c>
       <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C9" s="4">
@@ -9920,7 +9924,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="4">
         <v>25</v>
@@ -9929,17 +9933,17 @@
         <v>15</v>
       </c>
       <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="4">
@@ -9958,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <v>25</v>
@@ -9967,17 +9971,17 @@
         <v>15</v>
       </c>
       <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="4">
@@ -9996,7 +10000,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>25</v>
@@ -10005,17 +10009,17 @@
         <v>15</v>
       </c>
       <c r="K11" s="4">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="4">
@@ -10034,33 +10038,33 @@
         <v>5</v>
       </c>
       <c r="H12" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4">
         <v>25</v>
       </c>
       <c r="J12" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C13" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -10075,30 +10079,30 @@
         <v>30</v>
       </c>
       <c r="I13" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J13" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4">
-        <v>6</v>
-      </c>
-      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -10113,30 +10117,30 @@
         <v>30</v>
       </c>
       <c r="I14" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J14" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K14" s="4">
-        <v>7</v>
-      </c>
-      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -10151,30 +10155,30 @@
         <v>30</v>
       </c>
       <c r="I15" s="4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J15" s="4">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K15" s="4">
-        <v>8</v>
-      </c>
-      <c r="L15" s="2">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C16" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -10189,30 +10193,30 @@
         <v>30</v>
       </c>
       <c r="I16" s="4">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="J16" s="4">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="K16" s="4">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -10227,182 +10231,182 @@
         <v>30</v>
       </c>
       <c r="I17" s="4">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="J17" s="4">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K17" s="4">
+        <v>8</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>400</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <v>161</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9</v>
-      </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="J18" s="4">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
+      <c r="B19" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="4">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>500</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>10</v>
-      </c>
-      <c r="D19" s="4">
-        <v>200</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>9</v>
       </c>
       <c r="G19" s="4">
         <v>5</v>
       </c>
       <c r="H19" s="4">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4">
+        <v>160</v>
+      </c>
+      <c r="J19" s="4">
+        <v>150</v>
+      </c>
+      <c r="K19" s="4">
         <v>10</v>
       </c>
-      <c r="I19" s="4">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>161</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="J19" s="4">
+      <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="4">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4">
-        <v>240</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4">
-        <v>25</v>
-      </c>
-      <c r="J20" s="4">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="4">
-        <v>13</v>
-      </c>
       <c r="D21" s="4">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4">
         <v>5</v>
       </c>
       <c r="H21" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K21" s="4">
-        <v>7</v>
-      </c>
-      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -10414,33 +10418,33 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J22" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K22" s="4">
-        <v>8</v>
-      </c>
-      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -10455,16 +10459,234 @@
         <v>30</v>
       </c>
       <c r="I23" s="4">
+        <v>35</v>
+      </c>
+      <c r="J23" s="4">
+        <v>25</v>
+      </c>
+      <c r="K23" s="4">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <v>300</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4">
+        <v>55</v>
+      </c>
+      <c r="J24" s="4">
+        <v>45</v>
+      </c>
+      <c r="K24" s="4">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="4">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>400</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4">
         <v>95</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J25" s="4">
         <v>85</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K25" s="4">
         <v>10</v>
       </c>
-      <c r="L23" s="2">
-        <v>0</v>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="32060" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="32640"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -578,12 +578,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -607,9 +615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,39 +631,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -669,9 +661,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,29 +700,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,7 +719,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,7 +728,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,37 +878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,133 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,15 +939,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -951,41 +948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,151 +986,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1171,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1215,6 +1221,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1546,10 +1555,10 @@
   <sheetPr/>
   <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O115" sqref="O115"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1599,7 +1608,7 @@
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
@@ -1670,13 +1679,13 @@
       <c r="F2" s="16">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="19">
         <v>0.4</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <v>0.8</v>
       </c>
       <c r="J2" s="15">
@@ -1741,13 +1750,13 @@
       <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="19">
         <v>1.1</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="19">
         <v>0</v>
       </c>
       <c r="J3" s="15">
@@ -1812,13 +1821,13 @@
       <c r="F4" s="16">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
         <v>0</v>
       </c>
       <c r="J4" s="15">
@@ -1883,13 +1892,13 @@
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
         <v>0</v>
       </c>
       <c r="J5" s="15">
@@ -1954,13 +1963,13 @@
       <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
         <v>0</v>
       </c>
       <c r="J6" s="15">
@@ -2025,13 +2034,13 @@
       <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
         <v>0</v>
       </c>
       <c r="J7" s="15">
@@ -2096,13 +2105,13 @@
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
         <v>0</v>
       </c>
       <c r="J8" s="15">
@@ -2167,13 +2176,13 @@
       <c r="F9" s="16">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="19">
         <v>0.7</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="19">
         <v>0.4</v>
       </c>
       <c r="J9" s="15">
@@ -2238,13 +2247,13 @@
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
         <v>0</v>
       </c>
       <c r="J10" s="15">
@@ -2309,13 +2318,13 @@
       <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="19">
         <v>1.2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>0.3</v>
       </c>
       <c r="J11" s="15">
@@ -2380,13 +2389,13 @@
       <c r="F12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="19">
         <v>0.5</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>0.5</v>
       </c>
       <c r="J12" s="15">
@@ -2451,13 +2460,13 @@
       <c r="F13" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
         <v>0.4</v>
       </c>
       <c r="J13" s="15">
@@ -2522,13 +2531,13 @@
       <c r="F14" s="16">
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="19">
         <v>1.1</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="15">
@@ -2593,13 +2602,13 @@
       <c r="F15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="15">
@@ -2664,13 +2673,13 @@
       <c r="F16" s="16">
         <v>1</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
         <v>0</v>
       </c>
       <c r="J16" s="15">
@@ -2735,13 +2744,13 @@
       <c r="F17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
         <v>0</v>
       </c>
       <c r="J17" s="15">
@@ -2806,13 +2815,13 @@
       <c r="F18" s="16">
         <v>2</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>0</v>
       </c>
       <c r="J18" s="15">
@@ -2877,13 +2886,13 @@
       <c r="F19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>0.6</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <v>0</v>
       </c>
       <c r="J19" s="15">
@@ -2948,13 +2957,13 @@
       <c r="F20" s="16">
         <v>1</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <v>0.7</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="19">
         <v>0.5</v>
       </c>
       <c r="J20" s="15">
@@ -3019,13 +3028,13 @@
       <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <v>0.7</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="19">
         <v>0.6</v>
       </c>
       <c r="J21" s="15">
@@ -3090,13 +3099,13 @@
       <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="19">
         <v>0.5</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <v>0.7</v>
       </c>
       <c r="J22" s="15">
@@ -3161,13 +3170,13 @@
       <c r="F23" s="16">
         <v>2</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <v>0</v>
       </c>
       <c r="J23" s="15">
@@ -3232,13 +3241,13 @@
       <c r="F24" s="16">
         <v>2</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <v>0.7</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="19">
         <v>0.5</v>
       </c>
       <c r="J24" s="15">
@@ -3303,13 +3312,13 @@
       <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="19">
         <v>0.7</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="19">
         <v>0.5</v>
       </c>
       <c r="J25" s="15">
@@ -3374,13 +3383,13 @@
       <c r="F26" s="16">
         <v>3</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="19">
         <v>0.9</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="19">
         <v>0.4</v>
       </c>
       <c r="J26" s="15">
@@ -3445,13 +3454,13 @@
       <c r="F27" s="16">
         <v>1</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <v>0.9</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="19">
         <v>0.5</v>
       </c>
       <c r="J27" s="15">
@@ -3516,13 +3525,13 @@
       <c r="F28" s="16">
         <v>2</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <v>0.2</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="19">
         <v>0.6</v>
       </c>
       <c r="J28" s="15">
@@ -3587,13 +3596,13 @@
       <c r="F29" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
         <v>0</v>
       </c>
       <c r="J29" s="15">
@@ -3658,13 +3667,13 @@
       <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="18">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18">
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
         <v>0</v>
       </c>
       <c r="J30" s="15">
@@ -3729,13 +3738,13 @@
       <c r="F31" s="16">
         <v>1</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="18">
-        <v>0</v>
-      </c>
-      <c r="I31" s="18">
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
         <v>0</v>
       </c>
       <c r="J31" s="15">
@@ -3800,13 +3809,13 @@
       <c r="F32" s="16">
         <v>1</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <v>0.9</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="19">
         <v>0.45</v>
       </c>
       <c r="J32" s="15">
@@ -3871,13 +3880,13 @@
       <c r="F33" s="16">
         <v>1</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="19">
         <v>1.2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="19">
         <v>0.4</v>
       </c>
       <c r="J33" s="15">
@@ -3942,13 +3951,13 @@
       <c r="F34" s="16">
         <v>2</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <v>0.7</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="19">
         <v>0.5</v>
       </c>
       <c r="J34" s="15">
@@ -4013,13 +4022,13 @@
       <c r="F35" s="16">
         <v>3</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="18">
-        <v>0</v>
-      </c>
-      <c r="I35" s="18">
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
         <v>0.9</v>
       </c>
       <c r="J35" s="15">
@@ -4084,13 +4093,13 @@
       <c r="F36" s="16">
         <v>2</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="19">
         <v>0.9</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="19">
         <v>0.5</v>
       </c>
       <c r="J36" s="15">
@@ -4155,13 +4164,13 @@
       <c r="F37" s="16">
         <v>3</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="19">
         <v>0.7</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="19">
         <v>0.7</v>
       </c>
       <c r="J37" s="15">
@@ -4226,13 +4235,13 @@
       <c r="F38" s="16">
         <v>1</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
         <v>0</v>
       </c>
       <c r="J38" s="15">
@@ -4297,13 +4306,13 @@
       <c r="F39" s="16">
         <v>3</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="19">
         <v>0.6</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="19">
         <v>0.4</v>
       </c>
       <c r="J39" s="15">
@@ -4368,13 +4377,13 @@
       <c r="F40" s="16">
         <v>1</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="19">
         <v>1.2</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="19">
         <v>0.2</v>
       </c>
       <c r="J40" s="15">
@@ -4427,7 +4436,7 @@
       <c r="B41" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="17">
         <v>5</v>
       </c>
       <c r="D41" s="15">
@@ -4439,13 +4448,13 @@
       <c r="F41" s="16">
         <v>2</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="19">
         <v>0.6</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="19">
         <v>0.6</v>
       </c>
       <c r="J41" s="15">
@@ -4510,13 +4519,13 @@
       <c r="F42" s="16">
         <v>2</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="19">
         <v>0.6</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="19">
         <v>0</v>
       </c>
       <c r="J42" s="15">
@@ -4569,7 +4578,7 @@
       <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="17">
         <v>5</v>
       </c>
       <c r="D43" s="15">
@@ -4581,13 +4590,13 @@
       <c r="F43" s="16">
         <v>3</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="19">
         <v>0.5</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="19">
         <v>0.8</v>
       </c>
       <c r="J43" s="15">
@@ -4652,13 +4661,13 @@
       <c r="F44" s="16">
         <v>1</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="19">
         <v>0.3</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="19">
         <v>0.6</v>
       </c>
       <c r="J44" s="15">
@@ -4723,13 +4732,13 @@
       <c r="F45" s="16">
         <v>3</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="19">
         <v>0.7</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="19">
         <v>0.5</v>
       </c>
       <c r="J45" s="15">
@@ -4794,13 +4803,13 @@
       <c r="F46" s="16">
         <v>1</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="19">
         <v>0.7</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="19">
         <v>0.5</v>
       </c>
       <c r="J46" s="15">
@@ -4865,13 +4874,13 @@
       <c r="F47" s="16">
         <v>2</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="19">
         <v>0.4</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="19">
         <v>0.6</v>
       </c>
       <c r="J47" s="15">
@@ -4936,13 +4945,13 @@
       <c r="F48" s="16">
         <v>1</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="18">
-        <v>0</v>
-      </c>
-      <c r="I48" s="18">
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
         <v>0</v>
       </c>
       <c r="J48" s="15">
@@ -5007,13 +5016,13 @@
       <c r="F49" s="16">
         <v>1</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="18">
-        <v>0</v>
-      </c>
-      <c r="I49" s="18">
+      <c r="H49" s="19">
+        <v>0</v>
+      </c>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
       <c r="J49" s="15">
@@ -5078,13 +5087,13 @@
       <c r="F50" s="16">
         <v>2</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="19">
         <v>0.4</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="19">
         <v>0.7</v>
       </c>
       <c r="J50" s="15">
@@ -5149,13 +5158,13 @@
       <c r="F51" s="16">
         <v>1</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="18">
-        <v>0</v>
-      </c>
-      <c r="I51" s="18">
+      <c r="H51" s="19">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
       <c r="J51" s="15">
@@ -5220,13 +5229,13 @@
       <c r="F52" s="16">
         <v>3</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="19">
         <v>0.7</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="19">
         <v>0.4</v>
       </c>
       <c r="J52" s="15">
@@ -5291,13 +5300,13 @@
       <c r="F53" s="16">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="18">
-        <v>0</v>
-      </c>
-      <c r="I53" s="18">
+      <c r="H53" s="19">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
         <v>0</v>
       </c>
       <c r="J53" s="15">
@@ -5362,13 +5371,13 @@
       <c r="F54" s="16">
         <v>3</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="18">
-        <v>0</v>
-      </c>
-      <c r="I54" s="18">
+      <c r="H54" s="19">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
         <v>0</v>
       </c>
       <c r="J54" s="15">
@@ -5433,13 +5442,13 @@
       <c r="F55" s="16">
         <v>1</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="18">
-        <v>0</v>
-      </c>
-      <c r="I55" s="18">
+      <c r="H55" s="19">
+        <v>0</v>
+      </c>
+      <c r="I55" s="19">
         <v>0</v>
       </c>
       <c r="J55" s="15">
@@ -5504,13 +5513,13 @@
       <c r="F56" s="16">
         <v>2</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="18">
-        <v>0</v>
-      </c>
-      <c r="I56" s="18">
+      <c r="H56" s="19">
+        <v>0</v>
+      </c>
+      <c r="I56" s="19">
         <v>0</v>
       </c>
       <c r="J56" s="15">
@@ -5575,13 +5584,13 @@
       <c r="F57" s="16">
         <v>1</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="18">
-        <v>0</v>
-      </c>
-      <c r="I57" s="18">
+      <c r="H57" s="19">
+        <v>0</v>
+      </c>
+      <c r="I57" s="19">
         <v>0</v>
       </c>
       <c r="J57" s="15">
@@ -5646,13 +5655,13 @@
       <c r="F58" s="16">
         <v>3</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="18">
-        <v>0</v>
-      </c>
-      <c r="I58" s="18">
+      <c r="H58" s="19">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
         <v>0</v>
       </c>
       <c r="J58" s="15">
@@ -5717,13 +5726,13 @@
       <c r="F59" s="16">
         <v>1</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="18">
-        <v>0</v>
-      </c>
-      <c r="I59" s="18">
+      <c r="H59" s="19">
+        <v>0</v>
+      </c>
+      <c r="I59" s="19">
         <v>0</v>
       </c>
       <c r="J59" s="15">
@@ -5788,13 +5797,13 @@
       <c r="F60" s="16">
         <v>3</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="18">
-        <v>0</v>
-      </c>
-      <c r="I60" s="18">
+      <c r="H60" s="19">
+        <v>0</v>
+      </c>
+      <c r="I60" s="19">
         <v>0</v>
       </c>
       <c r="J60" s="15">
@@ -5847,7 +5856,7 @@
       <c r="B61" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="17">
         <v>5</v>
       </c>
       <c r="D61" s="15">
@@ -5859,13 +5868,13 @@
       <c r="F61" s="16">
         <v>3</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="19">
         <v>0.5</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="19">
         <v>0.5</v>
       </c>
       <c r="J61" s="15">
@@ -5918,7 +5927,7 @@
       <c r="B62" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="17">
         <v>5</v>
       </c>
       <c r="D62" s="15">
@@ -5930,13 +5939,13 @@
       <c r="F62" s="16">
         <v>1</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="19">
         <v>1.2</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="19">
         <v>0.3</v>
       </c>
       <c r="J62" s="15">
@@ -5989,7 +5998,7 @@
       <c r="B63" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="17">
         <v>5</v>
       </c>
       <c r="D63" s="15">
@@ -6001,13 +6010,13 @@
       <c r="F63" s="16">
         <v>2</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="19">
         <v>0.3</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="19">
         <v>0.8</v>
       </c>
       <c r="J63" s="15">
@@ -6072,13 +6081,13 @@
       <c r="F64" s="16">
         <v>1</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="19">
         <v>0.8</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="19">
         <v>0.5</v>
       </c>
       <c r="J64" s="15">
@@ -6143,13 +6152,13 @@
       <c r="F65" s="16">
         <v>1</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="18">
-        <v>0</v>
-      </c>
-      <c r="I65" s="18">
+      <c r="H65" s="19">
+        <v>0</v>
+      </c>
+      <c r="I65" s="19">
         <v>0</v>
       </c>
       <c r="J65" s="15">
@@ -6214,13 +6223,13 @@
       <c r="F66" s="16">
         <v>1</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="18">
-        <v>0</v>
-      </c>
-      <c r="I66" s="18">
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="19">
         <v>0</v>
       </c>
       <c r="J66" s="15">
@@ -6285,13 +6294,13 @@
       <c r="F67" s="16">
         <v>3</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="18">
-        <v>0</v>
-      </c>
-      <c r="I67" s="18">
+      <c r="H67" s="19">
+        <v>0</v>
+      </c>
+      <c r="I67" s="19">
         <v>0</v>
       </c>
       <c r="J67" s="15">
@@ -6356,13 +6365,13 @@
       <c r="F68" s="16">
         <v>1</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="18">
-        <v>0</v>
-      </c>
-      <c r="I68" s="18">
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+      <c r="I68" s="19">
         <v>0</v>
       </c>
       <c r="J68" s="15">
@@ -6427,13 +6436,13 @@
       <c r="F69" s="16">
         <v>2</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H69" s="15">
         <v>0</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="19">
         <v>0</v>
       </c>
       <c r="J69" s="15">
@@ -6498,13 +6507,13 @@
       <c r="F70" s="16">
         <v>1</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H70" s="15">
         <v>0</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="19">
         <v>0</v>
       </c>
       <c r="J70" s="15">
@@ -6569,13 +6578,13 @@
       <c r="F71" s="16">
         <v>1</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H71" s="15">
         <v>0</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="19">
         <v>0</v>
       </c>
       <c r="J71" s="15">
@@ -6640,13 +6649,13 @@
       <c r="F72" s="16">
         <v>1</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="15">
         <v>0</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="19">
         <v>0</v>
       </c>
       <c r="J72" s="15">
@@ -6711,13 +6720,13 @@
       <c r="F73" s="16">
         <v>1</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="15">
         <v>0</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="19">
         <v>0</v>
       </c>
       <c r="J73" s="15">
@@ -6782,13 +6791,13 @@
       <c r="F74" s="16">
         <v>1</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H74" s="15">
         <v>0</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="19">
         <v>0</v>
       </c>
       <c r="J74" s="15">
@@ -6853,13 +6862,13 @@
       <c r="F75" s="16">
         <v>2</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H75" s="15">
         <v>0</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="19">
         <v>0</v>
       </c>
       <c r="J75" s="15">
@@ -6924,13 +6933,13 @@
       <c r="F76" s="16">
         <v>1</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="15">
         <v>0</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I76" s="19">
         <v>0</v>
       </c>
       <c r="J76" s="15">
@@ -6995,13 +7004,13 @@
       <c r="F77" s="16">
         <v>3</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H77" s="15">
         <v>0</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I77" s="19">
         <v>0</v>
       </c>
       <c r="J77" s="15">
@@ -7066,13 +7075,13 @@
       <c r="F78" s="16">
         <v>1</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G78" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H78" s="15">
         <v>0</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I78" s="19">
         <v>0</v>
       </c>
       <c r="J78" s="15">
@@ -7137,13 +7146,13 @@
       <c r="F79" s="16">
         <v>1</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H79" s="15">
         <v>0</v>
       </c>
-      <c r="I79" s="18">
+      <c r="I79" s="19">
         <v>0</v>
       </c>
       <c r="J79" s="15">
@@ -7208,13 +7217,13 @@
       <c r="F80" s="16">
         <v>3</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H80" s="15">
         <v>0</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I80" s="19">
         <v>0</v>
       </c>
       <c r="J80" s="15">
@@ -7279,13 +7288,13 @@
       <c r="F81" s="16">
         <v>3</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
       </c>
-      <c r="I81" s="18">
+      <c r="I81" s="19">
         <v>0</v>
       </c>
       <c r="J81" s="15">
@@ -7350,13 +7359,13 @@
       <c r="F82" s="16">
         <v>2</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H82" s="15">
         <v>0</v>
       </c>
-      <c r="I82" s="18">
+      <c r="I82" s="19">
         <v>0</v>
       </c>
       <c r="J82" s="15">
@@ -7421,13 +7430,13 @@
       <c r="F83" s="16">
         <v>1</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="15">
         <v>0</v>
       </c>
-      <c r="I83" s="18">
+      <c r="I83" s="19">
         <v>0</v>
       </c>
       <c r="J83" s="15">
@@ -7492,13 +7501,13 @@
       <c r="F84" s="16">
         <v>1</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H84" s="15">
         <v>0</v>
       </c>
-      <c r="I84" s="18">
+      <c r="I84" s="19">
         <v>0</v>
       </c>
       <c r="J84" s="15">
@@ -7563,13 +7572,13 @@
       <c r="F85" s="16">
         <v>1</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G85" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H85" s="15">
         <v>0</v>
       </c>
-      <c r="I85" s="18">
+      <c r="I85" s="19">
         <v>0</v>
       </c>
       <c r="J85" s="15">
@@ -7634,13 +7643,13 @@
       <c r="F86" s="16">
         <v>2</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H86" s="15">
         <v>0.6</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I86" s="19">
         <v>0.7</v>
       </c>
       <c r="J86" s="15">
@@ -7693,7 +7702,7 @@
       <c r="B87" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="17">
         <v>5</v>
       </c>
       <c r="D87" s="15">
@@ -7705,13 +7714,13 @@
       <c r="F87" s="16">
         <v>2</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H87" s="15">
         <v>0.3</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="19">
         <v>0.8</v>
       </c>
       <c r="J87" s="15">
@@ -7776,13 +7785,13 @@
       <c r="F88" s="16">
         <v>1</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H88" s="15">
         <v>0.7</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I88" s="19">
         <v>0.5</v>
       </c>
       <c r="J88" s="15">
@@ -7847,13 +7856,13 @@
       <c r="F89" s="16">
         <v>1</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="15">
         <v>0.4</v>
       </c>
-      <c r="I89" s="18">
+      <c r="I89" s="19">
         <v>0.6</v>
       </c>
       <c r="J89" s="15">
@@ -7918,13 +7927,13 @@
       <c r="F90" s="16">
         <v>2</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H90" s="15">
         <v>0.7</v>
       </c>
-      <c r="I90" s="18">
+      <c r="I90" s="19">
         <v>0.4</v>
       </c>
       <c r="J90" s="15">
@@ -7989,13 +7998,13 @@
       <c r="F91" s="16">
         <v>3</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="15">
         <v>1</v>
       </c>
-      <c r="I91" s="18">
+      <c r="I91" s="19">
         <v>0.4</v>
       </c>
       <c r="J91" s="15">
@@ -8060,13 +8069,13 @@
       <c r="F92" s="16">
         <v>3</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H92" s="15">
         <v>1.2</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="19">
         <v>0.3</v>
       </c>
       <c r="J92" s="15">
@@ -8131,13 +8140,13 @@
       <c r="F93" s="16">
         <v>3</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H93" s="15">
         <v>0.5</v>
       </c>
-      <c r="I93" s="18">
+      <c r="I93" s="19">
         <v>0.6</v>
       </c>
       <c r="J93" s="15">
@@ -8202,13 +8211,13 @@
       <c r="F94" s="16">
         <v>2</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="18">
         <v>30004</v>
       </c>
       <c r="H94" s="15">
         <v>0.7</v>
       </c>
-      <c r="I94" s="18">
+      <c r="I94" s="19">
         <v>0.9</v>
       </c>
       <c r="J94" s="15">
@@ -8261,7 +8270,7 @@
       <c r="B95" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="17">
         <v>5</v>
       </c>
       <c r="D95" s="15">
@@ -8273,13 +8282,13 @@
       <c r="F95" s="16">
         <v>1</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="18">
         <v>30001</v>
       </c>
       <c r="H95" s="15">
         <v>1</v>
       </c>
-      <c r="I95" s="18">
+      <c r="I95" s="19">
         <v>0.3</v>
       </c>
       <c r="J95" s="15">
@@ -8344,13 +8353,13 @@
       <c r="F96" s="16">
         <v>1</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="18">
         <v>30001</v>
       </c>
       <c r="H96" s="15">
         <v>0.8</v>
       </c>
-      <c r="I96" s="18">
+      <c r="I96" s="19">
         <v>0.4</v>
       </c>
       <c r="J96" s="15">
@@ -8415,13 +8424,13 @@
       <c r="F97" s="16">
         <v>1</v>
       </c>
-      <c r="G97" s="17">
+      <c r="G97" s="18">
         <v>30001</v>
       </c>
       <c r="H97" s="15">
         <v>0.7</v>
       </c>
-      <c r="I97" s="18">
+      <c r="I97" s="19">
         <v>0.5</v>
       </c>
       <c r="J97" s="15">
@@ -8486,13 +8495,13 @@
       <c r="F98" s="16">
         <v>3</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="18">
         <v>30003</v>
       </c>
       <c r="H98" s="15">
         <v>0.7</v>
       </c>
-      <c r="I98" s="18">
+      <c r="I98" s="19">
         <v>0.4</v>
       </c>
       <c r="J98" s="15">
@@ -8557,13 +8566,13 @@
       <c r="F99" s="16">
         <v>3</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="18">
         <v>30005</v>
       </c>
       <c r="H99" s="15">
         <v>0.7</v>
       </c>
-      <c r="I99" s="18">
+      <c r="I99" s="19">
         <v>0.5</v>
       </c>
       <c r="J99" s="15">
@@ -8628,13 +8637,13 @@
       <c r="F100" s="16">
         <v>3</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="18">
         <v>30004</v>
       </c>
       <c r="H100" s="15">
         <v>0.6</v>
       </c>
-      <c r="I100" s="18">
+      <c r="I100" s="19">
         <v>0.4</v>
       </c>
       <c r="J100" s="15">
@@ -8699,13 +8708,13 @@
       <c r="F101" s="16">
         <v>3</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="18">
         <v>30005</v>
       </c>
       <c r="H101" s="15">
         <v>0</v>
       </c>
-      <c r="I101" s="18">
+      <c r="I101" s="19">
         <v>0</v>
       </c>
       <c r="J101" s="15">
@@ -8770,13 +8779,13 @@
       <c r="F102" s="16">
         <v>1</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="18">
         <v>30001</v>
       </c>
       <c r="H102" s="15">
         <v>0.8</v>
       </c>
-      <c r="I102" s="18">
+      <c r="I102" s="19">
         <v>0.4</v>
       </c>
       <c r="J102" s="15">
@@ -8841,13 +8850,13 @@
       <c r="F103" s="16">
         <v>2</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="18">
         <v>30002</v>
       </c>
       <c r="H103" s="15">
         <v>0.5</v>
       </c>
-      <c r="I103" s="18">
+      <c r="I103" s="19">
         <v>0.5</v>
       </c>
       <c r="J103" s="15">
@@ -8912,17 +8921,17 @@
       <c r="F104" s="16">
         <v>1</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="18">
         <v>30004</v>
       </c>
       <c r="H104" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="I104" s="18">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="I104" s="19">
+        <v>0.4</v>
       </c>
       <c r="J104" s="15">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K104" s="15">
         <v>0</v>
@@ -8983,13 +8992,13 @@
       <c r="F105" s="16">
         <v>2</v>
       </c>
-      <c r="G105" s="17">
+      <c r="G105" s="18">
         <v>30005</v>
       </c>
       <c r="H105" s="15">
         <v>0.7</v>
       </c>
-      <c r="I105" s="18">
+      <c r="I105" s="19">
         <v>0.8</v>
       </c>
       <c r="J105" s="15">
@@ -9586,8 +9595,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.8.42\work\github\opm_data_analyzing_system\opm_hero_property\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA10A0-A514-4659-AB7A-5C66C2BDAEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="32640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="设定状态" sheetId="3" r:id="rId3"/>
     <sheet name="备用" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="144">
   <si>
     <t>_id</t>
   </si>
@@ -38,6 +44,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_pr</t>
@@ -46,6 +53,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>o</t>
@@ -54,6 +62,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>fession</t>
@@ -91,6 +100,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -99,6 +109,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>limiter_on</t>
@@ -187,6 +198,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>桃源团团员</t>
@@ -195,6 +207,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -205,6 +218,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>桃源团团员</t>
@@ -213,6 +227,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -512,18 +527,18 @@
   <si>
     <t>机械核心等级</t>
   </si>
+  <si>
+    <t>音速索尼克-复活节版</t>
+  </si>
+  <si>
+    <t>黄金球-复活节版</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +549,7 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -541,6 +557,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -548,18 +565,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -567,159 +587,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,194 +632,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -927,255 +641,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1223,73 +695,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="49"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1547,21 +975,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="12" customWidth="1"/>
@@ -1589,14 +1016,14 @@
     <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -1608,16 +1035,16 @@
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
@@ -1641,33 +1068,33 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>3</v>
       </c>
       <c r="D2" s="15">
@@ -1676,23 +1103,23 @@
       <c r="E2" s="15">
         <v>1.01</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>3</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <v>0.4</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="17">
         <v>0.8</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L2" s="15">
         <v>0</v>
@@ -1731,32 +1158,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>4</v>
       </c>
       <c r="D3" s="15">
-        <v>1.053</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="E3" s="15">
-        <v>0.942</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18" t="s">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="19">
-        <v>1.1</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="H3" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I3" s="17">
         <v>0</v>
       </c>
       <c r="J3" s="15">
@@ -1775,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P3" s="15">
         <v>0</v>
@@ -1802,32 +1229,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
       <c r="D4" s="15">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="E4" s="15">
-        <v>1.021</v>
-      </c>
-      <c r="F4" s="16">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F4" s="15">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
         <v>0</v>
       </c>
       <c r="J4" s="15">
@@ -1873,14 +1300,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
       <c r="D5" s="15">
@@ -1889,16 +1316,16 @@
       <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
         <v>0</v>
       </c>
       <c r="J5" s="15">
@@ -1944,32 +1371,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="E6" s="15">
-        <v>0.977</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18" t="s">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
         <v>0</v>
       </c>
       <c r="J6" s="15">
@@ -2015,14 +1442,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
       <c r="D7" s="15">
@@ -2031,16 +1458,16 @@
       <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
         <v>0</v>
       </c>
       <c r="J7" s="15">
@@ -2086,14 +1513,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>3</v>
       </c>
       <c r="D8" s="15">
@@ -2102,16 +1529,16 @@
       <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>0</v>
       </c>
       <c r="J8" s="15">
@@ -2157,14 +1584,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
       <c r="D9" s="15">
@@ -2173,16 +1600,16 @@
       <c r="E9" s="15">
         <v>1.006</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>3</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>0.7</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>0.4</v>
       </c>
       <c r="J9" s="15">
@@ -2198,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
@@ -2228,32 +1655,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>2</v>
       </c>
       <c r="D10" s="15">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E10" s="15">
         <v>1.002</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
         <v>0</v>
       </c>
       <c r="J10" s="15">
@@ -2299,32 +1726,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>2</v>
       </c>
       <c r="D11" s="15">
-        <v>1.001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="E11" s="15">
         <v>0.995</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>1.2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>0.3</v>
       </c>
       <c r="J11" s="15">
@@ -2340,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
@@ -2370,32 +1797,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>4</v>
       </c>
       <c r="D12" s="15">
-        <v>1.005</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="E12" s="15">
         <v>0.995</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>0.5</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>0.5</v>
       </c>
       <c r="J12" s="15">
@@ -2408,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0</v>
@@ -2441,32 +1868,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>3</v>
       </c>
       <c r="D13" s="15">
-        <v>1.031</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="E13" s="15">
-        <v>0.975</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18" t="s">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
         <v>0.4</v>
       </c>
       <c r="J13" s="15">
@@ -2476,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <v>0.0028</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -2512,42 +1939,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>4</v>
       </c>
       <c r="D14" s="15">
         <v>1.018</v>
       </c>
       <c r="E14" s="15">
-        <v>0.987</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="s">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="19">
-        <v>1.1</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="H14" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14" s="17">
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K14" s="15">
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -2583,32 +2010,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>3</v>
       </c>
       <c r="D15" s="15">
-        <v>0.987</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E15" s="15">
-        <v>1.009</v>
-      </c>
-      <c r="F15" s="16">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
         <v>0</v>
       </c>
       <c r="J15" s="15">
@@ -2654,14 +2081,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
       <c r="D16" s="15">
@@ -2670,16 +2097,16 @@
       <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
         <v>0</v>
       </c>
       <c r="J16" s="15">
@@ -2725,14 +2152,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>3</v>
       </c>
       <c r="D17" s="15">
@@ -2741,16 +2168,16 @@
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
         <v>0</v>
       </c>
       <c r="J17" s="15">
@@ -2796,32 +2223,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>4</v>
       </c>
       <c r="D18" s="15">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="E18" s="15">
-        <v>1.021</v>
-      </c>
-      <c r="F18" s="16">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F18" s="15">
         <v>2</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
         <v>0</v>
       </c>
       <c r="J18" s="15">
@@ -2867,14 +2294,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>1</v>
       </c>
       <c r="D19" s="15">
@@ -2883,16 +2310,16 @@
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>3</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>0.6</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <v>0</v>
       </c>
       <c r="J19" s="15">
@@ -2911,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -2938,39 +2365,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>4</v>
       </c>
       <c r="D20" s="15">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="E20" s="15">
-        <v>1.019</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18" t="s">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>0.7</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>0.5</v>
       </c>
       <c r="J20" s="15">
         <v>0.7</v>
       </c>
       <c r="K20" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -3009,32 +2436,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
       <c r="D21" s="15">
         <v>0.97</v>
       </c>
       <c r="E21" s="15">
-        <v>1.003</v>
-      </c>
-      <c r="F21" s="16">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="F21" s="15">
         <v>2</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>0.7</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="17">
         <v>0.6</v>
       </c>
       <c r="J21" s="15">
@@ -3047,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="15">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="N21" s="15">
         <v>0</v>
@@ -3080,39 +2507,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="15">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E22" s="15">
-        <v>1.027</v>
-      </c>
-      <c r="F22" s="16">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="F22" s="15">
         <v>3</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>0.5</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="17">
         <v>0.7</v>
       </c>
       <c r="J22" s="15">
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -3151,14 +2578,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>4</v>
       </c>
       <c r="D23" s="15">
@@ -3167,16 +2594,16 @@
       <c r="E23" s="15">
         <v>1</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
         <v>0</v>
       </c>
       <c r="J23" s="15">
@@ -3222,32 +2649,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
       <c r="D24" s="15">
-        <v>1.001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="E24" s="15">
         <v>0.96</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>2</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>0.7</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <v>0.5</v>
       </c>
       <c r="J24" s="15">
@@ -3260,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N24" s="15">
         <v>0</v>
@@ -3293,32 +2720,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>3</v>
       </c>
       <c r="D25" s="15">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E25" s="15">
         <v>0.98</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>3</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>0.7</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="17">
         <v>0.5</v>
       </c>
       <c r="J25" s="15">
@@ -3337,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -3364,14 +2791,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>4</v>
       </c>
       <c r="D26" s="15">
@@ -3380,16 +2807,16 @@
       <c r="E26" s="15">
         <v>0.96</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>3</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="17">
         <v>0.9</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="17">
         <v>0.4</v>
       </c>
       <c r="J26" s="15">
@@ -3405,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="15">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="O26" s="15">
         <v>0</v>
@@ -3435,32 +2862,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>4</v>
       </c>
       <c r="D27" s="15">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E27" s="15">
-        <v>1.001</v>
-      </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18" t="s">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="17">
         <v>0.9</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="17">
         <v>0.5</v>
       </c>
       <c r="J27" s="15">
@@ -3470,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M27" s="15">
         <v>0</v>
@@ -3506,32 +2933,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>4</v>
       </c>
       <c r="D28" s="15">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E28" s="15">
         <v>0.99</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>2</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="17">
         <v>0.2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="17">
         <v>0.6</v>
       </c>
       <c r="J28" s="15">
@@ -3547,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="15">
-        <v>0.0027</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O28" s="15">
         <v>0</v>
@@ -3577,14 +3004,14 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>3</v>
       </c>
       <c r="D29" s="15">
@@ -3593,16 +3020,16 @@
       <c r="E29" s="15">
         <v>1</v>
       </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="J29" s="15">
@@ -3648,32 +3075,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="E30" s="15">
-        <v>0.974</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
         <v>0</v>
       </c>
       <c r="J30" s="15">
@@ -3719,14 +3146,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>3</v>
       </c>
       <c r="D31" s="15">
@@ -3735,16 +3162,16 @@
       <c r="E31" s="15">
         <v>0.98</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="19">
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
         <v>0</v>
       </c>
       <c r="J31" s="15">
@@ -3790,32 +3217,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>2</v>
       </c>
       <c r="D32" s="15">
-        <v>1.031</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="E32" s="15">
-        <v>0.981</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>0.9</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="17">
         <v>0.45</v>
       </c>
       <c r="J32" s="15">
@@ -3834,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -3861,32 +3288,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>1</v>
       </c>
       <c r="D33" s="15">
-        <v>1.029</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="E33" s="15">
-        <v>0.966</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18" t="s">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <v>1.2</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="17">
         <v>0.4</v>
       </c>
       <c r="J33" s="15">
@@ -3902,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="15">
-        <v>0.0017</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -3932,14 +3359,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>4</v>
       </c>
       <c r="D34" s="15">
@@ -3948,23 +3375,23 @@
       <c r="E34" s="15">
         <v>0.95</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>2</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>0.7</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <v>0.5</v>
       </c>
       <c r="J34" s="15">
         <v>0.7</v>
       </c>
       <c r="K34" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L34" s="15">
         <v>0</v>
@@ -4003,32 +3430,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>2</v>
       </c>
       <c r="D35" s="15">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E35" s="15">
         <v>1.012</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>3</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
-      <c r="I35" s="19">
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
         <v>0.9</v>
       </c>
       <c r="J35" s="15">
@@ -4041,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N35" s="15">
         <v>0</v>
@@ -4074,39 +3501,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>2</v>
       </c>
       <c r="D36" s="15">
         <v>0.94</v>
       </c>
       <c r="E36" s="15">
-        <v>1.019</v>
-      </c>
-      <c r="F36" s="16">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F36" s="15">
         <v>2</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>0.9</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="17">
         <v>0.5</v>
       </c>
       <c r="J36" s="15">
         <v>0</v>
       </c>
       <c r="K36" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L36" s="15">
         <v>0</v>
@@ -4145,32 +3572,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>2</v>
       </c>
       <c r="D37" s="15">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="E37" s="15">
         <v>0.999</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>3</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="17">
         <v>0.7</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="17">
         <v>0.7</v>
       </c>
       <c r="J37" s="15">
@@ -4183,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N37" s="15">
         <v>0</v>
@@ -4216,14 +3643,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>2</v>
       </c>
       <c r="D38" s="15">
@@ -4232,16 +3659,16 @@
       <c r="E38" s="15">
         <v>1</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
         <v>0</v>
       </c>
       <c r="J38" s="15">
@@ -4287,39 +3714,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>2</v>
       </c>
       <c r="D39" s="15">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E39" s="15">
         <v>1.02</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>3</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>0.6</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="17">
         <v>0.4</v>
       </c>
       <c r="J39" s="15">
         <v>0.6</v>
       </c>
       <c r="K39" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L39" s="15">
         <v>0</v>
@@ -4358,32 +3785,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>2</v>
       </c>
       <c r="D40" s="15">
-        <v>1.023</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="E40" s="15">
-        <v>0.978</v>
-      </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18" t="s">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="17">
         <v>1.2</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="17">
         <v>0.2</v>
       </c>
       <c r="J40" s="15">
@@ -4393,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M40" s="15">
         <v>0</v>
@@ -4429,39 +3856,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="19">
         <v>5</v>
       </c>
       <c r="D41" s="15">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E41" s="15">
-        <v>1.007</v>
-      </c>
-      <c r="F41" s="16">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F41" s="15">
         <v>2</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="17">
         <v>0.6</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="17">
         <v>0.6</v>
       </c>
       <c r="J41" s="15">
         <v>0</v>
       </c>
       <c r="K41" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L41" s="15">
         <v>0</v>
@@ -4500,32 +3927,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
       <c r="D42" s="15">
-        <v>1.009</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="E42" s="15">
         <v>0.94</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>2</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="17">
         <v>0.6</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="17">
         <v>0</v>
       </c>
       <c r="J42" s="15">
@@ -4544,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -4571,14 +3998,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="19">
         <v>5</v>
       </c>
       <c r="D43" s="15">
@@ -4587,16 +4014,16 @@
       <c r="E43" s="15">
         <v>0.997</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>3</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="17">
         <v>0.5</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="17">
         <v>0.8</v>
       </c>
       <c r="J43" s="15">
@@ -4606,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M43" s="15">
         <v>0</v>
@@ -4642,39 +4069,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>1</v>
       </c>
       <c r="D44" s="15">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E44" s="15">
-        <v>1.013</v>
-      </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18" t="s">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="17">
         <v>0.3</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="17">
         <v>0.6</v>
       </c>
       <c r="J44" s="15">
         <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L44" s="15">
         <v>0</v>
@@ -4713,32 +4140,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>3</v>
       </c>
       <c r="D45" s="15">
         <v>0.98</v>
       </c>
       <c r="E45" s="15">
-        <v>0.977</v>
-      </c>
-      <c r="F45" s="16">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F45" s="15">
         <v>3</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="17">
         <v>0.7</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="17">
         <v>0.5</v>
       </c>
       <c r="J45" s="15">
@@ -4751,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N45" s="15">
         <v>0</v>
@@ -4784,32 +4211,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>3</v>
       </c>
       <c r="D46" s="15">
-        <v>1.025</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E46" s="15">
-        <v>0.965</v>
-      </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18" t="s">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="17">
         <v>0.7</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="17">
         <v>0.5</v>
       </c>
       <c r="J46" s="15">
@@ -4822,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="15">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="N46" s="15">
         <v>0</v>
@@ -4855,39 +4282,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>1</v>
       </c>
       <c r="D47" s="15">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E47" s="15">
-        <v>1.007</v>
-      </c>
-      <c r="F47" s="16">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F47" s="15">
         <v>2</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="17">
         <v>0.4</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="17">
         <v>0.6</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
       </c>
       <c r="K47" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -4926,32 +4353,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>4</v>
       </c>
       <c r="D48" s="15">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="E48" s="15">
-        <v>0.966</v>
-      </c>
-      <c r="F48" s="16">
-        <v>1</v>
-      </c>
-      <c r="G48" s="18" t="s">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19">
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
         <v>0</v>
       </c>
       <c r="J48" s="15">
@@ -4997,14 +4424,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>2</v>
       </c>
       <c r="D49" s="15">
@@ -5013,16 +4440,16 @@
       <c r="E49" s="15">
         <v>1</v>
       </c>
-      <c r="F49" s="16">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="15">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19">
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17">
         <v>0</v>
       </c>
       <c r="J49" s="15">
@@ -5068,32 +4495,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <v>3</v>
       </c>
       <c r="D50" s="15">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E50" s="15">
         <v>1.036</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>2</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="17">
         <v>0.4</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="17">
         <v>0.7</v>
       </c>
       <c r="J50" s="15">
@@ -5103,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M50" s="15">
         <v>0</v>
@@ -5139,14 +4566,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>4</v>
       </c>
       <c r="D51" s="15">
@@ -5155,16 +4582,16 @@
       <c r="E51" s="15">
         <v>1</v>
       </c>
-      <c r="F51" s="16">
-        <v>1</v>
-      </c>
-      <c r="G51" s="18" t="s">
+      <c r="F51" s="15">
+        <v>1</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="19">
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
         <v>0</v>
       </c>
       <c r="J51" s="15">
@@ -5210,32 +4637,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>2</v>
       </c>
       <c r="D52" s="15">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E52" s="15">
-        <v>1.021</v>
-      </c>
-      <c r="F52" s="16">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F52" s="15">
         <v>3</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="17">
         <v>0.7</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="17">
         <v>0.4</v>
       </c>
       <c r="J52" s="15">
@@ -5248,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N52" s="15">
         <v>0</v>
@@ -5281,32 +4708,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>1</v>
       </c>
       <c r="D53" s="15">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E53" s="15">
-        <v>1.025</v>
-      </c>
-      <c r="F53" s="16">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F53" s="15">
         <v>2</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="19">
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17">
         <v>0</v>
       </c>
       <c r="J53" s="15">
@@ -5352,32 +4779,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>1</v>
       </c>
       <c r="D54" s="15">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="E54" s="15">
-        <v>1.025</v>
-      </c>
-      <c r="F54" s="16">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F54" s="15">
         <v>3</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="19">
+      <c r="H54" s="17">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17">
         <v>0</v>
       </c>
       <c r="J54" s="15">
@@ -5423,14 +4850,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>4</v>
       </c>
       <c r="D55" s="15">
@@ -5439,16 +4866,16 @@
       <c r="E55" s="15">
         <v>1</v>
       </c>
-      <c r="F55" s="16">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18" t="s">
+      <c r="F55" s="15">
+        <v>1</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="19">
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17">
         <v>0</v>
       </c>
       <c r="J55" s="15">
@@ -5494,32 +4921,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>4</v>
       </c>
       <c r="D56" s="15">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="E56" s="15">
         <v>1.016</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="15">
         <v>2</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19">
+      <c r="H56" s="17">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17">
         <v>0</v>
       </c>
       <c r="J56" s="15">
@@ -5565,32 +4992,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>1</v>
       </c>
       <c r="D57" s="15">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="E57" s="15">
         <v>1.016</v>
       </c>
-      <c r="F57" s="16">
-        <v>1</v>
-      </c>
-      <c r="G57" s="18" t="s">
+      <c r="F57" s="15">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19">
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17">
         <v>0</v>
       </c>
       <c r="J57" s="15">
@@ -5636,32 +5063,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>2</v>
       </c>
       <c r="D58" s="15">
         <v>1.014</v>
       </c>
       <c r="E58" s="15">
-        <v>0.968</v>
-      </c>
-      <c r="F58" s="16">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F58" s="15">
         <v>3</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="19">
-        <v>0</v>
-      </c>
-      <c r="I58" s="19">
+      <c r="H58" s="17">
+        <v>0</v>
+      </c>
+      <c r="I58" s="17">
         <v>0</v>
       </c>
       <c r="J58" s="15">
@@ -5707,14 +5134,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>4</v>
       </c>
       <c r="D59" s="15">
@@ -5723,16 +5150,16 @@
       <c r="E59" s="15">
         <v>1</v>
       </c>
-      <c r="F59" s="16">
-        <v>1</v>
-      </c>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19">
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
         <v>0</v>
       </c>
       <c r="J59" s="15">
@@ -5778,32 +5205,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>3</v>
       </c>
       <c r="D60" s="15">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E60" s="15">
-        <v>1.011</v>
-      </c>
-      <c r="F60" s="16">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="F60" s="15">
         <v>3</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="19">
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17">
         <v>0</v>
       </c>
       <c r="J60" s="15">
@@ -5849,32 +5276,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="19">
         <v>5</v>
       </c>
       <c r="D61" s="15">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E61" s="15">
-        <v>0.979</v>
-      </c>
-      <c r="F61" s="16">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F61" s="15">
         <v>3</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="17">
         <v>0.5</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="17">
         <v>0.5</v>
       </c>
       <c r="J61" s="15">
@@ -5893,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P61" s="15">
         <v>0</v>
@@ -5920,39 +5347,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="19">
         <v>5</v>
       </c>
       <c r="D62" s="15">
         <v>1.03</v>
       </c>
       <c r="E62" s="15">
-        <v>0.982</v>
-      </c>
-      <c r="F62" s="16">
-        <v>1</v>
-      </c>
-      <c r="G62" s="18" t="s">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="17">
         <v>1.2</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="17">
         <v>0.3</v>
       </c>
       <c r="J62" s="15">
         <v>0.5</v>
       </c>
       <c r="K62" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L62" s="15">
         <v>0</v>
@@ -5991,32 +5418,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="19">
         <v>5</v>
       </c>
       <c r="D63" s="15">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E63" s="15">
-        <v>1.041</v>
-      </c>
-      <c r="F63" s="16">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F63" s="15">
         <v>2</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63" s="17">
         <v>0.3</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="17">
         <v>0.8</v>
       </c>
       <c r="J63" s="15">
@@ -6029,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="N63" s="15">
         <v>0</v>
@@ -6062,32 +5489,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>4</v>
       </c>
       <c r="D64" s="15">
-        <v>1.025</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E64" s="15">
-        <v>0.946</v>
-      </c>
-      <c r="F64" s="16">
-        <v>1</v>
-      </c>
-      <c r="G64" s="18" t="s">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64" s="17">
         <v>0.8</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="17">
         <v>0.5</v>
       </c>
       <c r="J64" s="15">
@@ -6103,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O64" s="15">
         <v>0</v>
@@ -6133,14 +5560,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="15">
         <v>4</v>
       </c>
       <c r="D65" s="15">
@@ -6149,16 +5576,16 @@
       <c r="E65" s="15">
         <v>1</v>
       </c>
-      <c r="F65" s="16">
-        <v>1</v>
-      </c>
-      <c r="G65" s="18" t="s">
+      <c r="F65" s="15">
+        <v>1</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="19">
-        <v>0</v>
-      </c>
-      <c r="I65" s="19">
+      <c r="H65" s="17">
+        <v>0</v>
+      </c>
+      <c r="I65" s="17">
         <v>0</v>
       </c>
       <c r="J65" s="15">
@@ -6204,14 +5631,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>4</v>
       </c>
       <c r="D66" s="15">
@@ -6220,16 +5647,16 @@
       <c r="E66" s="15">
         <v>1</v>
       </c>
-      <c r="F66" s="16">
-        <v>1</v>
-      </c>
-      <c r="G66" s="18" t="s">
+      <c r="F66" s="15">
+        <v>1</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="19">
-        <v>0</v>
-      </c>
-      <c r="I66" s="19">
+      <c r="H66" s="17">
+        <v>0</v>
+      </c>
+      <c r="I66" s="17">
         <v>0</v>
       </c>
       <c r="J66" s="15">
@@ -6275,32 +5702,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="15">
         <v>1</v>
       </c>
       <c r="D67" s="15">
-        <v>0.992</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E67" s="15">
         <v>1.016</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="15">
         <v>3</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="19">
-        <v>0</v>
-      </c>
-      <c r="I67" s="19">
+      <c r="H67" s="17">
+        <v>0</v>
+      </c>
+      <c r="I67" s="17">
         <v>0</v>
       </c>
       <c r="J67" s="15">
@@ -6346,14 +5773,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>1</v>
       </c>
       <c r="D68" s="15">
@@ -6362,16 +5789,16 @@
       <c r="E68" s="15">
         <v>0.98</v>
       </c>
-      <c r="F68" s="16">
-        <v>1</v>
-      </c>
-      <c r="G68" s="18" t="s">
+      <c r="F68" s="15">
+        <v>1</v>
+      </c>
+      <c r="G68" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="19">
-        <v>0</v>
-      </c>
-      <c r="I68" s="19">
+      <c r="H68" s="17">
+        <v>0</v>
+      </c>
+      <c r="I68" s="17">
         <v>0</v>
       </c>
       <c r="J68" s="15">
@@ -6417,32 +5844,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="15">
         <v>1</v>
       </c>
       <c r="D69" s="15">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="E69" s="15">
         <v>0.995</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="15">
         <v>2</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H69" s="15">
         <v>0</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="17">
         <v>0</v>
       </c>
       <c r="J69" s="15">
@@ -6488,14 +5915,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>4</v>
       </c>
       <c r="D70" s="15">
@@ -6504,16 +5931,16 @@
       <c r="E70" s="15">
         <v>1</v>
       </c>
-      <c r="F70" s="16">
-        <v>1</v>
-      </c>
-      <c r="G70" s="18" t="s">
+      <c r="F70" s="15">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H70" s="15">
         <v>0</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="17">
         <v>0</v>
       </c>
       <c r="J70" s="15">
@@ -6559,14 +5986,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>4</v>
       </c>
       <c r="D71" s="15">
@@ -6575,16 +6002,16 @@
       <c r="E71" s="15">
         <v>1</v>
       </c>
-      <c r="F71" s="16">
-        <v>1</v>
-      </c>
-      <c r="G71" s="18" t="s">
+      <c r="F71" s="15">
+        <v>1</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H71" s="15">
         <v>0</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="17">
         <v>0</v>
       </c>
       <c r="J71" s="15">
@@ -6630,14 +6057,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>4</v>
       </c>
       <c r="D72" s="15">
@@ -6646,16 +6073,16 @@
       <c r="E72" s="15">
         <v>1</v>
       </c>
-      <c r="F72" s="16">
-        <v>1</v>
-      </c>
-      <c r="G72" s="18" t="s">
+      <c r="F72" s="15">
+        <v>1</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="15">
         <v>0</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="17">
         <v>0</v>
       </c>
       <c r="J72" s="15">
@@ -6701,14 +6128,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="15">
         <v>4</v>
       </c>
       <c r="D73" s="15">
@@ -6717,16 +6144,16 @@
       <c r="E73" s="15">
         <v>1</v>
       </c>
-      <c r="F73" s="16">
-        <v>1</v>
-      </c>
-      <c r="G73" s="18" t="s">
+      <c r="F73" s="15">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="15">
         <v>0</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="17">
         <v>0</v>
       </c>
       <c r="J73" s="15">
@@ -6772,32 +6199,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>3</v>
       </c>
       <c r="D74" s="15">
         <v>1.08</v>
       </c>
       <c r="E74" s="15">
-        <v>0.973</v>
-      </c>
-      <c r="F74" s="16">
-        <v>1</v>
-      </c>
-      <c r="G74" s="18" t="s">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F74" s="15">
+        <v>1</v>
+      </c>
+      <c r="G74" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H74" s="15">
         <v>0</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="17">
         <v>0</v>
       </c>
       <c r="J74" s="15">
@@ -6843,14 +6270,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="15">
         <v>3</v>
       </c>
       <c r="D75" s="15">
@@ -6859,16 +6286,16 @@
       <c r="E75" s="15">
         <v>1</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="15">
         <v>2</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H75" s="15">
         <v>0</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="17">
         <v>0</v>
       </c>
       <c r="J75" s="15">
@@ -6914,32 +6341,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="15">
         <v>1</v>
       </c>
       <c r="D76" s="15">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="E76" s="15">
         <v>0.995</v>
       </c>
-      <c r="F76" s="16">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="F76" s="15">
+        <v>1</v>
+      </c>
+      <c r="G76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="15">
         <v>0</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="17">
         <v>0</v>
       </c>
       <c r="J76" s="15">
@@ -6985,32 +6412,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="15">
         <v>1</v>
       </c>
       <c r="D77" s="15">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="E77" s="15">
         <v>0.995</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="15">
         <v>3</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H77" s="15">
         <v>0</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="17">
         <v>0</v>
       </c>
       <c r="J77" s="15">
@@ -7056,32 +6483,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="15">
         <v>2</v>
       </c>
       <c r="D78" s="15">
-        <v>1.005</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="E78" s="15">
-        <v>1.001</v>
-      </c>
-      <c r="F78" s="16">
-        <v>1</v>
-      </c>
-      <c r="G78" s="18" t="s">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H78" s="15">
         <v>0</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="17">
         <v>0</v>
       </c>
       <c r="J78" s="15">
@@ -7127,32 +6554,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>78</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="15">
         <v>4</v>
       </c>
       <c r="D79" s="15">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E79" s="15">
         <v>1.014</v>
       </c>
-      <c r="F79" s="16">
-        <v>1</v>
-      </c>
-      <c r="G79" s="18" t="s">
+      <c r="F79" s="15">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H79" s="15">
         <v>0</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="17">
         <v>0</v>
       </c>
       <c r="J79" s="15">
@@ -7198,32 +6625,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="15">
         <v>2</v>
       </c>
       <c r="D80" s="15">
         <v>0.995</v>
       </c>
       <c r="E80" s="15">
-        <v>1.001</v>
-      </c>
-      <c r="F80" s="16">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F80" s="15">
         <v>3</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H80" s="15">
         <v>0</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="17">
         <v>0</v>
       </c>
       <c r="J80" s="15">
@@ -7269,14 +6696,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>80</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>2</v>
       </c>
       <c r="D81" s="15">
@@ -7285,16 +6712,16 @@
       <c r="E81" s="15">
         <v>1</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="15">
         <v>3</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="15">
@@ -7340,32 +6767,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="15">
         <v>2</v>
       </c>
       <c r="D82" s="15">
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="E82" s="15">
-        <v>1.011</v>
-      </c>
-      <c r="F82" s="16">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="F82" s="15">
         <v>2</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H82" s="15">
         <v>0</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="17">
         <v>0</v>
       </c>
       <c r="J82" s="15">
@@ -7411,14 +6838,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <v>2</v>
       </c>
       <c r="D83" s="15">
@@ -7427,16 +6854,16 @@
       <c r="E83" s="15">
         <v>1</v>
       </c>
-      <c r="F83" s="16">
-        <v>1</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="15">
+        <v>1</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="15">
         <v>0</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="17">
         <v>0</v>
       </c>
       <c r="J83" s="15">
@@ -7482,32 +6909,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>10007</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>4</v>
       </c>
       <c r="D84" s="15">
         <v>1.018</v>
       </c>
       <c r="E84" s="15">
-        <v>0.987</v>
-      </c>
-      <c r="F84" s="16">
-        <v>1</v>
-      </c>
-      <c r="G84" s="18" t="s">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F84" s="15">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H84" s="15">
         <v>0</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I84" s="17">
         <v>0</v>
       </c>
       <c r="J84" s="15">
@@ -7553,32 +6980,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>10008</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="15">
         <v>5</v>
       </c>
       <c r="D85" s="15">
         <v>1.03</v>
       </c>
       <c r="E85" s="15">
-        <v>0.982</v>
-      </c>
-      <c r="F85" s="16">
-        <v>1</v>
-      </c>
-      <c r="G85" s="18" t="s">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F85" s="15">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H85" s="15">
         <v>0</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="17">
         <v>0</v>
       </c>
       <c r="J85" s="15">
@@ -7624,14 +7051,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="86" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>83</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
         <v>2</v>
       </c>
       <c r="D86" s="15">
@@ -7640,16 +7067,16 @@
       <c r="E86" s="15">
         <v>1</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="15">
         <v>2</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H86" s="15">
         <v>0.6</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="17">
         <v>0.7</v>
       </c>
       <c r="J86" s="15">
@@ -7662,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="N86" s="15">
         <v>0</v>
@@ -7695,32 +7122,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="87" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <v>84</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="19">
         <v>5</v>
       </c>
       <c r="D87" s="15">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E87" s="15">
         <v>1.02</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="15">
         <v>2</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H87" s="15">
         <v>0.3</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="17">
         <v>0.8</v>
       </c>
       <c r="J87" s="15">
@@ -7733,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="N87" s="15">
         <v>0</v>
@@ -7766,14 +7193,14 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="88" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>85</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="15">
         <v>4</v>
       </c>
       <c r="D88" s="15">
@@ -7782,16 +7209,16 @@
       <c r="E88" s="15">
         <v>1.014</v>
       </c>
-      <c r="F88" s="16">
-        <v>1</v>
-      </c>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="15">
+        <v>1</v>
+      </c>
+      <c r="G88" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H88" s="15">
         <v>0.7</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="17">
         <v>0.5</v>
       </c>
       <c r="J88" s="15">
@@ -7810,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P88" s="15">
         <v>0</v>
@@ -7837,32 +7264,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="89" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>86</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="15">
         <v>1</v>
       </c>
       <c r="D89" s="15">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="E89" s="15">
-        <v>1.015</v>
-      </c>
-      <c r="F89" s="16">
-        <v>1</v>
-      </c>
-      <c r="G89" s="18" t="s">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F89" s="15">
+        <v>1</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H89" s="15">
         <v>0.4</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I89" s="17">
         <v>0.6</v>
       </c>
       <c r="J89" s="15">
@@ -7872,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M89" s="15">
         <v>0</v>
@@ -7908,39 +7335,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="90" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>87</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>1</v>
       </c>
       <c r="D90" s="15">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E90" s="15">
-        <v>1.025</v>
-      </c>
-      <c r="F90" s="16">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F90" s="15">
         <v>2</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H90" s="15">
         <v>0.7</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="17">
         <v>0.4</v>
       </c>
       <c r="J90" s="15">
         <v>0.6</v>
       </c>
       <c r="K90" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L90" s="15">
         <v>0</v>
@@ -7979,32 +7406,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="91" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>88</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>3</v>
       </c>
       <c r="D91" s="15">
-        <v>0.975</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E91" s="15">
         <v>1.03</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="15">
         <v>3</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H91" s="15">
         <v>1</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I91" s="17">
         <v>0.4</v>
       </c>
       <c r="J91" s="15">
@@ -8020,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O91" s="15">
         <v>0</v>
@@ -8050,39 +7477,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="11" customFormat="1" ht="11.2" spans="1:23">
+    <row r="92" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>89</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="15">
         <v>2</v>
       </c>
       <c r="D92" s="15">
         <v>0.99</v>
       </c>
       <c r="E92" s="15">
-        <v>1.005</v>
-      </c>
-      <c r="F92" s="16">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F92" s="15">
         <v>3</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H92" s="15">
         <v>1.2</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I92" s="17">
         <v>0.3</v>
       </c>
       <c r="J92" s="15">
         <v>0</v>
       </c>
       <c r="K92" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L92" s="15">
         <v>0</v>
@@ -8121,14 +7548,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>90</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>3</v>
       </c>
       <c r="D93" s="15">
@@ -8137,23 +7564,23 @@
       <c r="E93" s="15">
         <v>1.01</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="15">
         <v>3</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H93" s="15">
         <v>0.5</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="17">
         <v>0.6</v>
       </c>
       <c r="J93" s="15">
         <v>0.5</v>
       </c>
       <c r="K93" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L93" s="15">
         <v>0</v>
@@ -8192,14 +7619,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="15">
         <v>4</v>
       </c>
       <c r="D94" s="15">
@@ -8208,16 +7635,16 @@
       <c r="E94" s="15">
         <v>1.01</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="15">
         <v>2</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="15">
         <v>30004</v>
       </c>
       <c r="H94" s="15">
         <v>0.7</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="17">
         <v>0.9</v>
       </c>
       <c r="J94" s="15">
@@ -8230,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N94" s="15">
         <v>0</v>
@@ -8263,32 +7690,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <v>92</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="19">
         <v>5</v>
       </c>
       <c r="D95" s="15">
-        <v>1.015</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="E95" s="15">
         <v>0.98</v>
       </c>
-      <c r="F95" s="16">
-        <v>1</v>
-      </c>
-      <c r="G95" s="18">
+      <c r="F95" s="15">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15">
         <v>30001</v>
       </c>
       <c r="H95" s="15">
         <v>1</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I95" s="17">
         <v>0.3</v>
       </c>
       <c r="J95" s="15">
@@ -8307,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P95" s="15">
         <v>0</v>
@@ -8334,14 +7761,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>94</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="15">
         <v>1</v>
       </c>
       <c r="D96" s="15">
@@ -8350,16 +7777,16 @@
       <c r="E96" s="15">
         <v>0.995</v>
       </c>
-      <c r="F96" s="16">
-        <v>1</v>
-      </c>
-      <c r="G96" s="18">
+      <c r="F96" s="15">
+        <v>1</v>
+      </c>
+      <c r="G96" s="15">
         <v>30001</v>
       </c>
       <c r="H96" s="15">
         <v>0.8</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="17">
         <v>0.4</v>
       </c>
       <c r="J96" s="15">
@@ -8369,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M96" s="15">
         <v>0</v>
@@ -8405,32 +7832,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>95</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>2</v>
       </c>
       <c r="D97" s="15">
         <v>1.02</v>
       </c>
       <c r="E97" s="15">
-        <v>0.985</v>
-      </c>
-      <c r="F97" s="16">
-        <v>1</v>
-      </c>
-      <c r="G97" s="18">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F97" s="15">
+        <v>1</v>
+      </c>
+      <c r="G97" s="15">
         <v>30001</v>
       </c>
       <c r="H97" s="15">
         <v>0.7</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I97" s="17">
         <v>0.5</v>
       </c>
       <c r="J97" s="15">
@@ -8440,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M97" s="15">
         <v>0</v>
@@ -8476,14 +7903,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <v>96</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="15">
         <v>2</v>
       </c>
       <c r="D98" s="15">
@@ -8492,16 +7919,16 @@
       <c r="E98" s="15">
         <v>1.01</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="15">
         <v>3</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="15">
         <v>30003</v>
       </c>
       <c r="H98" s="15">
         <v>0.7</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="17">
         <v>0.4</v>
       </c>
       <c r="J98" s="15">
@@ -8517,62 +7944,62 @@
         <v>0</v>
       </c>
       <c r="N98" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O98" s="15">
         <v>0</v>
       </c>
       <c r="P98" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="2">
         <v>0</v>
       </c>
       <c r="R98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T98" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U98" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>97</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="15">
         <v>3</v>
       </c>
       <c r="D99" s="15">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E99" s="15">
-        <v>1.021</v>
-      </c>
-      <c r="F99" s="16">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F99" s="15">
         <v>3</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="15">
         <v>30005</v>
       </c>
       <c r="H99" s="15">
         <v>0.7</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="17">
         <v>0.5</v>
       </c>
       <c r="J99" s="15">
@@ -8585,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N99" s="15">
         <v>0</v>
@@ -8594,38 +8021,38 @@
         <v>0</v>
       </c>
       <c r="P99" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V99" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>98</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="15">
         <v>2</v>
       </c>
       <c r="D100" s="15">
@@ -8634,23 +8061,23 @@
       <c r="E100" s="15">
         <v>1.02</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="15">
         <v>3</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="15">
         <v>30004</v>
       </c>
       <c r="H100" s="15">
         <v>0.6</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I100" s="17">
         <v>0.4</v>
       </c>
       <c r="J100" s="15">
         <v>0.6</v>
       </c>
       <c r="K100" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="L100" s="15">
         <v>0</v>
@@ -8665,38 +8092,38 @@
         <v>0</v>
       </c>
       <c r="P100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="V100" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="W100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <v>99</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="15">
         <v>5</v>
       </c>
       <c r="D101" s="15">
@@ -8705,16 +8132,16 @@
       <c r="E101" s="15">
         <v>1</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="15">
         <v>3</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="15">
         <v>30005</v>
       </c>
       <c r="H101" s="15">
         <v>0</v>
       </c>
-      <c r="I101" s="19">
+      <c r="I101" s="17">
         <v>0</v>
       </c>
       <c r="J101" s="15">
@@ -8760,32 +8187,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>100</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="15">
         <v>5</v>
       </c>
       <c r="D102" s="15">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="E102" s="15">
-        <v>0.984</v>
-      </c>
-      <c r="F102" s="16">
-        <v>1</v>
-      </c>
-      <c r="G102" s="18">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F102" s="15">
+        <v>1</v>
+      </c>
+      <c r="G102" s="15">
         <v>30001</v>
       </c>
       <c r="H102" s="15">
         <v>0.8</v>
       </c>
-      <c r="I102" s="19">
+      <c r="I102" s="17">
         <v>0.4</v>
       </c>
       <c r="J102" s="15">
@@ -8795,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M102" s="15">
         <v>0</v>
@@ -8831,14 +8258,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="15">
         <v>1</v>
       </c>
       <c r="D103" s="15">
@@ -8847,16 +8274,16 @@
       <c r="E103" s="15">
         <v>1.02</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="15">
         <v>2</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="15">
         <v>30002</v>
       </c>
       <c r="H103" s="15">
         <v>0.5</v>
       </c>
-      <c r="I103" s="19">
+      <c r="I103" s="17">
         <v>0.5</v>
       </c>
       <c r="J103" s="15">
@@ -8869,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="N103" s="15">
         <v>0</v>
@@ -8902,14 +8329,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>102</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>5</v>
       </c>
       <c r="D104" s="15">
@@ -8918,16 +8345,16 @@
       <c r="E104" s="15">
         <v>1</v>
       </c>
-      <c r="F104" s="16">
-        <v>1</v>
-      </c>
-      <c r="G104" s="18">
+      <c r="F104" s="15">
+        <v>1</v>
+      </c>
+      <c r="G104" s="15">
         <v>30004</v>
       </c>
       <c r="H104" s="15">
         <v>0.4</v>
       </c>
-      <c r="I104" s="19">
+      <c r="I104" s="17">
         <v>0.4</v>
       </c>
       <c r="J104" s="15">
@@ -8946,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="O104" s="15">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="P104" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="2">
         <v>-1</v>
@@ -8973,39 +8400,39 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>103</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="15">
         <v>3</v>
       </c>
       <c r="D105" s="15">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="E105" s="15">
         <v>1.012</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="15">
         <v>2</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="15">
         <v>30005</v>
       </c>
       <c r="H105" s="15">
         <v>0.7</v>
       </c>
-      <c r="I105" s="19">
+      <c r="I105" s="17">
         <v>0.8</v>
       </c>
       <c r="J105" s="15">
         <v>0</v>
       </c>
       <c r="K105" s="15">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L105" s="15">
         <v>0</v>
@@ -9044,91 +8471,269 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="9:9">
+    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="2">
+        <v>5</v>
+      </c>
+      <c r="D106" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="E106" s="18">
+        <v>1.02</v>
+      </c>
+      <c r="F106" s="18">
+        <v>2</v>
+      </c>
+      <c r="G106" s="18">
+        <v>30002</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K106" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>5</v>
+      </c>
+      <c r="R106" s="2">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>0</v>
+      </c>
+      <c r="U106" s="2">
+        <v>0</v>
+      </c>
+      <c r="V106" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="W106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="18">
+        <v>0.98</v>
+      </c>
+      <c r="E107" s="18">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F107" s="18">
+        <v>3</v>
+      </c>
+      <c r="G107" s="18">
+        <v>30003</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>2</v>
+      </c>
+      <c r="R107" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S107" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T107" s="2">
+        <v>0</v>
+      </c>
+      <c r="U107" s="2">
+        <v>0</v>
+      </c>
+      <c r="V107" s="2">
+        <v>0</v>
+      </c>
+      <c r="W107" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="9:9">
+    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="9:9">
+    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="9:9">
+    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="9:9">
+    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I123" s="16"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I124" s="16"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I127" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD1668BC-279E-44A5-BE07-1828E64AB88B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:W1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD1668BC-279E-44A5-BE07-1828E64AB88B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
@@ -9136,7 +8741,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9144,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:2">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -9152,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -9160,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:2">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>10</v>
       </c>
@@ -9168,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:2">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -9176,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:2">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>12</v>
       </c>
@@ -9184,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>13</v>
       </c>
@@ -9192,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:2">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>18</v>
       </c>
@@ -9200,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:2">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>19</v>
       </c>
@@ -9208,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:2">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>20</v>
       </c>
@@ -9216,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:2">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>21</v>
       </c>
@@ -9224,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:2">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>23</v>
       </c>
@@ -9232,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:2">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>24</v>
       </c>
@@ -9240,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:2">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>25</v>
       </c>
@@ -9248,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>26</v>
       </c>
@@ -9256,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:2">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>27</v>
       </c>
@@ -9264,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:2">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>31</v>
       </c>
@@ -9272,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:2">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>32</v>
       </c>
@@ -9280,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:2">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>33</v>
       </c>
@@ -9288,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:2">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>34</v>
       </c>
@@ -9296,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:2">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>35</v>
       </c>
@@ -9304,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:2">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>36</v>
       </c>
@@ -9312,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="13.2" spans="1:2">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>38</v>
       </c>
@@ -9320,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="13.2" spans="1:2">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>39</v>
       </c>
@@ -9328,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="13.2" spans="1:2">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>40</v>
       </c>
@@ -9336,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="13.2" spans="1:2">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>41</v>
       </c>
@@ -9344,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="13.2" spans="1:2">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>42</v>
       </c>
@@ -9352,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="13.2" spans="1:2">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>43</v>
       </c>
@@ -9360,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="13.2" spans="1:2">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>44</v>
       </c>
@@ -9368,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:2">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>45</v>
       </c>
@@ -9376,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="13.2" spans="1:2">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>46</v>
       </c>
@@ -9384,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="13.2" spans="1:2">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>49</v>
       </c>
@@ -9392,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="13.2" spans="1:2">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>51</v>
       </c>
@@ -9400,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="13.2" spans="1:2">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>60</v>
       </c>
@@ -9408,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="13.2" spans="1:2">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>61</v>
       </c>
@@ -9416,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="13.2" spans="1:2">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>62</v>
       </c>
@@ -9424,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="13.2" spans="1:2">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>63</v>
       </c>
@@ -9432,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="13.2" spans="1:2">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>83</v>
       </c>
@@ -9440,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="13.2" spans="1:2">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>84</v>
       </c>
@@ -9448,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="13.2" spans="1:2">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>85</v>
       </c>
@@ -9456,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="13.2" spans="1:2">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>86</v>
       </c>
@@ -9464,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="13.2" spans="1:2">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>87</v>
       </c>
@@ -9472,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="13.2" spans="1:2">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>88</v>
       </c>
@@ -9480,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="13.2" spans="1:2">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>89</v>
       </c>
@@ -9488,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="13.2" spans="1:2">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>90</v>
       </c>
@@ -9496,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="13.2" spans="1:2">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>92</v>
       </c>
@@ -9504,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="13.2" spans="1:2">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>93</v>
       </c>
@@ -9512,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="13.2" spans="1:2">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>94</v>
       </c>
@@ -9520,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="13.2" spans="1:2">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>95</v>
       </c>
@@ -9528,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="13.2" spans="1:2">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>96</v>
       </c>
@@ -9536,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="13.2" spans="1:2">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>97</v>
       </c>
@@ -9544,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="13.2" spans="1:2">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>98</v>
       </c>
@@ -9552,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="13.2" spans="1:2">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>100</v>
       </c>
@@ -9560,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="13.2" spans="1:2">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>101</v>
       </c>
@@ -9568,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="13.2" spans="1:2">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>102</v>
       </c>
@@ -9576,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="13.2" spans="1:2">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>103</v>
       </c>
@@ -9585,28 +9190,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.14285714285714" style="2"/>
-    <col min="4" max="4" width="9.35714285714286" style="2" customWidth="1"/>
-    <col min="5" max="12" width="9.14285714285714" style="2"/>
+    <col min="1" max="3" width="9.125" style="2"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
+    <col min="5" max="12" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9682,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9720,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9758,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9796,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9834,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9872,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9910,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9948,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9986,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10024,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10062,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10100,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10138,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10176,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10214,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10252,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10290,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10328,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10366,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10404,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10442,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10480,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10518,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10557,149 +10161,148 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.8.42\work\github\opm_data_analyzing_system\opm_hero_property\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA10A0-A514-4659-AB7A-5C66C2BDAEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20860" windowHeight="32640"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="设定状态" sheetId="3" r:id="rId3"/>
     <sheet name="备用" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>_id</t>
   </si>
@@ -44,7 +38,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_pr</t>
@@ -53,7 +46,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>o</t>
@@ -62,7 +54,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>fession</t>
@@ -100,7 +91,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_</t>
@@ -109,7 +99,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>limiter_on</t>
@@ -198,7 +187,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>桃源团团员</t>
@@ -207,7 +195,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -218,7 +205,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>桃源团团员</t>
@@ -227,7 +213,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -483,6 +468,12 @@
     <t>雷光源氏</t>
   </si>
   <si>
+    <t>音速索尼克-复活节版</t>
+  </si>
+  <si>
+    <t>黄金球-复活节版</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -526,19 +517,19 @@
   </si>
   <si>
     <t>机械核心等级</t>
-  </si>
-  <si>
-    <t>音速索尼克-复活节版</t>
-  </si>
-  <si>
-    <t>黄金球-复活节版</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,7 +540,6 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -557,7 +547,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -565,21 +554,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,39 +573,180 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,8 +759,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -641,13 +954,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -692,32 +1247,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -975,20 +1574,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="12" customWidth="1"/>
@@ -1016,7 +1616,7 @@
     <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1119,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L2" s="15">
         <v>0</v>
@@ -1158,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1169,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="15">
-        <v>1.0529999999999999</v>
+        <v>1.053</v>
       </c>
       <c r="E3" s="15">
-        <v>0.94199999999999995</v>
+        <v>0.942</v>
       </c>
       <c r="F3" s="15">
         <v>1</v>
@@ -1181,7 +1781,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I3" s="17">
         <v>0</v>
@@ -1202,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="P3" s="15">
         <v>0</v>
@@ -1229,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1240,10 +1840,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="15">
-        <v>0.98499999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="E4" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="F4" s="15">
         <v>3</v>
@@ -1300,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1371,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1382,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="E6" s="15">
-        <v>0.97699999999999998</v>
+        <v>0.977</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -1442,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1513,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1584,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1625,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
@@ -1655,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1666,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="15">
-        <v>0.99399999999999999</v>
+        <v>0.994</v>
       </c>
       <c r="E10" s="15">
         <v>1.002</v>
@@ -1726,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1737,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="15">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="E11" s="15">
         <v>0.995</v>
@@ -1767,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
@@ -1797,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1808,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="15">
-        <v>1.0049999999999999</v>
+        <v>1.005</v>
       </c>
       <c r="E12" s="15">
         <v>0.995</v>
@@ -1835,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="N12" s="15">
         <v>0</v>
@@ -1868,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1879,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="15">
-        <v>1.0309999999999999</v>
+        <v>1.031</v>
       </c>
       <c r="E13" s="15">
-        <v>0.97499999999999998</v>
+        <v>0.975</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -1903,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <v>2.8E-3</v>
+        <v>0.0028</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -1939,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1953,7 +2553,7 @@
         <v>1.018</v>
       </c>
       <c r="E14" s="15">
-        <v>0.98699999999999999</v>
+        <v>0.987</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -1962,19 +2562,19 @@
         <v>34</v>
       </c>
       <c r="H14" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K14" s="15">
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -2010,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2021,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="15">
-        <v>0.98699999999999999</v>
+        <v>0.987</v>
       </c>
       <c r="E15" s="15">
-        <v>1.0089999999999999</v>
+        <v>1.009</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
@@ -2081,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2152,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2223,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2234,10 +2834,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="15">
-        <v>0.97699999999999998</v>
+        <v>0.977</v>
       </c>
       <c r="E18" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="F18" s="15">
         <v>2</v>
@@ -2294,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2338,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -2365,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2376,10 +2976,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="15">
-        <v>0.96599999999999997</v>
+        <v>0.966</v>
       </c>
       <c r="E20" s="15">
-        <v>1.0189999999999999</v>
+        <v>1.019</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -2397,7 +2997,7 @@
         <v>0.7</v>
       </c>
       <c r="K20" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2436,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2450,7 +3050,7 @@
         <v>0.97</v>
       </c>
       <c r="E21" s="15">
-        <v>1.0029999999999999</v>
+        <v>1.003</v>
       </c>
       <c r="F21" s="15">
         <v>2</v>
@@ -2474,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="15">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="N21" s="15">
         <v>0</v>
@@ -2507,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -2518,10 +3118,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="15">
-        <v>0.93799999999999994</v>
+        <v>0.938</v>
       </c>
       <c r="E22" s="15">
-        <v>1.0269999999999999</v>
+        <v>1.027</v>
       </c>
       <c r="F22" s="15">
         <v>3</v>
@@ -2539,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2578,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -2649,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2660,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="15">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="E24" s="15">
         <v>0.96</v>
@@ -2687,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N24" s="15">
         <v>0</v>
@@ -2720,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -2731,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="15">
-        <v>0.95599999999999996</v>
+        <v>0.956</v>
       </c>
       <c r="E25" s="15">
         <v>0.98</v>
@@ -2764,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -2791,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -2832,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="15">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
       <c r="O26" s="15">
         <v>0</v>
@@ -2862,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -2873,10 +3473,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="15">
-        <v>0.99199999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E27" s="15">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="F27" s="15">
         <v>1</v>
@@ -2897,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="M27" s="15">
         <v>0</v>
@@ -2933,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -2944,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="15">
-        <v>0.93600000000000005</v>
+        <v>0.936</v>
       </c>
       <c r="E28" s="15">
         <v>0.99</v>
@@ -2974,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="15">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="O28" s="15">
         <v>0</v>
@@ -3004,7 +3604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3075,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3086,10 +3686,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="E30" s="15">
-        <v>0.97399999999999998</v>
+        <v>0.974</v>
       </c>
       <c r="F30" s="15">
         <v>1</v>
@@ -3146,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3217,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3228,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="15">
-        <v>1.0309999999999999</v>
+        <v>1.031</v>
       </c>
       <c r="E32" s="15">
-        <v>0.98099999999999998</v>
+        <v>0.981</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
@@ -3261,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -3288,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -3299,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="15">
-        <v>1.0289999999999999</v>
+        <v>1.029</v>
       </c>
       <c r="E33" s="15">
-        <v>0.96599999999999997</v>
+        <v>0.966</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
@@ -3329,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="15">
-        <v>1.6999999999999999E-3</v>
+        <v>0.0017</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
@@ -3359,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -3391,7 +3991,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L34" s="15">
         <v>0</v>
@@ -3430,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3441,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="15">
-        <v>0.93899999999999995</v>
+        <v>0.939</v>
       </c>
       <c r="E35" s="15">
         <v>1.012</v>
@@ -3468,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="N35" s="15">
         <v>0</v>
@@ -3501,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -3515,7 +4115,7 @@
         <v>0.94</v>
       </c>
       <c r="E36" s="15">
-        <v>1.0189999999999999</v>
+        <v>1.019</v>
       </c>
       <c r="F36" s="15">
         <v>2</v>
@@ -3533,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="L36" s="15">
         <v>0</v>
@@ -3572,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -3583,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="15">
-        <v>0.96899999999999997</v>
+        <v>0.969</v>
       </c>
       <c r="E37" s="15">
         <v>0.999</v>
@@ -3610,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N37" s="15">
         <v>0</v>
@@ -3643,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3714,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3725,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="15">
-        <v>0.94199999999999995</v>
+        <v>0.942</v>
       </c>
       <c r="E39" s="15">
         <v>1.02</v>
@@ -3746,7 +4346,7 @@
         <v>0.6</v>
       </c>
       <c r="K39" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L39" s="15">
         <v>0</v>
@@ -3785,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -3796,10 +4396,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="15">
-        <v>1.0229999999999999</v>
+        <v>1.023</v>
       </c>
       <c r="E40" s="15">
-        <v>0.97799999999999998</v>
+        <v>0.978</v>
       </c>
       <c r="F40" s="15">
         <v>1</v>
@@ -3820,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="M40" s="15">
         <v>0</v>
@@ -3856,21 +4456,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="16">
         <v>5</v>
       </c>
       <c r="D41" s="15">
-        <v>0.95599999999999996</v>
+        <v>0.956</v>
       </c>
       <c r="E41" s="15">
-        <v>1.0069999999999999</v>
+        <v>1.007</v>
       </c>
       <c r="F41" s="15">
         <v>2</v>
@@ -3888,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L41" s="15">
         <v>0</v>
@@ -3927,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3938,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="15">
-        <v>1.0089999999999999</v>
+        <v>1.009</v>
       </c>
       <c r="E42" s="15">
         <v>0.94</v>
@@ -3971,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -3998,14 +4598,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="16">
         <v>5</v>
       </c>
       <c r="D43" s="15">
@@ -4033,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="M43" s="15">
         <v>0</v>
@@ -4069,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4080,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="15">
-        <v>0.97799999999999998</v>
+        <v>0.978</v>
       </c>
       <c r="E44" s="15">
-        <v>1.0129999999999999</v>
+        <v>1.013</v>
       </c>
       <c r="F44" s="15">
         <v>1</v>
@@ -4101,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L44" s="15">
         <v>0</v>
@@ -4140,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4154,7 +4754,7 @@
         <v>0.98</v>
       </c>
       <c r="E45" s="15">
-        <v>0.97699999999999998</v>
+        <v>0.977</v>
       </c>
       <c r="F45" s="15">
         <v>3</v>
@@ -4178,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="N45" s="15">
         <v>0</v>
@@ -4211,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4222,10 +4822,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="15">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="E46" s="15">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="F46" s="15">
         <v>1</v>
@@ -4249,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="15">
-        <v>3.5000000000000001E-3</v>
+        <v>0.0035</v>
       </c>
       <c r="N46" s="15">
         <v>0</v>
@@ -4282,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4293,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="15">
-        <v>0.99199999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E47" s="15">
-        <v>1.0069999999999999</v>
+        <v>1.007</v>
       </c>
       <c r="F47" s="15">
         <v>2</v>
@@ -4314,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -4353,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -4364,10 +4964,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="15">
-        <v>1.0369999999999999</v>
+        <v>1.037</v>
       </c>
       <c r="E48" s="15">
-        <v>0.96599999999999997</v>
+        <v>0.966</v>
       </c>
       <c r="F48" s="15">
         <v>1</v>
@@ -4424,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -4495,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -4506,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="15">
-        <v>0.93700000000000006</v>
+        <v>0.937</v>
       </c>
       <c r="E50" s="15">
         <v>1.036</v>
@@ -4530,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="M50" s="15">
         <v>0</v>
@@ -4566,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -4637,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -4648,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="15">
-        <v>0.94199999999999995</v>
+        <v>0.942</v>
       </c>
       <c r="E52" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="F52" s="15">
         <v>3</v>
@@ -4675,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N52" s="15">
         <v>0</v>
@@ -4708,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -4719,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="15">
-        <v>0.97099999999999997</v>
+        <v>0.971</v>
       </c>
       <c r="E53" s="15">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="F53" s="15">
         <v>2</v>
@@ -4779,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -4790,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="15">
-        <v>0.97699999999999998</v>
+        <v>0.977</v>
       </c>
       <c r="E54" s="15">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="F54" s="15">
         <v>3</v>
@@ -4850,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -4921,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -4932,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="15">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="E56" s="15">
         <v>1.016</v>
@@ -4992,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -5003,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="15">
-        <v>0.96499999999999997</v>
+        <v>0.965</v>
       </c>
       <c r="E57" s="15">
         <v>1.016</v>
@@ -5063,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -5077,7 +5677,7 @@
         <v>1.014</v>
       </c>
       <c r="E58" s="15">
-        <v>0.96799999999999997</v>
+        <v>0.968</v>
       </c>
       <c r="F58" s="15">
         <v>3</v>
@@ -5134,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -5205,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -5216,10 +5816,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="15">
-        <v>0.98299999999999998</v>
+        <v>0.983</v>
       </c>
       <c r="E60" s="15">
-        <v>1.0109999999999999</v>
+        <v>1.011</v>
       </c>
       <c r="F60" s="15">
         <v>3</v>
@@ -5276,21 +5876,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="16">
         <v>5</v>
       </c>
       <c r="D61" s="15">
-        <v>0.97199999999999998</v>
+        <v>0.972</v>
       </c>
       <c r="E61" s="15">
-        <v>0.97899999999999998</v>
+        <v>0.979</v>
       </c>
       <c r="F61" s="15">
         <v>3</v>
@@ -5320,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P61" s="15">
         <v>0</v>
@@ -5347,21 +5947,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23">
       <c r="A62" s="15">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="16">
         <v>5</v>
       </c>
       <c r="D62" s="15">
         <v>1.03</v>
       </c>
       <c r="E62" s="15">
-        <v>0.98199999999999998</v>
+        <v>0.982</v>
       </c>
       <c r="F62" s="15">
         <v>1</v>
@@ -5379,7 +5979,7 @@
         <v>0.5</v>
       </c>
       <c r="K62" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="L62" s="15">
         <v>0</v>
@@ -5418,21 +6018,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23">
       <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="16">
         <v>5</v>
       </c>
       <c r="D63" s="15">
-        <v>0.94899999999999995</v>
+        <v>0.949</v>
       </c>
       <c r="E63" s="15">
-        <v>1.0409999999999999</v>
+        <v>1.041</v>
       </c>
       <c r="F63" s="15">
         <v>2</v>
@@ -5456,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="N63" s="15">
         <v>0</v>
@@ -5489,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -5500,10 +6100,10 @@
         <v>4</v>
       </c>
       <c r="D64" s="15">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="E64" s="15">
-        <v>0.94599999999999995</v>
+        <v>0.946</v>
       </c>
       <c r="F64" s="15">
         <v>1</v>
@@ -5530,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="O64" s="15">
         <v>0</v>
@@ -5560,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -5631,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -5702,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -5713,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="15">
-        <v>0.99199999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E67" s="15">
         <v>1.016</v>
@@ -5773,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -5844,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -5855,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="15">
-        <v>1.0169999999999999</v>
+        <v>1.017</v>
       </c>
       <c r="E69" s="15">
         <v>0.995</v>
@@ -5915,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -5986,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6057,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6128,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6199,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6213,7 +6813,7 @@
         <v>1.08</v>
       </c>
       <c r="E74" s="15">
-        <v>0.97299999999999998</v>
+        <v>0.973</v>
       </c>
       <c r="F74" s="15">
         <v>1</v>
@@ -6270,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6341,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6352,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="15">
-        <v>1.0169999999999999</v>
+        <v>1.017</v>
       </c>
       <c r="E76" s="15">
         <v>0.995</v>
@@ -6412,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6423,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="15">
-        <v>1.0169999999999999</v>
+        <v>1.017</v>
       </c>
       <c r="E77" s="15">
         <v>0.995</v>
@@ -6483,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6494,10 +7094,10 @@
         <v>2</v>
       </c>
       <c r="D78" s="15">
-        <v>1.0049999999999999</v>
+        <v>1.005</v>
       </c>
       <c r="E78" s="15">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="F78" s="15">
         <v>1</v>
@@ -6554,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6565,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="15">
-        <v>0.98299999999999998</v>
+        <v>0.983</v>
       </c>
       <c r="E79" s="15">
         <v>1.014</v>
@@ -6625,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6639,7 +7239,7 @@
         <v>0.995</v>
       </c>
       <c r="E80" s="15">
-        <v>1.0009999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="F80" s="15">
         <v>3</v>
@@ -6696,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6767,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6778,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="D82" s="15">
-        <v>0.98099999999999998</v>
+        <v>0.981</v>
       </c>
       <c r="E82" s="15">
-        <v>1.0109999999999999</v>
+        <v>1.011</v>
       </c>
       <c r="F82" s="15">
         <v>2</v>
@@ -6838,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6909,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23">
       <c r="A84" s="15">
         <v>10007</v>
       </c>
@@ -6923,7 +7523,7 @@
         <v>1.018</v>
       </c>
       <c r="E84" s="15">
-        <v>0.98699999999999999</v>
+        <v>0.987</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -6980,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23">
       <c r="A85" s="15">
         <v>10008</v>
       </c>
@@ -6994,7 +7594,7 @@
         <v>1.03</v>
       </c>
       <c r="E85" s="15">
-        <v>0.98199999999999998</v>
+        <v>0.982</v>
       </c>
       <c r="F85" s="15">
         <v>1</v>
@@ -7051,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A86" s="15">
         <v>83</v>
       </c>
@@ -7089,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="N86" s="15">
         <v>0</v>
@@ -7122,18 +7722,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A87" s="15">
         <v>84</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="16">
         <v>5</v>
       </c>
       <c r="D87" s="15">
-        <v>0.97799999999999998</v>
+        <v>0.978</v>
       </c>
       <c r="E87" s="15">
         <v>1.02</v>
@@ -7160,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="N87" s="15">
         <v>0</v>
@@ -7193,7 +7793,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A88" s="15">
         <v>85</v>
       </c>
@@ -7237,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P88" s="15">
         <v>0</v>
@@ -7264,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A89" s="15">
         <v>86</v>
       </c>
@@ -7275,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="15">
-        <v>0.98499999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="E89" s="15">
-        <v>1.0149999999999999</v>
+        <v>1.015</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -7299,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="M89" s="15">
         <v>0</v>
@@ -7335,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A90" s="15">
         <v>87</v>
       </c>
@@ -7346,10 +7946,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="15">
-        <v>0.97199999999999998</v>
+        <v>0.972</v>
       </c>
       <c r="E90" s="15">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="F90" s="15">
         <v>2</v>
@@ -7367,7 +7967,7 @@
         <v>0.6</v>
       </c>
       <c r="K90" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="L90" s="15">
         <v>0</v>
@@ -7406,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A91" s="15">
         <v>88</v>
       </c>
@@ -7417,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="15">
-        <v>0.97499999999999998</v>
+        <v>0.975</v>
       </c>
       <c r="E91" s="15">
         <v>1.03</v>
@@ -7447,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="O91" s="15">
         <v>0</v>
@@ -7477,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" s="11" customFormat="1" ht="11.2" spans="1:23">
       <c r="A92" s="15">
         <v>89</v>
       </c>
@@ -7491,7 +8091,7 @@
         <v>0.99</v>
       </c>
       <c r="E92" s="15">
-        <v>1.0049999999999999</v>
+        <v>1.005</v>
       </c>
       <c r="F92" s="15">
         <v>3</v>
@@ -7509,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L92" s="15">
         <v>0</v>
@@ -7548,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23">
       <c r="A93" s="15">
         <v>90</v>
       </c>
@@ -7580,7 +8180,7 @@
         <v>0.5</v>
       </c>
       <c r="K93" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="L93" s="15">
         <v>0</v>
@@ -7619,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7657,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="N94" s="15">
         <v>0</v>
@@ -7690,18 +8290,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23">
       <c r="A95" s="15">
         <v>92</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="16">
         <v>5</v>
       </c>
       <c r="D95" s="15">
-        <v>1.0149999999999999</v>
+        <v>1.015</v>
       </c>
       <c r="E95" s="15">
         <v>0.98</v>
@@ -7734,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P95" s="15">
         <v>0</v>
@@ -7761,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23">
       <c r="A96" s="15">
         <v>94</v>
       </c>
@@ -7796,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="M96" s="15">
         <v>0</v>
@@ -7832,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23">
       <c r="A97" s="15">
         <v>95</v>
       </c>
@@ -7846,7 +8446,7 @@
         <v>1.02</v>
       </c>
       <c r="E97" s="15">
-        <v>0.98499999999999999</v>
+        <v>0.985</v>
       </c>
       <c r="F97" s="15">
         <v>1</v>
@@ -7867,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="M97" s="15">
         <v>0</v>
@@ -7903,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23">
       <c r="A98" s="15">
         <v>96</v>
       </c>
@@ -7944,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="O98" s="15">
         <v>0</v>
@@ -7974,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23">
       <c r="A99" s="15">
         <v>97</v>
       </c>
@@ -7985,10 +8585,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="15">
-        <v>0.94199999999999995</v>
+        <v>0.942</v>
       </c>
       <c r="E99" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="F99" s="15">
         <v>3</v>
@@ -8012,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="N99" s="15">
         <v>0</v>
@@ -8045,7 +8645,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23">
       <c r="A100" s="15">
         <v>98</v>
       </c>
@@ -8077,7 +8677,7 @@
         <v>0.6</v>
       </c>
       <c r="K100" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L100" s="15">
         <v>0</v>
@@ -8116,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23">
       <c r="A101" s="15">
         <v>99</v>
       </c>
@@ -8187,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23">
       <c r="A102" s="15">
         <v>100</v>
       </c>
@@ -8198,10 +8798,10 @@
         <v>5</v>
       </c>
       <c r="D102" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.021</v>
       </c>
       <c r="E102" s="15">
-        <v>0.98399999999999999</v>
+        <v>0.984</v>
       </c>
       <c r="F102" s="15">
         <v>1</v>
@@ -8222,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="M102" s="15">
         <v>0</v>
@@ -8258,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23">
       <c r="A103" s="15">
         <v>101</v>
       </c>
@@ -8296,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="N103" s="15">
         <v>0</v>
@@ -8329,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23">
       <c r="A104" s="15">
         <v>102</v>
       </c>
@@ -8373,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="15">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="P104" s="15">
         <v>0</v>
@@ -8400,7 +9000,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23">
       <c r="A105" s="15">
         <v>103</v>
       </c>
@@ -8411,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="15">
-        <v>0.96699999999999997</v>
+        <v>0.967</v>
       </c>
       <c r="E105" s="15">
         <v>1.012</v>
@@ -8432,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="L105" s="15">
         <v>0</v>
@@ -8471,12 +9071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23">
       <c r="A106" s="18">
         <v>104</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2">
         <v>5</v>
@@ -8503,7 +9103,7 @@
         <v>0.5</v>
       </c>
       <c r="K106" s="2">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="L106" s="2">
         <v>0</v>
@@ -8542,12 +9142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23">
       <c r="A107" s="18">
         <v>105</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2">
         <v>1</v>
@@ -8556,7 +9156,7 @@
         <v>0.98</v>
       </c>
       <c r="E107" s="18">
-        <v>1.0049999999999999</v>
+        <v>1.005</v>
       </c>
       <c r="F107" s="18">
         <v>3</v>
@@ -8580,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N107" s="2">
         <v>0</v>
@@ -8613,69 +9213,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I115" s="16"/>
-    </row>
-    <row r="116" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I116" s="16"/>
-    </row>
-    <row r="117" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I117" s="16"/>
-    </row>
-    <row r="118" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I118" s="16"/>
-    </row>
-    <row r="119" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I119" s="16"/>
-    </row>
-    <row r="120" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I121" s="16"/>
-    </row>
-    <row r="122" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I122" s="16"/>
-    </row>
-    <row r="123" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I125" s="16"/>
-    </row>
-    <row r="126" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I126" s="16"/>
-    </row>
-    <row r="127" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I127" s="16"/>
+    <row r="108" spans="9:9">
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="19"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="19"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="19"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="19"/>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="19"/>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="19"/>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="19"/>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="19"/>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="19"/>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="19"/>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="19"/>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="19"/>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P$1:P$1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8684,12 +9283,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BD1668BC-279E-44A5-BE07-1828E64AB88B}</x14:id>
+          <x14:id>{94df6b8e-527c-4c1b-8a37-d5873ef4da89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:W1048576">
+  <conditionalFormatting sqref="R$1:W$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8701,13 +9300,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BD1668BC-279E-44A5-BE07-1828E64AB88B}">
+          <x14:cfRule type="dataBar" id="{94df6b8e-527c-4c1b-8a37-d5873ef4da89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8715,7 +9315,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>P$1:P$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8724,24 +9324,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.6" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -8749,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8757,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -8765,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="7">
         <v>10</v>
       </c>
@@ -8773,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" ht="13.2" spans="1:2">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -8781,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" ht="13.2" spans="1:2">
       <c r="A7" s="7">
         <v>12</v>
       </c>
@@ -8789,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" ht="13.2" spans="1:2">
       <c r="A8" s="7">
         <v>13</v>
       </c>
@@ -8797,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" ht="13.2" spans="1:2">
       <c r="A9" s="7">
         <v>18</v>
       </c>
@@ -8805,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="13.2" spans="1:2">
       <c r="A10" s="7">
         <v>19</v>
       </c>
@@ -8813,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" ht="13.2" spans="1:2">
       <c r="A11" s="7">
         <v>20</v>
       </c>
@@ -8821,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" ht="13.2" spans="1:2">
       <c r="A12" s="7">
         <v>21</v>
       </c>
@@ -8829,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" ht="13.2" spans="1:2">
       <c r="A13" s="7">
         <v>23</v>
       </c>
@@ -8837,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" ht="13.2" spans="1:2">
       <c r="A14" s="7">
         <v>24</v>
       </c>
@@ -8845,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" ht="13.2" spans="1:2">
       <c r="A15" s="7">
         <v>25</v>
       </c>
@@ -8853,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="13.2" spans="1:2">
       <c r="A16" s="7">
         <v>26</v>
       </c>
@@ -8861,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" ht="13.2" spans="1:2">
       <c r="A17" s="7">
         <v>27</v>
       </c>
@@ -8869,7 +9470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" ht="13.2" spans="1:2">
       <c r="A18" s="7">
         <v>31</v>
       </c>
@@ -8877,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" ht="13.2" spans="1:2">
       <c r="A19" s="7">
         <v>32</v>
       </c>
@@ -8885,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" ht="13.2" spans="1:2">
       <c r="A20" s="7">
         <v>33</v>
       </c>
@@ -8893,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" ht="13.2" spans="1:2">
       <c r="A21" s="7">
         <v>34</v>
       </c>
@@ -8901,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" ht="13.2" spans="1:2">
       <c r="A22" s="7">
         <v>35</v>
       </c>
@@ -8909,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" ht="13.2" spans="1:2">
       <c r="A23" s="7">
         <v>36</v>
       </c>
@@ -8917,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" ht="13.2" spans="1:2">
       <c r="A24" s="7">
         <v>38</v>
       </c>
@@ -8925,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" ht="13.2" spans="1:2">
       <c r="A25" s="7">
         <v>39</v>
       </c>
@@ -8933,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" ht="13.2" spans="1:2">
       <c r="A26" s="7">
         <v>40</v>
       </c>
@@ -8941,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" ht="13.2" spans="1:2">
       <c r="A27" s="7">
         <v>41</v>
       </c>
@@ -8949,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" ht="13.2" spans="1:2">
       <c r="A28" s="7">
         <v>42</v>
       </c>
@@ -8957,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" ht="13.2" spans="1:2">
       <c r="A29" s="7">
         <v>43</v>
       </c>
@@ -8965,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="13.2" spans="1:2">
       <c r="A30" s="7">
         <v>44</v>
       </c>
@@ -8973,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="13.2" spans="1:2">
       <c r="A31" s="7">
         <v>45</v>
       </c>
@@ -8981,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="13.2" spans="1:2">
       <c r="A32" s="7">
         <v>46</v>
       </c>
@@ -8989,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" ht="13.2" spans="1:2">
       <c r="A33" s="7">
         <v>49</v>
       </c>
@@ -8997,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" ht="13.2" spans="1:2">
       <c r="A34" s="7">
         <v>51</v>
       </c>
@@ -9005,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" ht="13.2" spans="1:2">
       <c r="A35" s="7">
         <v>60</v>
       </c>
@@ -9013,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="36" ht="13.2" spans="1:2">
       <c r="A36" s="7">
         <v>61</v>
       </c>
@@ -9021,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" ht="13.2" spans="1:2">
       <c r="A37" s="7">
         <v>62</v>
       </c>
@@ -9029,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" ht="13.2" spans="1:2">
       <c r="A38" s="7">
         <v>63</v>
       </c>
@@ -9037,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" ht="13.2" spans="1:2">
       <c r="A39" s="7">
         <v>83</v>
       </c>
@@ -9045,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="40" ht="13.2" spans="1:2">
       <c r="A40" s="7">
         <v>84</v>
       </c>
@@ -9053,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="13.2" spans="1:2">
       <c r="A41" s="7">
         <v>85</v>
       </c>
@@ -9061,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" ht="13.2" spans="1:2">
       <c r="A42" s="7">
         <v>86</v>
       </c>
@@ -9069,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" ht="13.2" spans="1:2">
       <c r="A43" s="7">
         <v>87</v>
       </c>
@@ -9077,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="13.2" spans="1:2">
       <c r="A44" s="7">
         <v>88</v>
       </c>
@@ -9085,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" ht="13.2" spans="1:2">
       <c r="A45" s="7">
         <v>89</v>
       </c>
@@ -9093,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" ht="13.2" spans="1:2">
       <c r="A46" s="7">
         <v>90</v>
       </c>
@@ -9101,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" ht="13.2" spans="1:2">
       <c r="A47" s="8">
         <v>92</v>
       </c>
@@ -9109,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" ht="13.2" spans="1:2">
       <c r="A48" s="8">
         <v>93</v>
       </c>
@@ -9117,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" ht="13.2" spans="1:2">
       <c r="A49" s="8">
         <v>94</v>
       </c>
@@ -9125,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" ht="13.2" spans="1:2">
       <c r="A50" s="8">
         <v>95</v>
       </c>
@@ -9133,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="13.2" spans="1:2">
       <c r="A51" s="8">
         <v>96</v>
       </c>
@@ -9141,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" ht="13.2" spans="1:2">
       <c r="A52" s="8">
         <v>97</v>
       </c>
@@ -9149,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" ht="13.2" spans="1:2">
       <c r="A53" s="9">
         <v>98</v>
       </c>
@@ -9157,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" ht="13.2" spans="1:2">
       <c r="A54" s="10">
         <v>100</v>
       </c>
@@ -9165,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" ht="13.2" spans="1:2">
       <c r="A55" s="10">
         <v>101</v>
       </c>
@@ -9173,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="13.2" spans="1:2">
       <c r="A56" s="6">
         <v>102</v>
       </c>
@@ -9181,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" ht="13.2" spans="1:2">
       <c r="A57" s="6">
         <v>103</v>
       </c>
@@ -9190,70 +9791,71 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="3" width="9.125" style="2"/>
     <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
     <col min="5" max="12" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -9286,12 +9888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -9324,12 +9926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -9362,12 +9964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -9400,12 +10002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -9438,12 +10040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -9476,12 +10078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -9514,12 +10116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -9552,12 +10154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -9590,12 +10192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -9628,12 +10230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -9666,12 +10268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -9704,12 +10306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -9742,12 +10344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -9780,12 +10382,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -9818,12 +10420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -9856,12 +10458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -9894,12 +10496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -9932,12 +10534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -9970,12 +10572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -10008,12 +10610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -10046,12 +10648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -10084,12 +10686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -10122,12 +10724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -10161,148 +10763,149 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>_id</t>
   </si>
@@ -480,6 +480,9 @@
     <t>等离子舞姬</t>
   </si>
   <si>
+    <t>春日节天空王</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -530,9 +533,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -583,23 +586,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,15 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -628,7 +615,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -643,6 +630,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -651,9 +646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,22 +656,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +671,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -698,7 +694,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,13 +717,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +791,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +863,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,139 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,6 +934,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -951,8 +981,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -973,13 +1005,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,192 +1034,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,6 +1234,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1560,26 +1569,26 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.3125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="4.3125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.3125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="5.95535714285714" style="14" customWidth="1"/>
-    <col min="8" max="8" width="5.95535714285714" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.95535714285714" style="15" customWidth="1"/>
-    <col min="10" max="15" width="5.95535714285714" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9.57142857142857" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.2142857142857" style="2" customWidth="1"/>
-    <col min="18" max="20" width="6.99107142857143" style="12" customWidth="1"/>
-    <col min="21" max="23" width="7.42857142857143" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="4.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6" style="14" customWidth="1"/>
+    <col min="8" max="8" width="6" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6" style="15" customWidth="1"/>
+    <col min="10" max="15" width="6" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="2" customWidth="1"/>
+    <col min="18" max="20" width="7" style="12" customWidth="1"/>
+    <col min="21" max="23" width="7.375" style="12" customWidth="1"/>
     <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2379,28 +2388,28 @@
         <v>0</v>
       </c>
       <c r="P11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="0"/>
@@ -2454,28 +2463,28 @@
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="12">
         <f t="shared" si="0"/>
@@ -4779,28 +4788,28 @@
         <v>0</v>
       </c>
       <c r="P43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="V43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="12">
         <f t="shared" si="1"/>
@@ -4854,28 +4863,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="1"/>
@@ -6603,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="X67" s="12">
-        <f t="shared" ref="X67:X108" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
+        <f t="shared" ref="X67:X109" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -9204,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="2">
         <v>0</v>
@@ -9354,7 +9363,7 @@
         <v>0.002</v>
       </c>
       <c r="P104" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="2">
         <v>-1</v>
@@ -9461,49 +9470,49 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C106" s="20">
         <v>5</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="19">
         <v>0.95</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="19">
         <v>1.02</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="19">
         <v>2</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="19">
         <v>30002</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="19">
         <v>0</v>
       </c>
       <c r="I106" s="16">
         <v>0.4</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="19">
         <v>0.5</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="19">
         <v>0.002</v>
       </c>
-      <c r="L106" s="2">
-        <v>0</v>
-      </c>
-      <c r="M106" s="2">
-        <v>0</v>
-      </c>
-      <c r="N106" s="2">
-        <v>0</v>
-      </c>
-      <c r="O106" s="2">
-        <v>0</v>
-      </c>
-      <c r="P106" s="2">
+      <c r="L106" s="19">
+        <v>0</v>
+      </c>
+      <c r="M106" s="19">
+        <v>0</v>
+      </c>
+      <c r="N106" s="19">
+        <v>0</v>
+      </c>
+      <c r="O106" s="19">
+        <v>0</v>
+      </c>
+      <c r="P106" s="19">
         <v>1</v>
       </c>
       <c r="Q106" s="2">
@@ -9682,62 +9691,134 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="19"/>
+    <row r="109" spans="1:24">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="18">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F109" s="12">
+        <v>2</v>
+      </c>
+      <c r="G109" s="14">
+        <v>30003</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I109" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K109" s="12">
+        <v>0.002</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>3</v>
+      </c>
+      <c r="R109" s="2">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <v>3</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0</v>
+      </c>
+      <c r="U109" s="2">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2">
+        <v>3</v>
+      </c>
+      <c r="W109" s="2">
+        <v>0</v>
+      </c>
+      <c r="X109" s="12">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="110" spans="9:9">
-      <c r="I110" s="19"/>
+      <c r="I110" s="21"/>
     </row>
     <row r="111" spans="9:9">
-      <c r="I111" s="19"/>
+      <c r="I111" s="21"/>
     </row>
     <row r="112" spans="9:9">
-      <c r="I112" s="19"/>
+      <c r="I112" s="21"/>
     </row>
     <row r="113" spans="9:9">
-      <c r="I113" s="19"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="9:9">
-      <c r="I114" s="19"/>
+      <c r="I114" s="21"/>
     </row>
     <row r="115" spans="9:9">
-      <c r="I115" s="19"/>
+      <c r="I115" s="21"/>
     </row>
     <row r="116" spans="9:9">
-      <c r="I116" s="19"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="9:9">
-      <c r="I117" s="19"/>
+      <c r="I117" s="21"/>
     </row>
     <row r="118" spans="9:9">
-      <c r="I118" s="19"/>
+      <c r="I118" s="21"/>
     </row>
     <row r="119" spans="9:9">
-      <c r="I119" s="19"/>
+      <c r="I119" s="21"/>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="19"/>
+      <c r="I120" s="21"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="19"/>
+      <c r="I121" s="21"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="19"/>
+      <c r="I122" s="21"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="19"/>
+      <c r="I123" s="21"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="19"/>
+      <c r="I124" s="21"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="19"/>
+      <c r="I125" s="21"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="19"/>
+      <c r="I126" s="21"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="19"/>
+      <c r="I127" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P$1:P$1048576">
@@ -9749,7 +9830,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1761fc7d-cb5b-40af-8a6c-66c072f08a01}</x14:id>
+          <x14:id>{a42c1b30-7ad6-46d4-892e-41058b673805}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9773,7 +9854,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1761fc7d-cb5b-40af-8a6c-66c072f08a01}">
+          <x14:cfRule type="dataBar" id="{a42c1b30-7ad6-46d4-892e-41058b673805}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9802,10 +9883,10 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10283,37 +10364,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -10321,7 +10402,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10359,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -10397,7 +10478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -10435,7 +10516,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -10473,7 +10554,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -10511,7 +10592,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -10549,7 +10630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -10587,7 +10668,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -10625,7 +10706,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -10663,7 +10744,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -10701,7 +10782,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -10739,7 +10820,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -10777,7 +10858,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -10815,7 +10896,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -10853,7 +10934,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -10891,7 +10972,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -10929,7 +11010,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -10967,7 +11048,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11005,7 +11086,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11043,7 +11124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11081,7 +11162,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11119,7 +11200,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11157,7 +11238,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11195,7 +11276,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11247,7 +11328,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20860" windowHeight="32640"/>
+    <workbookView windowWidth="21600" windowHeight="32600"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>_id</t>
   </si>
@@ -483,6 +483,9 @@
     <t>春日节天空王</t>
   </si>
   <si>
+    <t>豪杰</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -533,9 +536,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -607,6 +610,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -614,11 +625,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,19 +640,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,21 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -685,23 +671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,10 +693,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,7 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +788,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +842,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,103 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +953,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,7 +962,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,17 +997,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1001,6 +1008,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,142 +1037,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,13 +1169,13 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,10 +1571,10 @@
   <sheetPr/>
   <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomLeft" activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1580,13 +1583,13 @@
     <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="13" customWidth="1"/>
     <col min="4" max="5" width="4.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.54464285714286" style="12" customWidth="1"/>
     <col min="7" max="7" width="6" style="14" customWidth="1"/>
     <col min="8" max="8" width="6" style="12" customWidth="1"/>
     <col min="9" max="9" width="6" style="15" customWidth="1"/>
     <col min="10" max="15" width="6" style="12" customWidth="1"/>
     <col min="16" max="16" width="9.625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.6071428571429" style="2" customWidth="1"/>
     <col min="18" max="20" width="7" style="12" customWidth="1"/>
     <col min="21" max="23" width="7.375" style="12" customWidth="1"/>
     <col min="24" max="16384" width="9" style="12"/>
@@ -4113,28 +4116,28 @@
         <v>0</v>
       </c>
       <c r="P34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34" s="12">
         <f t="shared" si="0"/>
@@ -4488,28 +4491,28 @@
         <v>0</v>
       </c>
       <c r="P39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="12">
         <f t="shared" si="1"/>
@@ -4638,28 +4641,28 @@
         <v>0</v>
       </c>
       <c r="P41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="W41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="12">
         <f t="shared" si="1"/>
@@ -5313,28 +5316,28 @@
         <v>0</v>
       </c>
       <c r="P50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="12">
         <f t="shared" si="1"/>
@@ -6612,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="X67" s="12">
-        <f t="shared" ref="X67:X109" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
+        <f t="shared" ref="X67:X110" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -9766,8 +9769,80 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="110" spans="9:9">
-      <c r="I110" s="21"/>
+    <row r="110" spans="1:24">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="18">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="12">
+        <v>1</v>
+      </c>
+      <c r="G110" s="14">
+        <v>30002</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="I110" s="21">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="K110" s="12">
+        <v>0</v>
+      </c>
+      <c r="L110" s="12">
+        <v>0</v>
+      </c>
+      <c r="M110" s="12">
+        <v>0</v>
+      </c>
+      <c r="N110" s="12">
+        <v>0.0025</v>
+      </c>
+      <c r="O110" s="12">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>1</v>
+      </c>
+      <c r="R110" s="12">
+        <v>0</v>
+      </c>
+      <c r="S110" s="12">
+        <v>0</v>
+      </c>
+      <c r="T110" s="12">
+        <v>0</v>
+      </c>
+      <c r="U110" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="V110" s="12">
+        <v>0</v>
+      </c>
+      <c r="W110" s="12">
+        <v>0</v>
+      </c>
+      <c r="X110" s="12">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" s="21"/>
@@ -9830,7 +9905,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a42c1b30-7ad6-46d4-892e-41058b673805}</x14:id>
+          <x14:id>{2b0dff87-4458-4c9c-b979-21d128d358dd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9854,7 +9929,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a42c1b30-7ad6-46d4-892e-41058b673805}">
+          <x14:cfRule type="dataBar" id="{2b0dff87-4458-4c9c-b979-21d128d358dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9881,12 +9956,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10364,37 +10439,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -10402,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10440,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -10478,7 +10553,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -10516,7 +10591,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -10554,7 +10629,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -10592,7 +10667,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -10630,7 +10705,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -10668,7 +10743,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -10706,7 +10781,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -10744,7 +10819,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -10782,7 +10857,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -10820,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -10858,7 +10933,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -10896,7 +10971,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -10934,7 +11009,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -10972,7 +11047,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -11010,7 +11085,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -11048,7 +11123,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11086,7 +11161,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11124,7 +11199,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11162,7 +11237,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11200,7 +11275,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11238,7 +11313,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11276,7 +11351,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11328,7 +11403,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>_id</t>
   </si>
@@ -486,6 +486,12 @@
     <t>豪杰</t>
   </si>
   <si>
+    <t>青焰-吉他手</t>
+  </si>
+  <si>
+    <t>阿修罗独角仙-贝斯手</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -537,9 +543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -596,13 +602,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -610,7 +609,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -626,7 +625,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,13 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -655,9 +661,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,10 +699,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,9 +715,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,26 +730,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,13 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,31 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +812,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +848,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,97 +920,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +989,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1022,145 +1043,130 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,19 +1175,19 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1189,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,16 +1228,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,9 +1249,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1571,35 +1583,46 @@
   <sheetPr/>
   <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V50" sqref="V50"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="W113" sqref="W113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="4.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.54464285714286" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6" style="15" customWidth="1"/>
-    <col min="10" max="15" width="6" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="11.6071428571429" style="2" customWidth="1"/>
-    <col min="18" max="20" width="7" style="12" customWidth="1"/>
-    <col min="21" max="23" width="7.375" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
+    <col min="2" max="2" width="19.9285714285714" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.21428571428571" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.39285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.21428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.07142857142857" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.57142857142857" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.57142857142857" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.78571428571429" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6428571428571" style="14" customWidth="1"/>
+    <col min="14" max="14" width="11" style="14" customWidth="1"/>
+    <col min="15" max="15" width="13.7142857142857" style="14" customWidth="1"/>
+    <col min="16" max="16" width="9.57142857142857" style="14" customWidth="1"/>
+    <col min="17" max="17" width="12.2142857142857" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1428571428571" style="14" customWidth="1"/>
+    <col min="19" max="20" width="12.7142857142857" style="14" customWidth="1"/>
+    <col min="21" max="21" width="7.92857142857143" style="14" customWidth="1"/>
+    <col min="22" max="23" width="8.42857142857143" style="14" customWidth="1"/>
+    <col min="24" max="24" width="5.57142857142857" style="14" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -1665,7 +1688,7 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1673,7 +1696,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="16">
@@ -1691,10 +1714,10 @@
       <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="18">
         <v>0.4</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="18">
         <v>0.8</v>
       </c>
       <c r="J2" s="16">
@@ -1739,7 +1762,7 @@
       <c r="W2" s="2">
         <v>1</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="14">
         <f>SUM(R2:T2)/2+SUM(U2:W2)</f>
         <v>4.5</v>
       </c>
@@ -1748,7 +1771,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="16">
@@ -1766,10 +1789,10 @@
       <c r="G3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="18">
         <v>1.1</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="18">
         <v>0</v>
       </c>
       <c r="J3" s="16">
@@ -1791,30 +1814,30 @@
         <v>0.003</v>
       </c>
       <c r="P3" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
         <f t="shared" ref="X3:X34" si="0">SUM(R3:T3)/2+SUM(U3:W3)</f>
         <v>4.5</v>
       </c>
@@ -1823,7 +1846,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="16">
@@ -1841,10 +1864,10 @@
       <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
         <v>0</v>
       </c>
       <c r="J4" s="16">
@@ -1889,7 +1912,7 @@
       <c r="W4" s="2">
         <v>1</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -1898,7 +1921,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="16">
@@ -1916,10 +1939,10 @@
       <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
         <v>0</v>
       </c>
       <c r="J5" s="16">
@@ -1964,7 +1987,7 @@
       <c r="W5" s="2">
         <v>1</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -1973,7 +1996,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="16">
@@ -1991,10 +2014,10 @@
       <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
         <v>0</v>
       </c>
       <c r="J6" s="16">
@@ -2039,7 +2062,7 @@
       <c r="W6" s="2">
         <v>1</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2048,7 +2071,7 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="16">
@@ -2066,10 +2089,10 @@
       <c r="G7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
         <v>0</v>
       </c>
       <c r="J7" s="16">
@@ -2114,7 +2137,7 @@
       <c r="W7" s="2">
         <v>1</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2123,7 +2146,7 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="16">
@@ -2141,10 +2164,10 @@
       <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
         <v>0</v>
       </c>
       <c r="J8" s="16">
@@ -2189,7 +2212,7 @@
       <c r="W8" s="2">
         <v>1</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2198,7 +2221,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="16">
@@ -2216,10 +2239,10 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="18">
         <v>0.7</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <v>0.4</v>
       </c>
       <c r="J9" s="16">
@@ -2264,7 +2287,7 @@
       <c r="W9" s="2">
         <v>3</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2273,7 +2296,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="16">
@@ -2291,10 +2314,10 @@
       <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
         <v>0</v>
       </c>
       <c r="J10" s="16">
@@ -2339,7 +2362,7 @@
       <c r="W10" s="2">
         <v>1</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2348,7 +2371,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="16">
@@ -2366,10 +2389,10 @@
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="18">
         <v>1.2</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="18">
         <v>0.3</v>
       </c>
       <c r="J11" s="16">
@@ -2414,7 +2437,7 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2423,7 +2446,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="16">
@@ -2441,10 +2464,10 @@
       <c r="G12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>0.5</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="18">
         <v>0.5</v>
       </c>
       <c r="J12" s="16">
@@ -2489,7 +2512,7 @@
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2498,7 +2521,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="16">
@@ -2516,10 +2539,10 @@
       <c r="G13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="17">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
         <v>0.4</v>
       </c>
       <c r="J13" s="16">
@@ -2564,7 +2587,7 @@
       <c r="W13" s="2">
         <v>1</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2573,7 +2596,7 @@
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="16">
@@ -2591,10 +2614,10 @@
       <c r="G14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <v>1.1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>0</v>
       </c>
       <c r="J14" s="16">
@@ -2639,7 +2662,7 @@
       <c r="W14" s="2">
         <v>1.5</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2648,7 +2671,7 @@
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="16">
@@ -2666,10 +2689,10 @@
       <c r="G15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
         <v>0</v>
       </c>
       <c r="J15" s="16">
@@ -2714,7 +2737,7 @@
       <c r="W15" s="2">
         <v>1</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2723,7 +2746,7 @@
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="16">
@@ -2741,10 +2764,10 @@
       <c r="G16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
         <v>0</v>
       </c>
       <c r="J16" s="16">
@@ -2789,7 +2812,7 @@
       <c r="W16" s="2">
         <v>1</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2798,7 +2821,7 @@
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="16">
@@ -2816,10 +2839,10 @@
       <c r="G17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
         <v>0</v>
       </c>
       <c r="J17" s="16">
@@ -2864,7 +2887,7 @@
       <c r="W17" s="2">
         <v>1</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2873,7 +2896,7 @@
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="16">
@@ -2891,10 +2914,10 @@
       <c r="G18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
         <v>0</v>
       </c>
       <c r="J18" s="16">
@@ -2939,7 +2962,7 @@
       <c r="W18" s="2">
         <v>1</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2948,7 +2971,7 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="16">
@@ -2966,10 +2989,10 @@
       <c r="G19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="18">
         <v>0.6</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <v>0</v>
       </c>
       <c r="J19" s="16">
@@ -3014,7 +3037,7 @@
       <c r="W19" s="2">
         <v>1</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3023,7 +3046,7 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="16">
@@ -3041,10 +3064,10 @@
       <c r="G20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>0.7</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>0.5</v>
       </c>
       <c r="J20" s="16">
@@ -3089,7 +3112,7 @@
       <c r="W20" s="2">
         <v>1</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3098,7 +3121,7 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="16">
@@ -3116,10 +3139,10 @@
       <c r="G21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="18">
         <v>0.7</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="18">
         <v>0.6</v>
       </c>
       <c r="J21" s="16">
@@ -3164,7 +3187,7 @@
       <c r="W21" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3173,7 +3196,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="16">
@@ -3191,10 +3214,10 @@
       <c r="G22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="18">
         <v>0.5</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="18">
         <v>0.7</v>
       </c>
       <c r="J22" s="16">
@@ -3239,7 +3262,7 @@
       <c r="W22" s="2">
         <v>0</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3248,7 +3271,7 @@
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="16">
@@ -3266,10 +3289,10 @@
       <c r="G23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
         <v>0</v>
       </c>
       <c r="J23" s="16">
@@ -3314,7 +3337,7 @@
       <c r="W23" s="2">
         <v>1</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3323,7 +3346,7 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="16">
@@ -3341,10 +3364,10 @@
       <c r="G24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="18">
         <v>0.7</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="18">
         <v>0.5</v>
       </c>
       <c r="J24" s="16">
@@ -3389,7 +3412,7 @@
       <c r="W24" s="2">
         <v>1</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3398,7 +3421,7 @@
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="16">
@@ -3416,10 +3439,10 @@
       <c r="G25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="18">
         <v>0.7</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="18">
         <v>0.5</v>
       </c>
       <c r="J25" s="16">
@@ -3464,7 +3487,7 @@
       <c r="W25" s="2">
         <v>1</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3473,7 +3496,7 @@
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="16">
@@ -3491,10 +3514,10 @@
       <c r="G26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="18">
         <v>0.9</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="18">
         <v>0.4</v>
       </c>
       <c r="J26" s="16">
@@ -3539,7 +3562,7 @@
       <c r="W26" s="2">
         <v>1</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3548,7 +3571,7 @@
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="16">
@@ -3566,10 +3589,10 @@
       <c r="G27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="18">
         <v>0.9</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="18">
         <v>0.5</v>
       </c>
       <c r="J27" s="16">
@@ -3614,7 +3637,7 @@
       <c r="W27" s="2">
         <v>1</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3623,7 +3646,7 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="16">
@@ -3641,10 +3664,10 @@
       <c r="G28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="18">
         <v>0.2</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="18">
         <v>0.6</v>
       </c>
       <c r="J28" s="16">
@@ -3689,7 +3712,7 @@
       <c r="W28" s="2">
         <v>1.5</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3698,7 +3721,7 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="16">
@@ -3716,10 +3739,10 @@
       <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
         <v>0</v>
       </c>
       <c r="J29" s="16">
@@ -3764,7 +3787,7 @@
       <c r="W29" s="2">
         <v>1</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3773,7 +3796,7 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="16">
@@ -3791,10 +3814,10 @@
       <c r="G30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18">
         <v>0</v>
       </c>
       <c r="J30" s="16">
@@ -3839,7 +3862,7 @@
       <c r="W30" s="2">
         <v>1</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3848,7 +3871,7 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="16">
@@ -3866,10 +3889,10 @@
       <c r="G31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
         <v>0</v>
       </c>
       <c r="J31" s="16">
@@ -3914,7 +3937,7 @@
       <c r="W31" s="2">
         <v>1</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3923,7 +3946,7 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="16">
@@ -3941,10 +3964,10 @@
       <c r="G32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="18">
         <v>0.9</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="18">
         <v>0.45</v>
       </c>
       <c r="J32" s="16">
@@ -3968,7 +3991,7 @@
       <c r="P32" s="16">
         <v>1</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="19">
         <v>-4</v>
       </c>
       <c r="R32" s="2">
@@ -3989,7 +4012,7 @@
       <c r="W32" s="2">
         <v>0</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3998,7 +4021,7 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="16">
@@ -4016,10 +4039,10 @@
       <c r="G33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="18">
         <v>1.2</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="18">
         <v>0.4</v>
       </c>
       <c r="J33" s="16">
@@ -4064,7 +4087,7 @@
       <c r="W33" s="2">
         <v>1</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -4073,7 +4096,7 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16">
@@ -4091,10 +4114,10 @@
       <c r="G34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="18">
         <v>0.7</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="18">
         <v>0.5</v>
       </c>
       <c r="J34" s="16">
@@ -4139,7 +4162,7 @@
       <c r="W34" s="2">
         <v>3</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="14">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -4148,7 +4171,7 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="16">
@@ -4166,10 +4189,10 @@
       <c r="G35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
         <v>0.9</v>
       </c>
       <c r="J35" s="16">
@@ -4214,7 +4237,7 @@
       <c r="W35" s="2">
         <v>1</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="14">
         <f t="shared" ref="X35:X66" si="1">SUM(R35:T35)/2+SUM(U35:W35)</f>
         <v>4.5</v>
       </c>
@@ -4223,7 +4246,7 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="16">
@@ -4241,10 +4264,10 @@
       <c r="G36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="18">
         <v>0.9</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="18">
         <v>0.5</v>
       </c>
       <c r="J36" s="16">
@@ -4289,7 +4312,7 @@
       <c r="W36" s="2">
         <v>1</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4298,7 +4321,7 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="16">
@@ -4316,10 +4339,10 @@
       <c r="G37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="18">
         <v>0.7</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="18">
         <v>0.7</v>
       </c>
       <c r="J37" s="16">
@@ -4364,7 +4387,7 @@
       <c r="W37" s="2">
         <v>0</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4373,7 +4396,7 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="16">
@@ -4391,10 +4414,10 @@
       <c r="G38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18">
         <v>0</v>
       </c>
       <c r="J38" s="16">
@@ -4439,7 +4462,7 @@
       <c r="W38" s="2">
         <v>1</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4448,7 +4471,7 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="16">
@@ -4466,10 +4489,10 @@
       <c r="G39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="18">
         <v>0.6</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="18">
         <v>0.4</v>
       </c>
       <c r="J39" s="16">
@@ -4514,7 +4537,7 @@
       <c r="W39" s="2">
         <v>0</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4523,7 +4546,7 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C40" s="16">
@@ -4541,10 +4564,10 @@
       <c r="G40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="18">
         <v>1.2</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="18">
         <v>0.2</v>
       </c>
       <c r="J40" s="16">
@@ -4589,7 +4612,7 @@
       <c r="W40" s="2">
         <v>1</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4598,7 +4621,7 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="16">
@@ -4616,10 +4639,10 @@
       <c r="G41" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="18">
         <v>0.6</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="18">
         <v>0.6</v>
       </c>
       <c r="J41" s="16">
@@ -4664,7 +4687,7 @@
       <c r="W41" s="2">
         <v>0</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4673,7 +4696,7 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="16">
@@ -4691,10 +4714,10 @@
       <c r="G42" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="18">
         <v>0.6</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="18">
         <v>0</v>
       </c>
       <c r="J42" s="16">
@@ -4739,7 +4762,7 @@
       <c r="W42" s="2">
         <v>1</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4748,7 +4771,7 @@
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="16">
@@ -4766,10 +4789,10 @@
       <c r="G43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="18">
         <v>0.5</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="18">
         <v>0.8</v>
       </c>
       <c r="J43" s="16">
@@ -4814,7 +4837,7 @@
       <c r="W43" s="2">
         <v>0</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4823,7 +4846,7 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="16">
@@ -4841,10 +4864,10 @@
       <c r="G44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="18">
         <v>0.3</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="18">
         <v>0.6</v>
       </c>
       <c r="J44" s="16">
@@ -4889,7 +4912,7 @@
       <c r="W44" s="2">
         <v>0</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4898,7 +4921,7 @@
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="16">
@@ -4916,10 +4939,10 @@
       <c r="G45" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="18">
         <v>0.7</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="18">
         <v>0.5</v>
       </c>
       <c r="J45" s="16">
@@ -4941,30 +4964,30 @@
         <v>0</v>
       </c>
       <c r="P45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S45" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V45" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W45" s="2">
-        <v>1</v>
-      </c>
-      <c r="X45" s="12">
+        <v>0</v>
+      </c>
+      <c r="X45" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -4973,7 +4996,7 @@
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="16">
@@ -4991,10 +5014,10 @@
       <c r="G46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="18">
         <v>0.7</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="18">
         <v>0.5</v>
       </c>
       <c r="J46" s="16">
@@ -5039,7 +5062,7 @@
       <c r="W46" s="2">
         <v>3</v>
       </c>
-      <c r="X46" s="12">
+      <c r="X46" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5048,7 +5071,7 @@
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="16">
@@ -5066,10 +5089,10 @@
       <c r="G47" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="18">
         <v>0.4</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="18">
         <v>0.6</v>
       </c>
       <c r="J47" s="16">
@@ -5091,30 +5114,30 @@
         <v>0</v>
       </c>
       <c r="P47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T47" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U47" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V47" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W47" s="2">
-        <v>1</v>
-      </c>
-      <c r="X47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5123,7 +5146,7 @@
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="16">
@@ -5141,10 +5164,10 @@
       <c r="G48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="17">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="H48" s="18">
+        <v>0</v>
+      </c>
+      <c r="I48" s="18">
         <v>0</v>
       </c>
       <c r="J48" s="16">
@@ -5189,7 +5212,7 @@
       <c r="W48" s="2">
         <v>1</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5198,7 +5221,7 @@
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C49" s="16">
@@ -5216,10 +5239,10 @@
       <c r="G49" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="17">
-        <v>0</v>
-      </c>
-      <c r="I49" s="17">
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
         <v>0</v>
       </c>
       <c r="J49" s="16">
@@ -5264,7 +5287,7 @@
       <c r="W49" s="2">
         <v>1</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5273,7 +5296,7 @@
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="16">
@@ -5291,10 +5314,10 @@
       <c r="G50" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="18">
         <v>0.4</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="18">
         <v>0.7</v>
       </c>
       <c r="J50" s="16">
@@ -5339,7 +5362,7 @@
       <c r="W50" s="2">
         <v>0</v>
       </c>
-      <c r="X50" s="12">
+      <c r="X50" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5348,7 +5371,7 @@
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="16">
@@ -5366,10 +5389,10 @@
       <c r="G51" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
         <v>0</v>
       </c>
       <c r="J51" s="16">
@@ -5414,7 +5437,7 @@
       <c r="W51" s="2">
         <v>1</v>
       </c>
-      <c r="X51" s="12">
+      <c r="X51" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5423,7 +5446,7 @@
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="16">
@@ -5441,10 +5464,10 @@
       <c r="G52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="18">
         <v>0.7</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="18">
         <v>0.4</v>
       </c>
       <c r="J52" s="16">
@@ -5489,7 +5512,7 @@
       <c r="W52" s="2">
         <v>1</v>
       </c>
-      <c r="X52" s="12">
+      <c r="X52" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5498,7 +5521,7 @@
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C53" s="16">
@@ -5516,10 +5539,10 @@
       <c r="G53" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="18">
         <v>0</v>
       </c>
       <c r="J53" s="16">
@@ -5564,7 +5587,7 @@
       <c r="W53" s="2">
         <v>1</v>
       </c>
-      <c r="X53" s="12">
+      <c r="X53" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5573,7 +5596,7 @@
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="16">
@@ -5591,10 +5614,10 @@
       <c r="G54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="17">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17">
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="18">
         <v>0</v>
       </c>
       <c r="J54" s="16">
@@ -5639,7 +5662,7 @@
       <c r="W54" s="2">
         <v>1</v>
       </c>
-      <c r="X54" s="12">
+      <c r="X54" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5648,7 +5671,7 @@
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="16">
@@ -5666,10 +5689,10 @@
       <c r="G55" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="17">
-        <v>0</v>
-      </c>
-      <c r="I55" s="17">
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18">
         <v>0</v>
       </c>
       <c r="J55" s="16">
@@ -5714,7 +5737,7 @@
       <c r="W55" s="2">
         <v>1</v>
       </c>
-      <c r="X55" s="12">
+      <c r="X55" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5723,7 +5746,7 @@
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="16">
@@ -5741,10 +5764,10 @@
       <c r="G56" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="17">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18">
         <v>0</v>
       </c>
       <c r="J56" s="16">
@@ -5789,7 +5812,7 @@
       <c r="W56" s="2">
         <v>1</v>
       </c>
-      <c r="X56" s="12">
+      <c r="X56" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5798,7 +5821,7 @@
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="16">
@@ -5816,10 +5839,10 @@
       <c r="G57" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
         <v>0</v>
       </c>
       <c r="J57" s="16">
@@ -5864,7 +5887,7 @@
       <c r="W57" s="2">
         <v>1</v>
       </c>
-      <c r="X57" s="12">
+      <c r="X57" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5873,7 +5896,7 @@
       <c r="A58" s="16">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C58" s="16">
@@ -5891,10 +5914,10 @@
       <c r="G58" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="17">
-        <v>0</v>
-      </c>
-      <c r="I58" s="17">
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18">
         <v>0</v>
       </c>
       <c r="J58" s="16">
@@ -5939,7 +5962,7 @@
       <c r="W58" s="2">
         <v>1</v>
       </c>
-      <c r="X58" s="12">
+      <c r="X58" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -5948,7 +5971,7 @@
       <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="16">
@@ -5966,10 +5989,10 @@
       <c r="G59" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
+      <c r="I59" s="18">
         <v>0</v>
       </c>
       <c r="J59" s="16">
@@ -6014,7 +6037,7 @@
       <c r="W59" s="2">
         <v>1</v>
       </c>
-      <c r="X59" s="12">
+      <c r="X59" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6023,7 +6046,7 @@
       <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="16">
@@ -6041,10 +6064,10 @@
       <c r="G60" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="17">
-        <v>0</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="H60" s="18">
+        <v>0</v>
+      </c>
+      <c r="I60" s="18">
         <v>0</v>
       </c>
       <c r="J60" s="16">
@@ -6089,7 +6112,7 @@
       <c r="W60" s="2">
         <v>1</v>
       </c>
-      <c r="X60" s="12">
+      <c r="X60" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6098,7 +6121,7 @@
       <c r="A61" s="16">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="16">
@@ -6116,10 +6139,10 @@
       <c r="G61" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="18">
         <v>0.5</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="18">
         <v>0.5</v>
       </c>
       <c r="J61" s="16">
@@ -6164,7 +6187,7 @@
       <c r="W61" s="2">
         <v>1</v>
       </c>
-      <c r="X61" s="12">
+      <c r="X61" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6173,7 +6196,7 @@
       <c r="A62" s="16">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C62" s="16">
@@ -6191,10 +6214,10 @@
       <c r="G62" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="18">
         <v>1.2</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="18">
         <v>0.3</v>
       </c>
       <c r="J62" s="16">
@@ -6239,7 +6262,7 @@
       <c r="W62" s="2">
         <v>0</v>
       </c>
-      <c r="X62" s="12">
+      <c r="X62" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6248,7 +6271,7 @@
       <c r="A63" s="16">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="16">
@@ -6266,10 +6289,10 @@
       <c r="G63" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="18">
         <v>0.3</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="18">
         <v>0.8</v>
       </c>
       <c r="J63" s="16">
@@ -6314,7 +6337,7 @@
       <c r="W63" s="2">
         <v>1</v>
       </c>
-      <c r="X63" s="12">
+      <c r="X63" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6323,7 +6346,7 @@
       <c r="A64" s="16">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="16">
@@ -6341,10 +6364,10 @@
       <c r="G64" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="18">
         <v>0.8</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="18">
         <v>0.5</v>
       </c>
       <c r="J64" s="16">
@@ -6389,7 +6412,7 @@
       <c r="W64" s="2">
         <v>0</v>
       </c>
-      <c r="X64" s="12">
+      <c r="X64" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6398,7 +6421,7 @@
       <c r="A65" s="16">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="16">
@@ -6416,10 +6439,10 @@
       <c r="G65" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="17">
-        <v>0</v>
-      </c>
-      <c r="I65" s="17">
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18">
         <v>0</v>
       </c>
       <c r="J65" s="16">
@@ -6464,7 +6487,7 @@
       <c r="W65" s="2">
         <v>1</v>
       </c>
-      <c r="X65" s="12">
+      <c r="X65" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6473,7 +6496,7 @@
       <c r="A66" s="16">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="16">
@@ -6491,10 +6514,10 @@
       <c r="G66" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="17">
-        <v>0</v>
-      </c>
-      <c r="I66" s="17">
+      <c r="H66" s="18">
+        <v>0</v>
+      </c>
+      <c r="I66" s="18">
         <v>0</v>
       </c>
       <c r="J66" s="16">
@@ -6539,7 +6562,7 @@
       <c r="W66" s="2">
         <v>1</v>
       </c>
-      <c r="X66" s="12">
+      <c r="X66" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -6548,7 +6571,7 @@
       <c r="A67" s="16">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C67" s="16">
@@ -6566,10 +6589,10 @@
       <c r="G67" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="17">
-        <v>0</v>
-      </c>
-      <c r="I67" s="17">
+      <c r="H67" s="18">
+        <v>0</v>
+      </c>
+      <c r="I67" s="18">
         <v>0</v>
       </c>
       <c r="J67" s="16">
@@ -6614,8 +6637,8 @@
       <c r="W67" s="2">
         <v>1</v>
       </c>
-      <c r="X67" s="12">
-        <f t="shared" ref="X67:X110" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
+      <c r="X67" s="14">
+        <f t="shared" ref="X67:X112" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -6623,7 +6646,7 @@
       <c r="A68" s="16">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="16">
@@ -6641,10 +6664,10 @@
       <c r="G68" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="17">
-        <v>0</v>
-      </c>
-      <c r="I68" s="17">
+      <c r="H68" s="18">
+        <v>0</v>
+      </c>
+      <c r="I68" s="18">
         <v>0</v>
       </c>
       <c r="J68" s="16">
@@ -6689,7 +6712,7 @@
       <c r="W68" s="2">
         <v>1</v>
       </c>
-      <c r="X68" s="12">
+      <c r="X68" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -6698,7 +6721,7 @@
       <c r="A69" s="16">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="16">
@@ -6719,7 +6742,7 @@
       <c r="H69" s="16">
         <v>0</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="18">
         <v>0</v>
       </c>
       <c r="J69" s="16">
@@ -6764,7 +6787,7 @@
       <c r="W69" s="2">
         <v>1</v>
       </c>
-      <c r="X69" s="12">
+      <c r="X69" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -6773,7 +6796,7 @@
       <c r="A70" s="16">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="16">
@@ -6794,7 +6817,7 @@
       <c r="H70" s="16">
         <v>0</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="18">
         <v>0</v>
       </c>
       <c r="J70" s="16">
@@ -6839,7 +6862,7 @@
       <c r="W70" s="2">
         <v>1</v>
       </c>
-      <c r="X70" s="12">
+      <c r="X70" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -6848,7 +6871,7 @@
       <c r="A71" s="16">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="16">
@@ -6869,7 +6892,7 @@
       <c r="H71" s="16">
         <v>0</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="18">
         <v>0</v>
       </c>
       <c r="J71" s="16">
@@ -6914,7 +6937,7 @@
       <c r="W71" s="2">
         <v>1</v>
       </c>
-      <c r="X71" s="12">
+      <c r="X71" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -6923,7 +6946,7 @@
       <c r="A72" s="16">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="16">
@@ -6944,7 +6967,7 @@
       <c r="H72" s="16">
         <v>0</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="18">
         <v>0</v>
       </c>
       <c r="J72" s="16">
@@ -6989,7 +7012,7 @@
       <c r="W72" s="2">
         <v>1</v>
       </c>
-      <c r="X72" s="12">
+      <c r="X72" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -6998,7 +7021,7 @@
       <c r="A73" s="16">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="16">
@@ -7019,7 +7042,7 @@
       <c r="H73" s="16">
         <v>0</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="18">
         <v>0</v>
       </c>
       <c r="J73" s="16">
@@ -7064,7 +7087,7 @@
       <c r="W73" s="2">
         <v>1</v>
       </c>
-      <c r="X73" s="12">
+      <c r="X73" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7073,7 +7096,7 @@
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="16">
@@ -7094,7 +7117,7 @@
       <c r="H74" s="16">
         <v>0</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="18">
         <v>0</v>
       </c>
       <c r="J74" s="16">
@@ -7139,7 +7162,7 @@
       <c r="W74" s="2">
         <v>1</v>
       </c>
-      <c r="X74" s="12">
+      <c r="X74" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7148,7 +7171,7 @@
       <c r="A75" s="16">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="16">
@@ -7169,7 +7192,7 @@
       <c r="H75" s="16">
         <v>0</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="18">
         <v>0</v>
       </c>
       <c r="J75" s="16">
@@ -7214,7 +7237,7 @@
       <c r="W75" s="2">
         <v>1</v>
       </c>
-      <c r="X75" s="12">
+      <c r="X75" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7223,7 +7246,7 @@
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="17" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="16">
@@ -7244,7 +7267,7 @@
       <c r="H76" s="16">
         <v>0</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="18">
         <v>0</v>
       </c>
       <c r="J76" s="16">
@@ -7289,7 +7312,7 @@
       <c r="W76" s="2">
         <v>1</v>
       </c>
-      <c r="X76" s="12">
+      <c r="X76" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7298,7 +7321,7 @@
       <c r="A77" s="16">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C77" s="16">
@@ -7319,7 +7342,7 @@
       <c r="H77" s="16">
         <v>0</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="18">
         <v>0</v>
       </c>
       <c r="J77" s="16">
@@ -7364,7 +7387,7 @@
       <c r="W77" s="2">
         <v>1</v>
       </c>
-      <c r="X77" s="12">
+      <c r="X77" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7373,7 +7396,7 @@
       <c r="A78" s="16">
         <v>77</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="16">
@@ -7394,7 +7417,7 @@
       <c r="H78" s="16">
         <v>0</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="18">
         <v>0</v>
       </c>
       <c r="J78" s="16">
@@ -7439,7 +7462,7 @@
       <c r="W78" s="2">
         <v>1</v>
       </c>
-      <c r="X78" s="12">
+      <c r="X78" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7448,7 +7471,7 @@
       <c r="A79" s="16">
         <v>78</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="16">
@@ -7469,7 +7492,7 @@
       <c r="H79" s="16">
         <v>0</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="18">
         <v>0</v>
       </c>
       <c r="J79" s="16">
@@ -7514,7 +7537,7 @@
       <c r="W79" s="2">
         <v>1</v>
       </c>
-      <c r="X79" s="12">
+      <c r="X79" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7523,7 +7546,7 @@
       <c r="A80" s="16">
         <v>79</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="16">
@@ -7544,7 +7567,7 @@
       <c r="H80" s="16">
         <v>0</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="18">
         <v>0</v>
       </c>
       <c r="J80" s="16">
@@ -7589,7 +7612,7 @@
       <c r="W80" s="2">
         <v>1</v>
       </c>
-      <c r="X80" s="12">
+      <c r="X80" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7598,7 +7621,7 @@
       <c r="A81" s="16">
         <v>80</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="17" t="s">
         <v>105</v>
       </c>
       <c r="C81" s="16">
@@ -7619,7 +7642,7 @@
       <c r="H81" s="16">
         <v>0</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="18">
         <v>0</v>
       </c>
       <c r="J81" s="16">
@@ -7664,7 +7687,7 @@
       <c r="W81" s="2">
         <v>1</v>
       </c>
-      <c r="X81" s="12">
+      <c r="X81" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7673,7 +7696,7 @@
       <c r="A82" s="16">
         <v>81</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="16">
@@ -7694,7 +7717,7 @@
       <c r="H82" s="16">
         <v>0</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="18">
         <v>0</v>
       </c>
       <c r="J82" s="16">
@@ -7739,7 +7762,7 @@
       <c r="W82" s="2">
         <v>1</v>
       </c>
-      <c r="X82" s="12">
+      <c r="X82" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7748,7 +7771,7 @@
       <c r="A83" s="16">
         <v>82</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C83" s="16">
@@ -7769,7 +7792,7 @@
       <c r="H83" s="16">
         <v>0</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="18">
         <v>0</v>
       </c>
       <c r="J83" s="16">
@@ -7814,7 +7837,7 @@
       <c r="W83" s="2">
         <v>1</v>
       </c>
-      <c r="X83" s="12">
+      <c r="X83" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7823,7 +7846,7 @@
       <c r="A84" s="16">
         <v>10007</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="16">
@@ -7844,7 +7867,7 @@
       <c r="H84" s="16">
         <v>0</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="18">
         <v>0</v>
       </c>
       <c r="J84" s="16">
@@ -7889,7 +7912,7 @@
       <c r="W84" s="2">
         <v>1</v>
       </c>
-      <c r="X84" s="12">
+      <c r="X84" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7898,7 +7921,7 @@
       <c r="A85" s="16">
         <v>10008</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="16">
@@ -7919,7 +7942,7 @@
       <c r="H85" s="16">
         <v>0</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="18">
         <v>0</v>
       </c>
       <c r="J85" s="16">
@@ -7964,7 +7987,7 @@
       <c r="W85" s="2">
         <v>1</v>
       </c>
-      <c r="X85" s="12">
+      <c r="X85" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -7973,7 +7996,7 @@
       <c r="A86" s="16">
         <v>83</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="16">
@@ -7994,7 +8017,7 @@
       <c r="H86" s="16">
         <v>0.6</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="18">
         <v>0.7</v>
       </c>
       <c r="J86" s="16">
@@ -8039,7 +8062,7 @@
       <c r="W86" s="2">
         <v>1</v>
       </c>
-      <c r="X86" s="12">
+      <c r="X86" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8048,7 +8071,7 @@
       <c r="A87" s="16">
         <v>84</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C87" s="16">
@@ -8069,7 +8092,7 @@
       <c r="H87" s="16">
         <v>0.3</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="18">
         <v>0.8</v>
       </c>
       <c r="J87" s="16">
@@ -8114,7 +8137,7 @@
       <c r="W87" s="2">
         <v>2.25</v>
       </c>
-      <c r="X87" s="12">
+      <c r="X87" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8123,7 +8146,7 @@
       <c r="A88" s="16">
         <v>85</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C88" s="16">
@@ -8144,7 +8167,7 @@
       <c r="H88" s="16">
         <v>0.7</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="18">
         <v>0.5</v>
       </c>
       <c r="J88" s="16">
@@ -8189,7 +8212,7 @@
       <c r="W88" s="2">
         <v>1</v>
       </c>
-      <c r="X88" s="12">
+      <c r="X88" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8198,7 +8221,7 @@
       <c r="A89" s="16">
         <v>86</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C89" s="16">
@@ -8219,7 +8242,7 @@
       <c r="H89" s="16">
         <v>0.4</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="18">
         <v>0.6</v>
       </c>
       <c r="J89" s="16">
@@ -8264,7 +8287,7 @@
       <c r="W89" s="2">
         <v>1</v>
       </c>
-      <c r="X89" s="12">
+      <c r="X89" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8273,7 +8296,7 @@
       <c r="A90" s="16">
         <v>87</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="16">
@@ -8294,7 +8317,7 @@
       <c r="H90" s="16">
         <v>0.7</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="18">
         <v>0.4</v>
       </c>
       <c r="J90" s="16">
@@ -8339,7 +8362,7 @@
       <c r="W90" s="2">
         <v>1</v>
       </c>
-      <c r="X90" s="12">
+      <c r="X90" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8348,7 +8371,7 @@
       <c r="A91" s="16">
         <v>88</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C91" s="16">
@@ -8369,7 +8392,7 @@
       <c r="H91" s="16">
         <v>1</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="18">
         <v>0.4</v>
       </c>
       <c r="J91" s="16">
@@ -8414,7 +8437,7 @@
       <c r="W91" s="2">
         <v>1</v>
       </c>
-      <c r="X91" s="12">
+      <c r="X91" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8423,7 +8446,7 @@
       <c r="A92" s="16">
         <v>89</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C92" s="16">
@@ -8444,7 +8467,7 @@
       <c r="H92" s="16">
         <v>1.2</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="18">
         <v>0.3</v>
       </c>
       <c r="J92" s="16">
@@ -8489,7 +8512,7 @@
       <c r="W92" s="2">
         <v>1</v>
       </c>
-      <c r="X92" s="12">
+      <c r="X92" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8498,7 +8521,7 @@
       <c r="A93" s="16">
         <v>90</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="16">
@@ -8519,7 +8542,7 @@
       <c r="H93" s="16">
         <v>0.5</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="18">
         <v>0.6</v>
       </c>
       <c r="J93" s="16">
@@ -8564,7 +8587,7 @@
       <c r="W93" s="2">
         <v>1</v>
       </c>
-      <c r="X93" s="12">
+      <c r="X93" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8573,7 +8596,7 @@
       <c r="A94" s="16">
         <v>93</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C94" s="16">
@@ -8594,7 +8617,7 @@
       <c r="H94" s="16">
         <v>0.7</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="18">
         <v>0.9</v>
       </c>
       <c r="J94" s="16">
@@ -8639,7 +8662,7 @@
       <c r="W94" s="2">
         <v>1</v>
       </c>
-      <c r="X94" s="12">
+      <c r="X94" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8648,7 +8671,7 @@
       <c r="A95" s="16">
         <v>92</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C95" s="16">
@@ -8669,7 +8692,7 @@
       <c r="H95" s="16">
         <v>1</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="18">
         <v>0.3</v>
       </c>
       <c r="J95" s="16">
@@ -8691,30 +8714,30 @@
         <v>0.0025</v>
       </c>
       <c r="P95" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" s="2">
-        <v>1</v>
-      </c>
-      <c r="X95" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="X95" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8723,7 +8746,7 @@
       <c r="A96" s="16">
         <v>94</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C96" s="16">
@@ -8744,7 +8767,7 @@
       <c r="H96" s="16">
         <v>0.8</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="18">
         <v>0.4</v>
       </c>
       <c r="J96" s="16">
@@ -8789,7 +8812,7 @@
       <c r="W96" s="2">
         <v>1</v>
       </c>
-      <c r="X96" s="12">
+      <c r="X96" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8798,7 +8821,7 @@
       <c r="A97" s="16">
         <v>95</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C97" s="16">
@@ -8819,7 +8842,7 @@
       <c r="H97" s="16">
         <v>0.7</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I97" s="18">
         <v>0.5</v>
       </c>
       <c r="J97" s="16">
@@ -8864,7 +8887,7 @@
       <c r="W97" s="2">
         <v>1</v>
       </c>
-      <c r="X97" s="12">
+      <c r="X97" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8873,7 +8896,7 @@
       <c r="A98" s="16">
         <v>96</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C98" s="16">
@@ -8894,7 +8917,7 @@
       <c r="H98" s="16">
         <v>0.7</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="18">
         <v>0.4</v>
       </c>
       <c r="J98" s="16">
@@ -8939,7 +8962,7 @@
       <c r="W98" s="2">
         <v>0</v>
       </c>
-      <c r="X98" s="12">
+      <c r="X98" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -8948,7 +8971,7 @@
       <c r="A99" s="16">
         <v>97</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="17" t="s">
         <v>121</v>
       </c>
       <c r="C99" s="16">
@@ -8969,7 +8992,7 @@
       <c r="H99" s="16">
         <v>0.7</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I99" s="18">
         <v>0.5</v>
       </c>
       <c r="J99" s="16">
@@ -9014,7 +9037,7 @@
       <c r="W99" s="2">
         <v>1.5</v>
       </c>
-      <c r="X99" s="12">
+      <c r="X99" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9023,7 +9046,7 @@
       <c r="A100" s="16">
         <v>98</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C100" s="16">
@@ -9044,7 +9067,7 @@
       <c r="H100" s="16">
         <v>0.6</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="18">
         <v>0.4</v>
       </c>
       <c r="J100" s="16">
@@ -9089,7 +9112,7 @@
       <c r="W100" s="2">
         <v>0</v>
       </c>
-      <c r="X100" s="12">
+      <c r="X100" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9098,7 +9121,7 @@
       <c r="A101" s="16">
         <v>99</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C101" s="16">
@@ -9119,7 +9142,7 @@
       <c r="H101" s="16">
         <v>0</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I101" s="18">
         <v>0</v>
       </c>
       <c r="J101" s="16">
@@ -9164,7 +9187,7 @@
       <c r="W101" s="2">
         <v>1</v>
       </c>
-      <c r="X101" s="12">
+      <c r="X101" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9173,7 +9196,7 @@
       <c r="A102" s="16">
         <v>100</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C102" s="16">
@@ -9194,7 +9217,7 @@
       <c r="H102" s="16">
         <v>0.8</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="18">
         <v>0.4</v>
       </c>
       <c r="J102" s="16">
@@ -9239,7 +9262,7 @@
       <c r="W102" s="2">
         <v>1</v>
       </c>
-      <c r="X102" s="12">
+      <c r="X102" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9248,7 +9271,7 @@
       <c r="A103" s="16">
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C103" s="16">
@@ -9269,7 +9292,7 @@
       <c r="H103" s="16">
         <v>0.5</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="18">
         <v>0.5</v>
       </c>
       <c r="J103" s="16">
@@ -9314,7 +9337,7 @@
       <c r="W103" s="2">
         <v>1</v>
       </c>
-      <c r="X103" s="12">
+      <c r="X103" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9323,7 +9346,7 @@
       <c r="A104" s="16">
         <v>102</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C104" s="16">
@@ -9344,7 +9367,7 @@
       <c r="H104" s="16">
         <v>0.4</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="18">
         <v>0.4</v>
       </c>
       <c r="J104" s="16">
@@ -9389,7 +9412,7 @@
       <c r="W104" s="2">
         <v>2.25</v>
       </c>
-      <c r="X104" s="12">
+      <c r="X104" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9398,7 +9421,7 @@
       <c r="A105" s="16">
         <v>103</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="16">
@@ -9419,7 +9442,7 @@
       <c r="H105" s="16">
         <v>0.7</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="18">
         <v>0.8</v>
       </c>
       <c r="J105" s="16">
@@ -9464,7 +9487,7 @@
       <c r="W105" s="2">
         <v>0</v>
       </c>
-      <c r="X105" s="12">
+      <c r="X105" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9473,49 +9496,49 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C106" s="21">
         <v>5</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="22">
         <v>0.95</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="22">
         <v>1.02</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="22">
         <v>2</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="22">
         <v>30002</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="22">
         <v>0</v>
       </c>
       <c r="I106" s="16">
         <v>0.4</v>
       </c>
-      <c r="J106" s="19">
+      <c r="J106" s="22">
         <v>0.5</v>
       </c>
-      <c r="K106" s="19">
+      <c r="K106" s="22">
         <v>0.002</v>
       </c>
-      <c r="L106" s="19">
-        <v>0</v>
-      </c>
-      <c r="M106" s="19">
-        <v>0</v>
-      </c>
-      <c r="N106" s="19">
-        <v>0</v>
-      </c>
-      <c r="O106" s="19">
-        <v>0</v>
-      </c>
-      <c r="P106" s="19">
+      <c r="L106" s="22">
+        <v>0</v>
+      </c>
+      <c r="M106" s="22">
+        <v>0</v>
+      </c>
+      <c r="N106" s="22">
+        <v>0</v>
+      </c>
+      <c r="O106" s="22">
+        <v>0</v>
+      </c>
+      <c r="P106" s="22">
         <v>1</v>
       </c>
       <c r="Q106" s="2">
@@ -9539,7 +9562,7 @@
       <c r="W106" s="2">
         <v>0</v>
       </c>
-      <c r="X106" s="12">
+      <c r="X106" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9548,10 +9571,10 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="19">
         <v>1</v>
       </c>
       <c r="D107" s="2">
@@ -9614,7 +9637,7 @@
       <c r="W107" s="2">
         <v>3</v>
       </c>
-      <c r="X107" s="12">
+      <c r="X107" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9626,7 +9649,7 @@
       <c r="B108" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C108" s="19">
         <v>3</v>
       </c>
       <c r="D108" s="2">
@@ -9635,10 +9658,10 @@
       <c r="E108" s="2">
         <v>1.01</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="2">
         <v>2</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="2">
         <v>30005</v>
       </c>
       <c r="H108" s="2">
@@ -9689,7 +9712,7 @@
       <c r="W108" s="2">
         <v>1.5</v>
       </c>
-      <c r="X108" s="12">
+      <c r="X108" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9701,7 +9724,7 @@
       <c r="B109" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C109" s="19">
         <v>2</v>
       </c>
       <c r="D109" s="2">
@@ -9710,10 +9733,10 @@
       <c r="E109" s="2">
         <v>1.02</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="2">
         <v>2</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G109" s="2">
         <v>30003</v>
       </c>
       <c r="H109" s="2">
@@ -9725,7 +9748,7 @@
       <c r="J109" s="2">
         <v>0.6</v>
       </c>
-      <c r="K109" s="12">
+      <c r="K109" s="2">
         <v>0.002</v>
       </c>
       <c r="L109" s="2">
@@ -9764,7 +9787,7 @@
       <c r="W109" s="2">
         <v>0</v>
       </c>
-      <c r="X109" s="12">
+      <c r="X109" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9776,7 +9799,7 @@
       <c r="B110" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="18">
+      <c r="C110" s="19">
         <v>5</v>
       </c>
       <c r="D110" s="2">
@@ -9785,34 +9808,34 @@
       <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F110" s="12">
-        <v>1</v>
-      </c>
-      <c r="G110" s="14">
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
         <v>30002</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="2">
         <v>0.6</v>
       </c>
-      <c r="I110" s="21">
-        <v>0</v>
-      </c>
-      <c r="J110" s="12">
+      <c r="I110" s="16">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
         <v>0.3</v>
       </c>
-      <c r="K110" s="12">
-        <v>0</v>
-      </c>
-      <c r="L110" s="12">
-        <v>0</v>
-      </c>
-      <c r="M110" s="12">
-        <v>0</v>
-      </c>
-      <c r="N110" s="12">
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
         <v>0.0025</v>
       </c>
-      <c r="O110" s="12">
+      <c r="O110" s="2">
         <v>0</v>
       </c>
       <c r="P110" s="2">
@@ -9821,79 +9844,223 @@
       <c r="Q110" s="2">
         <v>1</v>
       </c>
-      <c r="R110" s="12">
-        <v>0</v>
-      </c>
-      <c r="S110" s="12">
-        <v>0</v>
-      </c>
-      <c r="T110" s="12">
-        <v>0</v>
-      </c>
-      <c r="U110" s="12">
+      <c r="R110" s="2">
+        <v>0</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0</v>
+      </c>
+      <c r="U110" s="2">
         <v>4.5</v>
       </c>
-      <c r="V110" s="12">
-        <v>0</v>
-      </c>
-      <c r="W110" s="12">
-        <v>0</v>
-      </c>
-      <c r="X110" s="12">
+      <c r="V110" s="2">
+        <v>0</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="14">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="111" spans="9:9">
-      <c r="I111" s="21"/>
-    </row>
-    <row r="112" spans="9:9">
-      <c r="I112" s="21"/>
+    <row r="111" spans="1:24">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="19">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="F111" s="2">
+        <v>3</v>
+      </c>
+      <c r="G111" s="2">
+        <v>30005</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I111" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>2</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>3</v>
+      </c>
+      <c r="U111" s="2">
+        <v>3</v>
+      </c>
+      <c r="V111" s="2">
+        <v>0</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="19">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.985</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>30001</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I112" s="16">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R112" s="2">
+        <v>0</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0</v>
+      </c>
+      <c r="W112" s="2">
+        <v>0</v>
+      </c>
+      <c r="X112" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="113" spans="9:9">
-      <c r="I113" s="21"/>
+      <c r="I113" s="23"/>
     </row>
     <row r="114" spans="9:9">
-      <c r="I114" s="21"/>
+      <c r="I114" s="23"/>
     </row>
     <row r="115" spans="9:9">
-      <c r="I115" s="21"/>
+      <c r="I115" s="23"/>
     </row>
     <row r="116" spans="9:9">
-      <c r="I116" s="21"/>
+      <c r="I116" s="23"/>
     </row>
     <row r="117" spans="9:9">
-      <c r="I117" s="21"/>
+      <c r="I117" s="23"/>
     </row>
     <row r="118" spans="9:9">
-      <c r="I118" s="21"/>
+      <c r="I118" s="23"/>
     </row>
     <row r="119" spans="9:9">
-      <c r="I119" s="21"/>
+      <c r="I119" s="23"/>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="21"/>
+      <c r="I120" s="23"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="21"/>
+      <c r="I121" s="23"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="21"/>
+      <c r="I122" s="23"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="21"/>
+      <c r="I123" s="23"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="21"/>
+      <c r="I124" s="23"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="21"/>
+      <c r="I125" s="23"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="21"/>
+      <c r="I126" s="23"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="21"/>
+      <c r="I127" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P$1:P$1048576">
@@ -9905,7 +10072,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b0dff87-4458-4c9c-b979-21d128d358dd}</x14:id>
+          <x14:id>{76849758-6825-40e4-90c3-a4821c6481e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9929,7 +10096,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b0dff87-4458-4c9c-b979-21d128d358dd}">
+          <x14:cfRule type="dataBar" id="{76849758-6825-40e4-90c3-a4821c6481e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9958,10 +10125,10 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10439,37 +10606,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -10477,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10515,7 +10682,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -10553,7 +10720,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -10591,7 +10758,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -10629,7 +10796,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -10667,7 +10834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -10705,7 +10872,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -10743,7 +10910,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -10781,7 +10948,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -10819,7 +10986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -10857,7 +11024,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -10895,7 +11062,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -10933,7 +11100,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -10971,7 +11138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -11009,7 +11176,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -11047,7 +11214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -11085,7 +11252,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -11123,7 +11290,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11161,7 +11328,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11199,7 +11366,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11237,7 +11404,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11275,7 +11442,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11313,7 +11480,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11351,7 +11518,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11403,7 +11570,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="32600"/>
+    <workbookView windowWidth="21600"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -602,6 +602,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -609,7 +616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -617,13 +624,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -638,10 +638,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,40 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,24 +677,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +716,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +752,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,169 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,9 +966,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,36 +1029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1032,162 +1043,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1195,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,6 +1255,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1584,11 +1587,11 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M87" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W113" sqref="W113"/>
+      <selection pane="bottomRight" activeCell="W95" sqref="W95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -9242,25 +9245,25 @@
         <v>1</v>
       </c>
       <c r="Q102" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="V102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W102" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X102" s="14">
         <f t="shared" si="2"/>
@@ -9314,28 +9317,28 @@
         <v>0</v>
       </c>
       <c r="P103" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R103" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S103" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X103" s="14">
         <f t="shared" si="2"/>
@@ -10017,50 +10020,122 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="113" spans="9:9">
-      <c r="I113" s="23"/>
+    <row r="113" spans="1:24">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.015</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>30003</v>
+      </c>
+      <c r="H113" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I113" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J113" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="14">
+        <v>0</v>
+      </c>
+      <c r="L113" s="14">
+        <v>0</v>
+      </c>
+      <c r="M113" s="14">
+        <v>0</v>
+      </c>
+      <c r="N113" s="14">
+        <v>0.0025</v>
+      </c>
+      <c r="O113" s="14">
+        <v>0</v>
+      </c>
+      <c r="P113" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R113" s="14">
+        <v>0</v>
+      </c>
+      <c r="S113" s="14">
+        <v>3</v>
+      </c>
+      <c r="T113" s="14">
+        <v>0</v>
+      </c>
+      <c r="U113" s="14">
+        <v>0</v>
+      </c>
+      <c r="V113" s="14">
+        <v>0</v>
+      </c>
+      <c r="W113" s="14">
+        <v>3</v>
+      </c>
+      <c r="X113" s="14">
+        <f>SUM(R113:T113)/2+SUM(U113:W113)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="114" spans="9:9">
-      <c r="I114" s="23"/>
+      <c r="I114" s="24"/>
     </row>
     <row r="115" spans="9:9">
-      <c r="I115" s="23"/>
+      <c r="I115" s="24"/>
     </row>
     <row r="116" spans="9:9">
-      <c r="I116" s="23"/>
+      <c r="I116" s="24"/>
     </row>
     <row r="117" spans="9:9">
-      <c r="I117" s="23"/>
+      <c r="I117" s="24"/>
     </row>
     <row r="118" spans="9:9">
-      <c r="I118" s="23"/>
+      <c r="I118" s="24"/>
     </row>
     <row r="119" spans="9:9">
-      <c r="I119" s="23"/>
+      <c r="I119" s="24"/>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="23"/>
+      <c r="I120" s="24"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="23"/>
+      <c r="I121" s="24"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="23"/>
+      <c r="I122" s="24"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="23"/>
+      <c r="I123" s="24"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="23"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="23"/>
+      <c r="I125" s="24"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="23"/>
+      <c r="I126" s="24"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="23"/>
+      <c r="I127" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P$1:P$1048576">
@@ -10072,7 +10147,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76849758-6825-40e4-90c3-a4821c6481e7}</x14:id>
+          <x14:id>{bd0d9cea-25b5-4db4-85de-2fb553737190}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10096,7 +10171,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76849758-6825-40e4-90c3-a4821c6481e7}">
+          <x14:cfRule type="dataBar" id="{bd0d9cea-25b5-4db4-85de-2fb553737190}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>_id</t>
   </si>
@@ -492,6 +492,12 @@
     <t>阿修罗独角仙-贝斯手</t>
   </si>
   <si>
+    <t>青年琦玉</t>
+  </si>
+  <si>
+    <t>杰诺斯-1周年版</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -542,9 +548,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -595,13 +601,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -610,6 +609,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,25 +639,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,16 +655,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,35 +672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +693,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -730,9 +722,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,37 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,121 +782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +807,138 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,28 +955,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,32 +1030,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,153 +1055,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,9 +1261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1587,11 +1590,11 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W95" sqref="W95"/>
+      <selection pane="bottomRight" activeCell="X115" sqref="X115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -6641,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="X67" s="14">
-        <f t="shared" ref="X67:X112" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
+        <f t="shared" ref="X67:X115" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -10042,13 +10045,13 @@
       <c r="G113" s="2">
         <v>30003</v>
       </c>
-      <c r="H113" s="23">
+      <c r="H113" s="2">
         <v>0.7</v>
       </c>
       <c r="I113" s="16">
         <v>0.7</v>
       </c>
-      <c r="J113" s="23">
+      <c r="J113" s="2">
         <v>0.5</v>
       </c>
       <c r="K113" s="14">
@@ -10066,7 +10069,7 @@
       <c r="O113" s="14">
         <v>0</v>
       </c>
-      <c r="P113" s="14">
+      <c r="P113" s="2">
         <v>1</v>
       </c>
       <c r="Q113" s="2">
@@ -10091,51 +10094,195 @@
         <v>3</v>
       </c>
       <c r="X113" s="14">
-        <f>SUM(R113:T113)/2+SUM(U113:W113)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="9:9">
-      <c r="I114" s="24"/>
-    </row>
-    <row r="115" spans="9:9">
-      <c r="I115" s="24"/>
+    <row r="114" spans="1:24">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="13">
+        <v>4</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>3</v>
+      </c>
+      <c r="G114" s="2">
+        <v>30002</v>
+      </c>
+      <c r="H114" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I114" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K114" s="14">
+        <v>0</v>
+      </c>
+      <c r="L114" s="14">
+        <v>0</v>
+      </c>
+      <c r="M114" s="14">
+        <v>0</v>
+      </c>
+      <c r="N114" s="14">
+        <v>0</v>
+      </c>
+      <c r="O114" s="14">
+        <v>0.0025</v>
+      </c>
+      <c r="P114" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="14">
+        <v>0</v>
+      </c>
+      <c r="S114" s="14">
+        <v>3</v>
+      </c>
+      <c r="T114" s="14">
+        <v>0</v>
+      </c>
+      <c r="U114" s="14">
+        <v>3</v>
+      </c>
+      <c r="V114" s="14">
+        <v>0</v>
+      </c>
+      <c r="W114" s="14">
+        <v>0</v>
+      </c>
+      <c r="X114" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="13">
+        <v>5</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>2</v>
+      </c>
+      <c r="G115" s="2">
+        <v>30005</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0</v>
+      </c>
+      <c r="I115" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K115" s="14">
+        <v>0.002</v>
+      </c>
+      <c r="L115" s="14">
+        <v>0</v>
+      </c>
+      <c r="M115" s="14">
+        <v>0</v>
+      </c>
+      <c r="N115" s="14">
+        <v>0</v>
+      </c>
+      <c r="O115" s="14">
+        <v>0</v>
+      </c>
+      <c r="P115" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>2</v>
+      </c>
+      <c r="R115" s="14">
+        <v>0</v>
+      </c>
+      <c r="S115" s="14">
+        <v>0</v>
+      </c>
+      <c r="T115" s="14">
+        <v>0</v>
+      </c>
+      <c r="U115" s="14">
+        <v>0</v>
+      </c>
+      <c r="V115" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="W115" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="X115" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="116" spans="9:9">
-      <c r="I116" s="24"/>
+      <c r="I116" s="23"/>
     </row>
     <row r="117" spans="9:9">
-      <c r="I117" s="24"/>
+      <c r="I117" s="23"/>
     </row>
     <row r="118" spans="9:9">
-      <c r="I118" s="24"/>
+      <c r="I118" s="23"/>
     </row>
     <row r="119" spans="9:9">
-      <c r="I119" s="24"/>
+      <c r="I119" s="23"/>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="24"/>
+      <c r="I120" s="23"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="24"/>
+      <c r="I121" s="23"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="24"/>
+      <c r="I122" s="23"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="24"/>
+      <c r="I123" s="23"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="24"/>
+      <c r="I124" s="23"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="24"/>
+      <c r="I125" s="23"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="24"/>
+      <c r="I126" s="23"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="24"/>
+      <c r="I127" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P$1:P$1048576">
@@ -10147,7 +10294,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bd0d9cea-25b5-4db4-85de-2fb553737190}</x14:id>
+          <x14:id>{733303c1-fa46-497d-a47c-92c345fe310d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10171,7 +10318,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bd0d9cea-25b5-4db4-85de-2fb553737190}">
+          <x14:cfRule type="dataBar" id="{733303c1-fa46-497d-a47c-92c345fe310d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10200,10 +10347,10 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10681,37 +10828,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -10719,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10757,7 +10904,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -10795,7 +10942,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -10833,7 +10980,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -10871,7 +11018,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -10909,7 +11056,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -10947,7 +11094,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -10985,7 +11132,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -11023,7 +11170,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -11061,7 +11208,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -11099,7 +11246,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -11137,7 +11284,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -11175,7 +11322,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -11213,7 +11360,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -11251,7 +11398,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -11289,7 +11436,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -11327,7 +11474,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -11365,7 +11512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11403,7 +11550,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11441,7 +11588,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11479,7 +11626,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11517,7 +11664,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11555,7 +11702,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11593,7 +11740,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11645,7 +11792,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>_id</t>
   </si>
@@ -498,6 +498,9 @@
     <t>杰诺斯-1周年版</t>
   </si>
   <si>
+    <t>凤凰男</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -548,10 +551,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -614,9 +617,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,30 +646,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,6 +665,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -678,8 +689,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,6 +719,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -701,44 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,19 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +797,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,31 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,31 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,37 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +918,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +959,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -976,16 +1014,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1009,43 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,139 +1058,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,11 +1593,11 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X115" sqref="X115"/>
+      <selection pane="bottomRight" activeCell="T128" sqref="T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -3170,28 +3173,28 @@
         <v>0</v>
       </c>
       <c r="P21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T21" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W21" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X21" s="14">
         <f t="shared" si="0"/>
@@ -5495,28 +5498,28 @@
         <v>0</v>
       </c>
       <c r="P52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X52" s="14">
         <f t="shared" si="1"/>
@@ -6320,28 +6323,28 @@
         <v>0</v>
       </c>
       <c r="P63" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="W63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="14">
         <f t="shared" si="1"/>
@@ -6644,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="X67" s="14">
-        <f t="shared" ref="X67:X115" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
+        <f t="shared" ref="X67:X116" si="2">SUM(R67:T67)/2+SUM(U67:W67)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -8420,28 +8423,28 @@
         <v>0</v>
       </c>
       <c r="P91" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="2">
         <v>0</v>
       </c>
       <c r="R91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91" s="14">
         <f t="shared" si="2"/>
@@ -10248,8 +10251,80 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="116" spans="9:9">
-      <c r="I116" s="23"/>
+    <row r="116" spans="1:24">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="13">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="F116" s="2">
+        <v>3</v>
+      </c>
+      <c r="G116" s="2">
+        <v>30004</v>
+      </c>
+      <c r="H116" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I116" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K116" s="14">
+        <v>0</v>
+      </c>
+      <c r="L116" s="14">
+        <v>0</v>
+      </c>
+      <c r="M116" s="14">
+        <v>0.002</v>
+      </c>
+      <c r="N116" s="14">
+        <v>0</v>
+      </c>
+      <c r="O116" s="14">
+        <v>0</v>
+      </c>
+      <c r="P116" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>2</v>
+      </c>
+      <c r="R116" s="14">
+        <v>0</v>
+      </c>
+      <c r="S116" s="14">
+        <v>3</v>
+      </c>
+      <c r="T116" s="14">
+        <v>0</v>
+      </c>
+      <c r="U116" s="14">
+        <v>3</v>
+      </c>
+      <c r="V116" s="14">
+        <v>0</v>
+      </c>
+      <c r="W116" s="14">
+        <v>0</v>
+      </c>
+      <c r="X116" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" s="23"/>
@@ -10294,7 +10369,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{733303c1-fa46-497d-a47c-92c345fe310d}</x14:id>
+          <x14:id>{433c12e2-e363-4170-a90b-5c8ef680a125}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10318,7 +10393,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{733303c1-fa46-497d-a47c-92c345fe310d}">
+          <x14:cfRule type="dataBar" id="{433c12e2-e363-4170-a90b-5c8ef680a125}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10347,10 +10422,10 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10828,37 +10903,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -10866,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10904,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -10942,7 +11017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -10980,7 +11055,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -11018,7 +11093,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -11056,7 +11131,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -11094,7 +11169,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -11132,7 +11207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -11170,7 +11245,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -11208,7 +11283,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -11246,7 +11321,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -11284,7 +11359,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -11322,7 +11397,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -11360,7 +11435,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -11398,7 +11473,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -11436,7 +11511,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -11474,7 +11549,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -11512,7 +11587,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11550,7 +11625,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11588,7 +11663,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11626,7 +11701,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11664,7 +11739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11702,7 +11777,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11740,7 +11815,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11792,7 +11867,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/opm_hero_property/design/hero_design.xlsx
+++ b/opm_hero_property/design/hero_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600"/>
+    <workbookView windowWidth="20860"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌设定" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>_id</t>
   </si>
@@ -501,6 +501,15 @@
     <t>凤凰男</t>
   </si>
   <si>
+    <t>闪光弗莱什</t>
+  </si>
+  <si>
+    <t>僵尸男-夏日派对版</t>
+  </si>
+  <si>
+    <t>地狱的吹雪-夏日派对版</t>
+  </si>
+  <si>
     <t>HeroId</t>
   </si>
   <si>
@@ -535,6 +544,15 @@
   </si>
   <si>
     <t>_mechanical</t>
+  </si>
+  <si>
+    <t>_collection_upgrade</t>
+  </si>
+  <si>
+    <t>_collection_break</t>
+  </si>
+  <si>
+    <t>_collection_collect</t>
   </si>
   <si>
     <t>pve</t>
@@ -551,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -604,6 +622,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -617,8 +657,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -633,91 +750,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -725,23 +757,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +779,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,37 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,127 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,8 +976,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,48 +986,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,8 +1024,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,153 +1076,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,6 +1282,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1593,11 +1614,11 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T128" sqref="T128"/>
+      <selection pane="bottomRight" activeCell="S118" sqref="S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -2573,28 +2594,28 @@
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="14">
         <f t="shared" si="0"/>
@@ -3548,28 +3569,28 @@
         <v>0</v>
       </c>
       <c r="P26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" s="14">
         <f t="shared" si="0"/>
@@ -6173,28 +6194,28 @@
         <v>0.0025</v>
       </c>
       <c r="P61" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="2">
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="W61" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X61" s="14">
         <f t="shared" si="1"/>
@@ -8498,28 +8519,28 @@
         <v>0</v>
       </c>
       <c r="P92" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R92" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S92" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V92" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X92" s="14">
         <f t="shared" si="2"/>
@@ -10033,7 +10054,7 @@
       <c r="B113" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="23">
         <v>1</v>
       </c>
       <c r="D113" s="2">
@@ -10108,7 +10129,7 @@
       <c r="B114" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="23">
         <v>4</v>
       </c>
       <c r="D114" s="2">
@@ -10126,7 +10147,7 @@
       <c r="H114" s="14">
         <v>0.6</v>
       </c>
-      <c r="I114" s="23">
+      <c r="I114" s="24">
         <v>0.8</v>
       </c>
       <c r="J114" s="14">
@@ -10183,7 +10204,7 @@
       <c r="B115" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="23">
         <v>5</v>
       </c>
       <c r="D115" s="2">
@@ -10201,7 +10222,7 @@
       <c r="H115" s="14">
         <v>0</v>
       </c>
-      <c r="I115" s="23">
+      <c r="I115" s="24">
         <v>0.4</v>
       </c>
       <c r="J115" s="14">
@@ -10258,7 +10279,7 @@
       <c r="B116" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="23">
         <v>2</v>
       </c>
       <c r="D116" s="2">
@@ -10276,7 +10297,7 @@
       <c r="H116" s="14">
         <v>0.6</v>
       </c>
-      <c r="I116" s="23">
+      <c r="I116" s="24">
         <v>0.8</v>
       </c>
       <c r="J116" s="14">
@@ -10326,38 +10347,254 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="117" spans="9:9">
-      <c r="I117" s="23"/>
-    </row>
-    <row r="118" spans="9:9">
-      <c r="I118" s="23"/>
-    </row>
-    <row r="119" spans="9:9">
-      <c r="I119" s="23"/>
+    <row r="117" spans="1:24">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="23">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1.025</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>30005</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I117" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J117" s="14">
+        <v>0</v>
+      </c>
+      <c r="K117" s="14">
+        <v>0</v>
+      </c>
+      <c r="L117" s="14">
+        <v>0</v>
+      </c>
+      <c r="M117" s="14">
+        <v>0</v>
+      </c>
+      <c r="N117" s="14">
+        <v>0.0025</v>
+      </c>
+      <c r="O117" s="14">
+        <v>0</v>
+      </c>
+      <c r="P117" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>5</v>
+      </c>
+      <c r="R117" s="14">
+        <v>0</v>
+      </c>
+      <c r="S117" s="14">
+        <v>0</v>
+      </c>
+      <c r="T117" s="14">
+        <v>0</v>
+      </c>
+      <c r="U117" s="14">
+        <v>0</v>
+      </c>
+      <c r="V117" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="W117" s="14">
+        <v>0</v>
+      </c>
+      <c r="X117" s="14">
+        <f>SUM(R117:T117)/2+SUM(U117:W117)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="23">
+        <v>3</v>
+      </c>
+      <c r="D118" s="16">
+        <v>0.992</v>
+      </c>
+      <c r="E118" s="16">
+        <v>1.016</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>30002</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I118" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="J118" s="14">
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <v>0.002</v>
+      </c>
+      <c r="L118" s="16">
+        <v>0</v>
+      </c>
+      <c r="M118" s="16">
+        <v>0</v>
+      </c>
+      <c r="N118" s="16">
+        <v>0</v>
+      </c>
+      <c r="O118" s="16">
+        <v>0</v>
+      </c>
+      <c r="P118" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>3</v>
+      </c>
+      <c r="R118" s="14">
+        <v>1</v>
+      </c>
+      <c r="S118" s="14">
+        <v>1</v>
+      </c>
+      <c r="T118" s="14">
+        <v>1</v>
+      </c>
+      <c r="U118" s="14">
+        <v>0</v>
+      </c>
+      <c r="V118" s="14">
+        <v>3</v>
+      </c>
+      <c r="W118" s="14">
+        <v>0</v>
+      </c>
+      <c r="X118" s="14">
+        <f>SUM(R118:T118)/2+SUM(U118:W118)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="23">
+        <v>5</v>
+      </c>
+      <c r="D119" s="16">
+        <v>0.965</v>
+      </c>
+      <c r="E119" s="16">
+        <v>1.016</v>
+      </c>
+      <c r="F119" s="2">
+        <v>3</v>
+      </c>
+      <c r="G119" s="2">
+        <v>30003</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I119" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K119" s="16">
+        <v>0</v>
+      </c>
+      <c r="L119" s="16">
+        <v>0.002</v>
+      </c>
+      <c r="M119" s="16">
+        <v>0</v>
+      </c>
+      <c r="N119" s="16">
+        <v>0</v>
+      </c>
+      <c r="O119" s="16">
+        <v>0</v>
+      </c>
+      <c r="P119" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>2</v>
+      </c>
+      <c r="R119" s="14">
+        <v>0</v>
+      </c>
+      <c r="S119" s="14">
+        <v>0</v>
+      </c>
+      <c r="T119" s="14">
+        <v>0</v>
+      </c>
+      <c r="U119" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="V119" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="W119" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="X119" s="14">
+        <f>SUM(R119:T119)/2+SUM(U119:W119)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="120" spans="9:9">
-      <c r="I120" s="23"/>
+      <c r="I120" s="24"/>
     </row>
     <row r="121" spans="9:9">
-      <c r="I121" s="23"/>
+      <c r="I121" s="24"/>
     </row>
     <row r="122" spans="9:9">
-      <c r="I122" s="23"/>
+      <c r="I122" s="24"/>
     </row>
     <row r="123" spans="9:9">
-      <c r="I123" s="23"/>
+      <c r="I123" s="24"/>
     </row>
     <row r="124" spans="9:9">
-      <c r="I124" s="23"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="9:9">
-      <c r="I125" s="23"/>
+      <c r="I125" s="24"/>
     </row>
     <row r="126" spans="9:9">
-      <c r="I126" s="23"/>
+      <c r="I126" s="24"/>
     </row>
     <row r="127" spans="9:9">
-      <c r="I127" s="23"/>
+      <c r="I127" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P$1:P$1048576">
@@ -10369,7 +10606,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{433c12e2-e363-4170-a90b-5c8ef680a125}</x14:id>
+          <x14:id>{7ca931f0-285b-4866-ae69-5f3298176d44}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10393,7 +10630,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{433c12e2-e363-4170-a90b-5c8ef680a125}">
+          <x14:cfRule type="dataBar" id="{7ca931f0-285b-4866-ae69-5f3298176d44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10422,10 +10659,10 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
@@ -10885,10 +11122,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4"/>
@@ -10896,52 +11133,64 @@
     <col min="1" max="3" width="9.125" style="2"/>
     <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
     <col min="5" max="12" width="9.125" style="2"/>
+    <col min="13" max="13" width="10.3571428571429" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="16.3571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4">
         <v>16</v>
@@ -10971,15 +11220,24 @@
         <v>10</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4">
         <v>16</v>
@@ -11009,15 +11267,24 @@
         <v>10</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -11047,15 +11314,24 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -11085,15 +11361,24 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4">
         <v>9</v>
@@ -11123,15 +11408,24 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -11161,15 +11455,24 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -11199,15 +11502,24 @@
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
@@ -11237,15 +11549,24 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4">
         <v>11</v>
@@ -11275,15 +11596,24 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -11313,15 +11643,24 @@
         <v>5</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -11351,15 +11690,24 @@
         <v>5</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -11389,15 +11737,24 @@
         <v>10</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
@@ -11427,15 +11784,24 @@
         <v>5</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -11465,15 +11831,24 @@
         <v>6</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
@@ -11503,15 +11878,24 @@
         <v>7</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -11541,15 +11925,24 @@
         <v>8</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -11579,15 +11972,24 @@
         <v>10</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>70</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
@@ -11617,15 +12019,24 @@
         <v>10</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
@@ -11655,15 +12066,24 @@
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -11693,15 +12113,24 @@
         <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -11731,15 +12160,24 @@
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4">
         <v>13</v>
@@ -11769,15 +12207,24 @@
         <v>7</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4">
         <v>15</v>
@@ -11807,15 +12254,24 @@
         <v>8</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4">
         <v>16</v>
@@ -11845,7 +12301,16 @@
         <v>10</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>70</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11859,15 +12324,15 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1">
